--- a/public/export-catalogo-cuentas.xlsx
+++ b/public/export-catalogo-cuentas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOX0041\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\sistema-contable\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B40E5EB-486D-4FA3-986A-EB5F4268C6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDAFA1D-E3C3-4EF4-975A-994BE6EF84C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9075" yWindow="390" windowWidth="11250" windowHeight="10440" xr2:uid="{A2AE2034-F604-4493-B048-E4A39ECD138D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A2AE2034-F604-4493-B048-E4A39ECD138D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="259">
   <si>
     <t>codigo</t>
   </si>
@@ -469,6 +469,339 @@
   </si>
   <si>
     <t xml:space="preserve">INDEMNIZACIONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACREEDORES VARIOS Y PROVISIONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACREEDORES LOCALES </t>
+  </si>
+  <si>
+    <t>PROVISIONES</t>
+  </si>
+  <si>
+    <t>COTIZACIONES LABORALES, PATRONALES Y DESCUENTOS</t>
+  </si>
+  <si>
+    <t>COTIZACIONES DE SALUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUOTA LABORAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUOTA PATRONAL </t>
+  </si>
+  <si>
+    <t>CUOTA INSAFORP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACIONES DE PENSION </t>
+  </si>
+  <si>
+    <t>COTIZACIONES LABORALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACIONES PATRONALES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETENCION DE IMPUESTO SOBRE LA RENTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPLEADOS PERMANENTES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETENCION A TERCEROS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORDENES DE DESCUENTOS DE BANCOS Y OTRAS INSTITUCIONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA DEBITO FISCAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBLIGACIONES POR ARRENDAMIENTO FINANCIERO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVIDENDOS POR PAGAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUESTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUESTOS POR PAGAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUESTO SOBRE LA RENTA ANUAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA POR PAGAR DEL PERIODO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA RETENIDO A TERCEROS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUESTOS MUNICIPALES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGO A CUENTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTROS IMPUESTOS POR PAGAR </t>
+  </si>
+  <si>
+    <t>CUENTAS POR PAGAR PARTES RELACIONADAS</t>
+  </si>
+  <si>
+    <t>CASA MATRIZ</t>
+  </si>
+  <si>
+    <t>DIRECTORES, EJECUTIVOS Y EMPLEADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGRESOS ANTICIPADOS DE CLIENTES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTICIPO DE CLIENTES </t>
+  </si>
+  <si>
+    <t>INTERESES POR PERCIBIR A PLAZOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASIVO NO CORRIENTES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESTAMOS A LARGO PLAZO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESTAMOS BANCARIOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESTAMOS NO BANCARIOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENTAS POR PAGAR A LARGO PLAZO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBLIGACIONES POR ARRENDAMIENTO FINANCIERO A LARGO PLAZO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENEFICIOS POR PAGAR A LARGO PLAZO A EMPLEADOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONES A LARGO PLAZO </t>
+  </si>
+  <si>
+    <t>CUENTAS POR PAGAR A LARGO PLAZO PARTES RELACIONADAS</t>
+  </si>
+  <si>
+    <t>COMPAÑIAS ASOCIADAS A LARGO PLAZO</t>
+  </si>
+  <si>
+    <t>OTRAS PARTES RELACIONADAS A LARGO PLAZO</t>
+  </si>
+  <si>
+    <t>ANTICIPO DE CLIENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESES POR PERCIBIR A PLAZOS </t>
+  </si>
+  <si>
+    <t>OTROS PASIVOS NO CORRIENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALORES PENDIENTES DE APLICAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARANTIAS Y DEPOSITOS RECIBIDOS </t>
+  </si>
+  <si>
+    <t>DIFERENCIAS TEMPORARIAS ACUMULADAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFERENCIAS TEMPORARIAS DEL PRESENTE EJERCICIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRIMONIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPITAL Y RESERVAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPITAL SOCIAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPITAL SOCIAL MINIMO </t>
+  </si>
+  <si>
+    <t>CAPITAL SOCIAL MINIMO NO PAGADO (CR)</t>
+  </si>
+  <si>
+    <t>CAPITAL VARIABLE</t>
+  </si>
+  <si>
+    <t>CAPITAL VARIABLE NO PAGADO (CR)</t>
+  </si>
+  <si>
+    <t>RESERVAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESERVA LEGAL </t>
+  </si>
+  <si>
+    <t>UTILIDADES ACUMULADAS</t>
+  </si>
+  <si>
+    <t>UTILIDADES DE EJERCICIOS ANTERIORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTILIDAD DEL PRESENTE EJERCICIO </t>
+  </si>
+  <si>
+    <t>PERDIDAS ACUMULADAS</t>
+  </si>
+  <si>
+    <t>PERDIDAS DE EJERCICIOS ANTERIORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERDIDA DEL PRESENTE EJERCICIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENTAS DE RESULTADO DEUDORAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTOS Y GASTOS POR ACTIVIDADES ORDINARIAS </t>
+  </si>
+  <si>
+    <t>COSTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTOS POR SERVICIOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUELDOS ORDINARIOS </t>
+  </si>
+  <si>
+    <t>HORAS EXTRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUINALDO </t>
+  </si>
+  <si>
+    <t>COMISIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONIFICACIONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRATIFICACIONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUOTA PATRONAL SEGURO SOCIAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUOTA PATRONAL AFP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUOTA INSAFORP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBUSTIBLE Y LUBRICANTES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIATICOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HONORARIOS PROFESIONALES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTENSILIOS </t>
+  </si>
+  <si>
+    <t>CAPACITACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMUNICACIONES </t>
+  </si>
+  <si>
+    <t>GASTOS REGISTRALES (CNR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTOS DE VIAJE Y REPRESENTACION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATENCIONES A EMPLEADOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIFORMES </t>
+  </si>
+  <si>
+    <t>REFRENDA DE MATRICULAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENERGIA ELECTRICA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICIO DE AGUA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONACIONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPRECIACION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMORTIZACION DE INTANGIBLES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTENIMIENTO DE VEHICULOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTENIMIENTO DE INSTALACIONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTENIMIENTO DE MOBILIARIO Y EQUIPO DE OFICINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTENIMIENTO EQUIPO E INSTRUMENTAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPALERIA Y UTILES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRENDAMIENTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOTOCOPIAS Y REPRODUCCION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIGILANCIA Y SEGURIDAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUMIGACION Y LIMPIEZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATENCIONES A CLIENTES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGURO DE VEHICULOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGURO DE EDIFICIOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGURO DE EQUIPOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENTAS INCOBRABLES </t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO DE EQUIPO Y SOFTWARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTICIPACIONES GREMIALES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTROS GASTOS </t>
   </si>
 </sst>
 </file>
@@ -838,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90C8A6F-E1C6-407F-8162-6A60B393BDBE}">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3897,6 +4230,9 @@
       <c r="E133" t="s">
         <v>18</v>
       </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
       <c r="G133" t="s">
         <v>134</v>
       </c>
@@ -3917,6 +4253,9 @@
       <c r="E134" t="s">
         <v>18</v>
       </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
       <c r="G134" t="s">
         <v>134</v>
       </c>
@@ -3937,6 +4276,9 @@
       <c r="E135" t="s">
         <v>18</v>
       </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
       <c r="G135" t="s">
         <v>134</v>
       </c>
@@ -3957,6 +4299,9 @@
       <c r="E136" t="s">
         <v>19</v>
       </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
       <c r="G136" t="s">
         <v>134</v>
       </c>
@@ -3977,6 +4322,9 @@
       <c r="E137" t="s">
         <v>19</v>
       </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
       <c r="G137" t="s">
         <v>134</v>
       </c>
@@ -3997,6 +4345,9 @@
       <c r="E138" t="s">
         <v>19</v>
       </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
       <c r="G138" t="s">
         <v>134</v>
       </c>
@@ -4017,6 +4368,9 @@
       <c r="E139" t="s">
         <v>19</v>
       </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
       <c r="G139" t="s">
         <v>134</v>
       </c>
@@ -4037,6 +4391,12 @@
       <c r="E140" t="s">
         <v>18</v>
       </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -4054,6 +4414,12 @@
       <c r="E141" t="s">
         <v>19</v>
       </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
@@ -4071,6 +4437,12 @@
       <c r="E142" t="s">
         <v>19</v>
       </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
@@ -4088,6 +4460,12 @@
       <c r="E143" t="s">
         <v>19</v>
       </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
@@ -4105,8 +4483,14 @@
       <c r="E144" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>2103</v>
       </c>
@@ -4122,8 +4506,14 @@
       <c r="E145" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>210301</v>
       </c>
@@ -4139,8 +4529,14 @@
       <c r="E146" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>21030101</v>
       </c>
@@ -4156,8 +4552,14 @@
       <c r="E147" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>21030102</v>
       </c>
@@ -4173,8 +4575,14 @@
       <c r="E148" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>21030103</v>
       </c>
@@ -4190,8 +4598,14 @@
       <c r="E149" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>21030104</v>
       </c>
@@ -4207,8 +4621,14 @@
       <c r="E150" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>21030105</v>
       </c>
@@ -4224,8 +4644,14 @@
       <c r="E151" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>21030106</v>
       </c>
@@ -4240,6 +4666,2516 @@
       </c>
       <c r="E152" t="s">
         <v>19</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>2104</v>
+      </c>
+      <c r="B153" t="s">
+        <v>148</v>
+      </c>
+      <c r="C153" s="4">
+        <v>21</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>210401</v>
+      </c>
+      <c r="B154" t="s">
+        <v>149</v>
+      </c>
+      <c r="C154" s="4">
+        <v>2104</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>210402</v>
+      </c>
+      <c r="B155" t="s">
+        <v>150</v>
+      </c>
+      <c r="C155" s="4">
+        <v>2104</v>
+      </c>
+      <c r="D155">
+        <v>4</v>
+      </c>
+      <c r="E155" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>2105</v>
+      </c>
+      <c r="B156" t="s">
+        <v>151</v>
+      </c>
+      <c r="C156" s="4">
+        <v>21</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
+        <v>18</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>210501</v>
+      </c>
+      <c r="B157" t="s">
+        <v>152</v>
+      </c>
+      <c r="C157" s="4">
+        <v>2105</v>
+      </c>
+      <c r="D157">
+        <v>4</v>
+      </c>
+      <c r="E157" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>21050101</v>
+      </c>
+      <c r="B158" t="s">
+        <v>153</v>
+      </c>
+      <c r="C158" s="4">
+        <v>210501</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+      <c r="E158" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>21050102</v>
+      </c>
+      <c r="B159" t="s">
+        <v>154</v>
+      </c>
+      <c r="C159" s="4">
+        <v>210501</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>21050103</v>
+      </c>
+      <c r="B160" t="s">
+        <v>155</v>
+      </c>
+      <c r="C160" s="4">
+        <v>210501</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>210502</v>
+      </c>
+      <c r="B161" t="s">
+        <v>156</v>
+      </c>
+      <c r="C161" s="4">
+        <v>2105</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161" t="s">
+        <v>19</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>21050201</v>
+      </c>
+      <c r="B162" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" s="4">
+        <v>210502</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+      <c r="E162" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>21050202</v>
+      </c>
+      <c r="B163" t="s">
+        <v>158</v>
+      </c>
+      <c r="C163" s="4">
+        <v>210502</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>210503</v>
+      </c>
+      <c r="B164" t="s">
+        <v>159</v>
+      </c>
+      <c r="C164" s="4">
+        <v>2105</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>21050301</v>
+      </c>
+      <c r="B165" t="s">
+        <v>160</v>
+      </c>
+      <c r="C165" s="4">
+        <v>210503</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165" t="s">
+        <v>19</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>21050302</v>
+      </c>
+      <c r="B166" t="s">
+        <v>161</v>
+      </c>
+      <c r="C166" s="4">
+        <v>210503</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>210504</v>
+      </c>
+      <c r="B167" t="s">
+        <v>162</v>
+      </c>
+      <c r="C167" s="4">
+        <v>2105</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167" t="s">
+        <v>19</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>2106</v>
+      </c>
+      <c r="B168" t="s">
+        <v>163</v>
+      </c>
+      <c r="C168" s="4">
+        <v>21</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+      <c r="E168" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>210601</v>
+      </c>
+      <c r="B169" t="s">
+        <v>163</v>
+      </c>
+      <c r="C169" s="4">
+        <v>2106</v>
+      </c>
+      <c r="D169">
+        <v>4</v>
+      </c>
+      <c r="E169" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>2107</v>
+      </c>
+      <c r="B170" t="s">
+        <v>164</v>
+      </c>
+      <c r="C170" s="4">
+        <v>21</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+      <c r="E170" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>210701</v>
+      </c>
+      <c r="B171" t="s">
+        <v>164</v>
+      </c>
+      <c r="C171" s="4">
+        <v>2107</v>
+      </c>
+      <c r="D171">
+        <v>4</v>
+      </c>
+      <c r="E171" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>2108</v>
+      </c>
+      <c r="B172" t="s">
+        <v>165</v>
+      </c>
+      <c r="C172" s="4">
+        <v>21</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="E172" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>210801</v>
+      </c>
+      <c r="B173" t="s">
+        <v>165</v>
+      </c>
+      <c r="C173" s="4">
+        <v>2108</v>
+      </c>
+      <c r="D173">
+        <v>4</v>
+      </c>
+      <c r="E173" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>2109</v>
+      </c>
+      <c r="B174" t="s">
+        <v>166</v>
+      </c>
+      <c r="C174" s="4">
+        <v>21</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+      <c r="E174" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>210901</v>
+      </c>
+      <c r="B175" t="s">
+        <v>167</v>
+      </c>
+      <c r="C175" s="4">
+        <v>2109</v>
+      </c>
+      <c r="D175">
+        <v>4</v>
+      </c>
+      <c r="E175" t="s">
+        <v>19</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>21090101</v>
+      </c>
+      <c r="B176" t="s">
+        <v>168</v>
+      </c>
+      <c r="C176" s="4">
+        <v>210901</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176" t="s">
+        <v>19</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>21090102</v>
+      </c>
+      <c r="B177" t="s">
+        <v>169</v>
+      </c>
+      <c r="C177" s="4">
+        <v>210901</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177" t="s">
+        <v>19</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>21090103</v>
+      </c>
+      <c r="B178" t="s">
+        <v>170</v>
+      </c>
+      <c r="C178" s="4">
+        <v>210901</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>21090104</v>
+      </c>
+      <c r="B179" t="s">
+        <v>171</v>
+      </c>
+      <c r="C179" s="4">
+        <v>210901</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>21090105</v>
+      </c>
+      <c r="B180" t="s">
+        <v>172</v>
+      </c>
+      <c r="C180" s="4">
+        <v>210901</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+      <c r="E180" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>21090106</v>
+      </c>
+      <c r="B181" t="s">
+        <v>173</v>
+      </c>
+      <c r="C181" s="4">
+        <v>210901</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>2110</v>
+      </c>
+      <c r="B182" t="s">
+        <v>174</v>
+      </c>
+      <c r="C182" s="4">
+        <v>21</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+      <c r="E182" t="s">
+        <v>18</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>211001</v>
+      </c>
+      <c r="B183" t="s">
+        <v>175</v>
+      </c>
+      <c r="C183" s="4">
+        <v>2110</v>
+      </c>
+      <c r="D183">
+        <v>4</v>
+      </c>
+      <c r="E183" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>211002</v>
+      </c>
+      <c r="B184" t="s">
+        <v>176</v>
+      </c>
+      <c r="C184" s="4">
+        <v>2110</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+      <c r="E184" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>211003</v>
+      </c>
+      <c r="B185" t="s">
+        <v>46</v>
+      </c>
+      <c r="C185" s="4">
+        <v>2110</v>
+      </c>
+      <c r="D185">
+        <v>4</v>
+      </c>
+      <c r="E185" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>211004</v>
+      </c>
+      <c r="B186" t="s">
+        <v>47</v>
+      </c>
+      <c r="C186" s="4">
+        <v>2110</v>
+      </c>
+      <c r="D186">
+        <v>4</v>
+      </c>
+      <c r="E186" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>211005</v>
+      </c>
+      <c r="B187" t="s">
+        <v>48</v>
+      </c>
+      <c r="C187" s="4">
+        <v>2110</v>
+      </c>
+      <c r="D187">
+        <v>4</v>
+      </c>
+      <c r="E187" t="s">
+        <v>19</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>2111</v>
+      </c>
+      <c r="B188" t="s">
+        <v>177</v>
+      </c>
+      <c r="C188" s="4">
+        <v>21</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>18</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>211101</v>
+      </c>
+      <c r="B189" t="s">
+        <v>178</v>
+      </c>
+      <c r="C189" s="4">
+        <v>2111</v>
+      </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+      <c r="E189" t="s">
+        <v>19</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>211102</v>
+      </c>
+      <c r="B190" t="s">
+        <v>179</v>
+      </c>
+      <c r="C190" s="4">
+        <v>2111</v>
+      </c>
+      <c r="D190">
+        <v>4</v>
+      </c>
+      <c r="E190" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>22</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C191" s="4">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191" t="s">
+        <v>18</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>2201</v>
+      </c>
+      <c r="B192" t="s">
+        <v>181</v>
+      </c>
+      <c r="C192" s="4">
+        <v>22</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+      <c r="E192" t="s">
+        <v>18</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>220101</v>
+      </c>
+      <c r="B193" t="s">
+        <v>182</v>
+      </c>
+      <c r="C193" s="4">
+        <v>2201</v>
+      </c>
+      <c r="D193">
+        <v>4</v>
+      </c>
+      <c r="E193" t="s">
+        <v>19</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>220102</v>
+      </c>
+      <c r="B194" t="s">
+        <v>183</v>
+      </c>
+      <c r="C194" s="4">
+        <v>2201</v>
+      </c>
+      <c r="D194">
+        <v>4</v>
+      </c>
+      <c r="E194" t="s">
+        <v>19</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>2202</v>
+      </c>
+      <c r="B195" t="s">
+        <v>184</v>
+      </c>
+      <c r="C195" s="4">
+        <v>22</v>
+      </c>
+      <c r="D195">
+        <v>3</v>
+      </c>
+      <c r="E195" t="s">
+        <v>18</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>220201</v>
+      </c>
+      <c r="B196" t="s">
+        <v>184</v>
+      </c>
+      <c r="C196" s="4">
+        <v>2102</v>
+      </c>
+      <c r="D196">
+        <v>4</v>
+      </c>
+      <c r="E196" t="s">
+        <v>19</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>2203</v>
+      </c>
+      <c r="B197" t="s">
+        <v>185</v>
+      </c>
+      <c r="C197" s="4">
+        <v>22</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="E197" t="s">
+        <v>18</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>220301</v>
+      </c>
+      <c r="B198" t="s">
+        <v>185</v>
+      </c>
+      <c r="C198" s="4">
+        <v>2203</v>
+      </c>
+      <c r="D198">
+        <v>4</v>
+      </c>
+      <c r="E198" t="s">
+        <v>19</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>2204</v>
+      </c>
+      <c r="B199" t="s">
+        <v>186</v>
+      </c>
+      <c r="C199" s="4">
+        <v>22</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+      <c r="E199" t="s">
+        <v>18</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>220401</v>
+      </c>
+      <c r="B200" t="s">
+        <v>186</v>
+      </c>
+      <c r="C200" s="4">
+        <v>2204</v>
+      </c>
+      <c r="D200">
+        <v>4</v>
+      </c>
+      <c r="E200" t="s">
+        <v>19</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>2205</v>
+      </c>
+      <c r="B201" t="s">
+        <v>187</v>
+      </c>
+      <c r="C201" s="4">
+        <v>22</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>220501</v>
+      </c>
+      <c r="B202" t="s">
+        <v>187</v>
+      </c>
+      <c r="C202" s="4">
+        <v>2205</v>
+      </c>
+      <c r="D202">
+        <v>4</v>
+      </c>
+      <c r="E202" t="s">
+        <v>19</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>2206</v>
+      </c>
+      <c r="B203" t="s">
+        <v>188</v>
+      </c>
+      <c r="C203" s="4">
+        <v>22</v>
+      </c>
+      <c r="D203">
+        <v>3</v>
+      </c>
+      <c r="E203" t="s">
+        <v>18</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>220601</v>
+      </c>
+      <c r="B204" t="s">
+        <v>117</v>
+      </c>
+      <c r="C204" s="4">
+        <v>2206</v>
+      </c>
+      <c r="D204">
+        <v>4</v>
+      </c>
+      <c r="E204" t="s">
+        <v>19</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>220602</v>
+      </c>
+      <c r="B205" t="s">
+        <v>118</v>
+      </c>
+      <c r="C205" s="4">
+        <v>2206</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205" t="s">
+        <v>19</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>220603</v>
+      </c>
+      <c r="B206" t="s">
+        <v>189</v>
+      </c>
+      <c r="C206" s="4">
+        <v>2206</v>
+      </c>
+      <c r="D206">
+        <v>4</v>
+      </c>
+      <c r="E206" t="s">
+        <v>19</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>220604</v>
+      </c>
+      <c r="B207" t="s">
+        <v>120</v>
+      </c>
+      <c r="C207" s="4">
+        <v>2206</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+      <c r="E207" t="s">
+        <v>19</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>220605</v>
+      </c>
+      <c r="B208" t="s">
+        <v>190</v>
+      </c>
+      <c r="C208" s="4">
+        <v>2206</v>
+      </c>
+      <c r="D208">
+        <v>4</v>
+      </c>
+      <c r="E208" t="s">
+        <v>19</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>2207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>177</v>
+      </c>
+      <c r="C209" s="4">
+        <v>22</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>18</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>220701</v>
+      </c>
+      <c r="B210" t="s">
+        <v>191</v>
+      </c>
+      <c r="C210" s="4">
+        <v>2207</v>
+      </c>
+      <c r="D210">
+        <v>4</v>
+      </c>
+      <c r="E210" t="s">
+        <v>19</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>220702</v>
+      </c>
+      <c r="B211" t="s">
+        <v>192</v>
+      </c>
+      <c r="C211" s="4">
+        <v>2207</v>
+      </c>
+      <c r="D211">
+        <v>4</v>
+      </c>
+      <c r="E211" t="s">
+        <v>19</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>2208</v>
+      </c>
+      <c r="B212" t="s">
+        <v>193</v>
+      </c>
+      <c r="C212" s="4">
+        <v>22</v>
+      </c>
+      <c r="D212">
+        <v>3</v>
+      </c>
+      <c r="E212" t="s">
+        <v>18</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>220801</v>
+      </c>
+      <c r="B213" t="s">
+        <v>194</v>
+      </c>
+      <c r="C213" s="4">
+        <v>2208</v>
+      </c>
+      <c r="D213">
+        <v>4</v>
+      </c>
+      <c r="E213" t="s">
+        <v>19</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>220802</v>
+      </c>
+      <c r="B214" t="s">
+        <v>195</v>
+      </c>
+      <c r="C214" s="4">
+        <v>2208</v>
+      </c>
+      <c r="D214">
+        <v>4</v>
+      </c>
+      <c r="E214" t="s">
+        <v>19</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>2209</v>
+      </c>
+      <c r="B215" t="s">
+        <v>122</v>
+      </c>
+      <c r="C215" s="4">
+        <v>22</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+      <c r="E215" t="s">
+        <v>18</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>220901</v>
+      </c>
+      <c r="B216" t="s">
+        <v>122</v>
+      </c>
+      <c r="C216" s="4">
+        <v>2209</v>
+      </c>
+      <c r="D216">
+        <v>4</v>
+      </c>
+      <c r="E216" t="s">
+        <v>19</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>22090101</v>
+      </c>
+      <c r="B217" t="s">
+        <v>196</v>
+      </c>
+      <c r="C217" s="4">
+        <v>2209</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+      <c r="E217" t="s">
+        <v>19</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>22090102</v>
+      </c>
+      <c r="B218" t="s">
+        <v>197</v>
+      </c>
+      <c r="C218" s="4">
+        <v>2209</v>
+      </c>
+      <c r="D218">
+        <v>4</v>
+      </c>
+      <c r="E218" t="s">
+        <v>19</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>3</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>18</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>31</v>
+      </c>
+      <c r="B220" t="s">
+        <v>199</v>
+      </c>
+      <c r="C220" s="4">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220" t="s">
+        <v>18</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>3101</v>
+      </c>
+      <c r="B221" t="s">
+        <v>200</v>
+      </c>
+      <c r="C221" s="4">
+        <v>31</v>
+      </c>
+      <c r="D221">
+        <v>3</v>
+      </c>
+      <c r="E221" t="s">
+        <v>18</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>310101</v>
+      </c>
+      <c r="B222" t="s">
+        <v>201</v>
+      </c>
+      <c r="C222" s="4">
+        <v>3101</v>
+      </c>
+      <c r="D222">
+        <v>4</v>
+      </c>
+      <c r="E222" t="s">
+        <v>18</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>31010101</v>
+      </c>
+      <c r="B223" t="s">
+        <v>201</v>
+      </c>
+      <c r="C223" s="4">
+        <v>310101</v>
+      </c>
+      <c r="D223">
+        <v>5</v>
+      </c>
+      <c r="E223" t="s">
+        <v>19</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>31010102</v>
+      </c>
+      <c r="B224" t="s">
+        <v>202</v>
+      </c>
+      <c r="C224" s="4">
+        <v>310101</v>
+      </c>
+      <c r="D224">
+        <v>5</v>
+      </c>
+      <c r="E224" t="s">
+        <v>19</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>310102</v>
+      </c>
+      <c r="B225" t="s">
+        <v>203</v>
+      </c>
+      <c r="C225" s="4">
+        <v>3101</v>
+      </c>
+      <c r="D225">
+        <v>3</v>
+      </c>
+      <c r="E225" t="s">
+        <v>18</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>31010201</v>
+      </c>
+      <c r="B226" t="s">
+        <v>203</v>
+      </c>
+      <c r="C226" s="4">
+        <v>310102</v>
+      </c>
+      <c r="D226">
+        <v>4</v>
+      </c>
+      <c r="E226" t="s">
+        <v>19</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>31010202</v>
+      </c>
+      <c r="B227" t="s">
+        <v>204</v>
+      </c>
+      <c r="C227" s="4">
+        <v>310102</v>
+      </c>
+      <c r="D227">
+        <v>4</v>
+      </c>
+      <c r="E227" t="s">
+        <v>19</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>3102</v>
+      </c>
+      <c r="B228" t="s">
+        <v>205</v>
+      </c>
+      <c r="C228" s="4">
+        <v>31</v>
+      </c>
+      <c r="D228">
+        <v>3</v>
+      </c>
+      <c r="E228" t="s">
+        <v>18</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>310201</v>
+      </c>
+      <c r="B229" t="s">
+        <v>206</v>
+      </c>
+      <c r="C229" s="4">
+        <v>3102</v>
+      </c>
+      <c r="D229">
+        <v>4</v>
+      </c>
+      <c r="E229" t="s">
+        <v>19</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>3103</v>
+      </c>
+      <c r="B230" t="s">
+        <v>207</v>
+      </c>
+      <c r="C230" s="4">
+        <v>31</v>
+      </c>
+      <c r="D230">
+        <v>3</v>
+      </c>
+      <c r="E230" t="s">
+        <v>18</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>310301</v>
+      </c>
+      <c r="B231" t="s">
+        <v>208</v>
+      </c>
+      <c r="C231" s="4">
+        <v>3103</v>
+      </c>
+      <c r="D231">
+        <v>4</v>
+      </c>
+      <c r="E231" t="s">
+        <v>19</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>310302</v>
+      </c>
+      <c r="B232" t="s">
+        <v>209</v>
+      </c>
+      <c r="C232" s="4">
+        <v>3103</v>
+      </c>
+      <c r="D232">
+        <v>4</v>
+      </c>
+      <c r="E232" t="s">
+        <v>19</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>3104</v>
+      </c>
+      <c r="B233" t="s">
+        <v>210</v>
+      </c>
+      <c r="C233" s="4">
+        <v>31</v>
+      </c>
+      <c r="D233">
+        <v>3</v>
+      </c>
+      <c r="E233" t="s">
+        <v>18</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>310401</v>
+      </c>
+      <c r="B234" t="s">
+        <v>211</v>
+      </c>
+      <c r="C234" s="4">
+        <v>3104</v>
+      </c>
+      <c r="D234">
+        <v>4</v>
+      </c>
+      <c r="E234" t="s">
+        <v>19</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>310402</v>
+      </c>
+      <c r="B235" t="s">
+        <v>212</v>
+      </c>
+      <c r="C235" s="4">
+        <v>3104</v>
+      </c>
+      <c r="D235">
+        <v>4</v>
+      </c>
+      <c r="E235" t="s">
+        <v>19</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>4</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D236" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>41</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C237" s="4">
+        <v>1</v>
+      </c>
+      <c r="D237" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>4101</v>
+      </c>
+      <c r="B238" t="s">
+        <v>215</v>
+      </c>
+      <c r="D238" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>410101</v>
+      </c>
+      <c r="B239" t="s">
+        <v>216</v>
+      </c>
+      <c r="D239" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>41010101</v>
+      </c>
+      <c r="B240" t="s">
+        <v>217</v>
+      </c>
+      <c r="D240" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <f>+A240+1</f>
+        <v>41010102</v>
+      </c>
+      <c r="B241" t="s">
+        <v>218</v>
+      </c>
+      <c r="D241" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <f t="shared" ref="A242:A250" si="0">+A241+1</f>
+        <v>41010103</v>
+      </c>
+      <c r="B242" t="s">
+        <v>219</v>
+      </c>
+      <c r="D242" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <f t="shared" si="0"/>
+        <v>41010104</v>
+      </c>
+      <c r="B243" t="s">
+        <v>220</v>
+      </c>
+      <c r="D243" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <f t="shared" si="0"/>
+        <v>41010105</v>
+      </c>
+      <c r="B244" t="s">
+        <v>221</v>
+      </c>
+      <c r="D244" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <f t="shared" si="0"/>
+        <v>41010106</v>
+      </c>
+      <c r="B245" t="s">
+        <v>222</v>
+      </c>
+      <c r="D245" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <f t="shared" si="0"/>
+        <v>41010107</v>
+      </c>
+      <c r="B246" t="s">
+        <v>145</v>
+      </c>
+      <c r="D246" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <f t="shared" si="0"/>
+        <v>41010108</v>
+      </c>
+      <c r="B247" t="s">
+        <v>147</v>
+      </c>
+      <c r="D247" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <f t="shared" si="0"/>
+        <v>41010109</v>
+      </c>
+      <c r="B248" t="s">
+        <v>223</v>
+      </c>
+      <c r="D248" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <f t="shared" si="0"/>
+        <v>41010110</v>
+      </c>
+      <c r="B249" t="s">
+        <v>224</v>
+      </c>
+      <c r="D249" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <f t="shared" si="0"/>
+        <v>41010111</v>
+      </c>
+      <c r="B250" t="s">
+        <v>225</v>
+      </c>
+      <c r="D250" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <f>+A250+1</f>
+        <v>41010112</v>
+      </c>
+      <c r="B251" t="s">
+        <v>226</v>
+      </c>
+      <c r="D251" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <f t="shared" ref="A252:A285" si="1">+A251+1</f>
+        <v>41010113</v>
+      </c>
+      <c r="B252" t="s">
+        <v>227</v>
+      </c>
+      <c r="D252" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <f t="shared" si="1"/>
+        <v>41010114</v>
+      </c>
+      <c r="B253" t="s">
+        <v>171</v>
+      </c>
+      <c r="D253" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <f t="shared" si="1"/>
+        <v>41010115</v>
+      </c>
+      <c r="B254" t="s">
+        <v>228</v>
+      </c>
+      <c r="D254" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <f t="shared" si="1"/>
+        <v>41010116</v>
+      </c>
+      <c r="B255" t="s">
+        <v>229</v>
+      </c>
+      <c r="D255" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <f t="shared" si="1"/>
+        <v>41010117</v>
+      </c>
+      <c r="B256" t="s">
+        <v>230</v>
+      </c>
+      <c r="D256" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <f t="shared" si="1"/>
+        <v>41010118</v>
+      </c>
+      <c r="B257" t="s">
+        <v>231</v>
+      </c>
+      <c r="D257" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <f t="shared" si="1"/>
+        <v>41010119</v>
+      </c>
+      <c r="B258" t="s">
+        <v>232</v>
+      </c>
+      <c r="D258" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <f t="shared" si="1"/>
+        <v>41010120</v>
+      </c>
+      <c r="B259" t="s">
+        <v>233</v>
+      </c>
+      <c r="D259" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <f t="shared" si="1"/>
+        <v>41010121</v>
+      </c>
+      <c r="B260" t="s">
+        <v>234</v>
+      </c>
+      <c r="D260" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <f t="shared" si="1"/>
+        <v>41010122</v>
+      </c>
+      <c r="B261" t="s">
+        <v>235</v>
+      </c>
+      <c r="D261" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <f t="shared" si="1"/>
+        <v>41010123</v>
+      </c>
+      <c r="B262" t="s">
+        <v>236</v>
+      </c>
+      <c r="D262" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <f t="shared" si="1"/>
+        <v>41010124</v>
+      </c>
+      <c r="B263" t="s">
+        <v>237</v>
+      </c>
+      <c r="D263" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <f t="shared" si="1"/>
+        <v>41010125</v>
+      </c>
+      <c r="B264" t="s">
+        <v>238</v>
+      </c>
+      <c r="D264" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <f t="shared" si="1"/>
+        <v>41010126</v>
+      </c>
+      <c r="B265" t="s">
+        <v>239</v>
+      </c>
+      <c r="D265" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
+        <f t="shared" si="1"/>
+        <v>41010127</v>
+      </c>
+      <c r="B266" t="s">
+        <v>240</v>
+      </c>
+      <c r="D266" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
+        <f t="shared" si="1"/>
+        <v>41010128</v>
+      </c>
+      <c r="B267" t="s">
+        <v>241</v>
+      </c>
+      <c r="D267" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <f t="shared" si="1"/>
+        <v>41010129</v>
+      </c>
+      <c r="B268" t="s">
+        <v>242</v>
+      </c>
+      <c r="D268" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <f t="shared" si="1"/>
+        <v>41010130</v>
+      </c>
+      <c r="B269" t="s">
+        <v>243</v>
+      </c>
+      <c r="D269" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <f t="shared" si="1"/>
+        <v>41010131</v>
+      </c>
+      <c r="B270" t="s">
+        <v>244</v>
+      </c>
+      <c r="D270" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <f t="shared" si="1"/>
+        <v>41010132</v>
+      </c>
+      <c r="B271" t="s">
+        <v>245</v>
+      </c>
+      <c r="D271" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <f t="shared" si="1"/>
+        <v>41010133</v>
+      </c>
+      <c r="B272" t="s">
+        <v>246</v>
+      </c>
+      <c r="D272" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <f t="shared" si="1"/>
+        <v>41010134</v>
+      </c>
+      <c r="B273" t="s">
+        <v>247</v>
+      </c>
+      <c r="D273" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <f t="shared" si="1"/>
+        <v>41010135</v>
+      </c>
+      <c r="B274" t="s">
+        <v>248</v>
+      </c>
+      <c r="D274" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <f t="shared" si="1"/>
+        <v>41010136</v>
+      </c>
+      <c r="B275" t="s">
+        <v>57</v>
+      </c>
+      <c r="D275" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <f t="shared" si="1"/>
+        <v>41010137</v>
+      </c>
+      <c r="B276" t="s">
+        <v>249</v>
+      </c>
+      <c r="D276" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <f t="shared" si="1"/>
+        <v>41010138</v>
+      </c>
+      <c r="B277" t="s">
+        <v>250</v>
+      </c>
+      <c r="D277" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <f t="shared" si="1"/>
+        <v>41010139</v>
+      </c>
+      <c r="B278" t="s">
+        <v>251</v>
+      </c>
+      <c r="D278" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <f t="shared" si="1"/>
+        <v>41010140</v>
+      </c>
+      <c r="B279" t="s">
+        <v>252</v>
+      </c>
+      <c r="D279" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <f t="shared" si="1"/>
+        <v>41010141</v>
+      </c>
+      <c r="B280" t="s">
+        <v>253</v>
+      </c>
+      <c r="D280" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <f t="shared" si="1"/>
+        <v>41010142</v>
+      </c>
+      <c r="B281" t="s">
+        <v>254</v>
+      </c>
+      <c r="D281" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <f t="shared" si="1"/>
+        <v>41010143</v>
+      </c>
+      <c r="B282" t="s">
+        <v>255</v>
+      </c>
+      <c r="D282" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <f t="shared" si="1"/>
+        <v>41010144</v>
+      </c>
+      <c r="B283" t="s">
+        <v>256</v>
+      </c>
+      <c r="D283" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <f t="shared" si="1"/>
+        <v>41010145</v>
+      </c>
+      <c r="B284" t="s">
+        <v>257</v>
+      </c>
+      <c r="D284" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <f t="shared" si="1"/>
+        <v>41010146</v>
+      </c>
+      <c r="B285" t="s">
+        <v>258</v>
+      </c>
+      <c r="D285" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/export-catalogo-cuentas.xlsx
+++ b/public/export-catalogo-cuentas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\sistema-contable\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\sistema-contable-laravel\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDAFA1D-E3C3-4EF4-975A-994BE6EF84C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE22EAD-E89C-4122-9F61-D444E4AC184A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A2AE2034-F604-4493-B048-E4A39ECD138D}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A2AE2034-F604-4493-B048-E4A39ECD138D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="288">
   <si>
     <t>codigo</t>
   </si>
@@ -802,6 +802,93 @@
   </si>
   <si>
     <t xml:space="preserve">OTROS GASTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTOS POR VENTA DE PRODUCTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTOS DE OPERACIÓN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTOS DE VENTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTOS DE ADMINISTRACIÓN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTOS FINANCIEROS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESES </t>
+  </si>
+  <si>
+    <t>GASTOS POR IMPUESTO SOBRE LA RENTA CORRIENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTOS NO ORDINARIOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTOS POR DETERIORO DE ACTIVOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTOS POR DETERIORO DE INVENTARIOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTOS POR DETERIORO DE PROPIEDADES, PLANTA Y EQUIPO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTOS POR IMPUESTO SOBRE LA RENTA DIFERIDO </t>
+  </si>
+  <si>
+    <t>GASTOS POR ALQUILER DE LOCALES PROPIOS</t>
+  </si>
+  <si>
+    <t>CUENTAS DE RESULTADO ACREEDORAS</t>
+  </si>
+  <si>
+    <t>INGRESOS POR ACTIVIDADES ORDINARIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGRESOS POR SERVICIOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGRESOS POR VENTA DE PRODUCTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGRESOS NO ORDINARIOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTROS INGRESOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGRESOS FINANCIEROS Y OTROS </t>
+  </si>
+  <si>
+    <t>INTERESES</t>
+  </si>
+  <si>
+    <t>REGALIAS</t>
+  </si>
+  <si>
+    <t>INGRESOS POR ALQUILERES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGRESOS POR REVERSIÓN DE DETERIORO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGRESOS POR REVERSION DETERIORO DE INVENTARIOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGRESOS POR REVERSION DETERIORO DE PROPIEDADES, PLANTA Y EQUIPO </t>
+  </si>
+  <si>
+    <t>CUENTAS DE CIERRE</t>
+  </si>
+  <si>
+    <t>CUENTA LIQUIDADORA</t>
+  </si>
+  <si>
+    <t>PERDIDAS Y GANANCIAS</t>
   </si>
 </sst>
 </file>
@@ -1171,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90C8A6F-E1C6-407F-8162-6A60B393BDBE}">
-  <dimension ref="A1:G285"/>
+  <dimension ref="A1:G455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="G456" sqref="G456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6590,6 +6677,15 @@
       <c r="D236" s="4">
         <v>1</v>
       </c>
+      <c r="E236" t="s">
+        <v>18</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
@@ -6604,6 +6700,15 @@
       <c r="D237" s="4">
         <v>2</v>
       </c>
+      <c r="E237" t="s">
+        <v>18</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
@@ -6612,8 +6717,20 @@
       <c r="B238" t="s">
         <v>215</v>
       </c>
+      <c r="C238" s="4">
+        <v>41</v>
+      </c>
       <c r="D238" s="4">
         <v>3</v>
+      </c>
+      <c r="E238" t="s">
+        <v>18</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6623,8 +6740,20 @@
       <c r="B239" t="s">
         <v>216</v>
       </c>
+      <c r="C239" s="4">
+        <v>4101</v>
+      </c>
       <c r="D239" s="4">
         <v>4</v>
+      </c>
+      <c r="E239" t="s">
+        <v>18</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -6634,11 +6763,23 @@
       <c r="B240" t="s">
         <v>217</v>
       </c>
+      <c r="C240" s="4">
+        <v>410101</v>
+      </c>
       <c r="D240" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" t="s">
+        <v>19</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <f>+A240+1</f>
         <v>41010102</v>
@@ -6646,11 +6787,23 @@
       <c r="B241" t="s">
         <v>218</v>
       </c>
+      <c r="C241" s="4">
+        <v>410101</v>
+      </c>
       <c r="D241" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>19</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <f t="shared" ref="A242:A250" si="0">+A241+1</f>
         <v>41010103</v>
@@ -6658,11 +6811,23 @@
       <c r="B242" t="s">
         <v>219</v>
       </c>
+      <c r="C242" s="4">
+        <v>410101</v>
+      </c>
       <c r="D242" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
+        <v>19</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <f t="shared" si="0"/>
         <v>41010104</v>
@@ -6670,11 +6835,23 @@
       <c r="B243" t="s">
         <v>220</v>
       </c>
+      <c r="C243" s="4">
+        <v>410101</v>
+      </c>
       <c r="D243" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>19</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <f t="shared" si="0"/>
         <v>41010105</v>
@@ -6682,11 +6859,23 @@
       <c r="B244" t="s">
         <v>221</v>
       </c>
+      <c r="C244" s="4">
+        <v>410101</v>
+      </c>
       <c r="D244" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
+        <v>19</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <f t="shared" si="0"/>
         <v>41010106</v>
@@ -6694,11 +6883,23 @@
       <c r="B245" t="s">
         <v>222</v>
       </c>
+      <c r="C245" s="4">
+        <v>410101</v>
+      </c>
       <c r="D245" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>19</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <f t="shared" si="0"/>
         <v>41010107</v>
@@ -6706,11 +6907,23 @@
       <c r="B246" t="s">
         <v>145</v>
       </c>
+      <c r="C246" s="4">
+        <v>410101</v>
+      </c>
       <c r="D246" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>19</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <f t="shared" si="0"/>
         <v>41010108</v>
@@ -6718,11 +6931,23 @@
       <c r="B247" t="s">
         <v>147</v>
       </c>
+      <c r="C247" s="4">
+        <v>410101</v>
+      </c>
       <c r="D247" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>19</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <f t="shared" si="0"/>
         <v>41010109</v>
@@ -6730,11 +6955,23 @@
       <c r="B248" t="s">
         <v>223</v>
       </c>
+      <c r="C248" s="4">
+        <v>410101</v>
+      </c>
       <c r="D248" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" t="s">
+        <v>19</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <f t="shared" si="0"/>
         <v>41010110</v>
@@ -6742,11 +6979,23 @@
       <c r="B249" t="s">
         <v>224</v>
       </c>
+      <c r="C249" s="4">
+        <v>410101</v>
+      </c>
       <c r="D249" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" t="s">
+        <v>19</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <f t="shared" si="0"/>
         <v>41010111</v>
@@ -6754,11 +7003,23 @@
       <c r="B250" t="s">
         <v>225</v>
       </c>
+      <c r="C250" s="4">
+        <v>410101</v>
+      </c>
       <c r="D250" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" t="s">
+        <v>19</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <f>+A250+1</f>
         <v>41010112</v>
@@ -6766,11 +7027,23 @@
       <c r="B251" t="s">
         <v>226</v>
       </c>
+      <c r="C251" s="4">
+        <v>410101</v>
+      </c>
       <c r="D251" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>19</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <f t="shared" ref="A252:A285" si="1">+A251+1</f>
         <v>41010113</v>
@@ -6778,11 +7051,23 @@
       <c r="B252" t="s">
         <v>227</v>
       </c>
+      <c r="C252" s="4">
+        <v>410101</v>
+      </c>
       <c r="D252" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" t="s">
+        <v>19</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <f t="shared" si="1"/>
         <v>41010114</v>
@@ -6790,11 +7075,23 @@
       <c r="B253" t="s">
         <v>171</v>
       </c>
+      <c r="C253" s="4">
+        <v>410101</v>
+      </c>
       <c r="D253" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>19</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <f t="shared" si="1"/>
         <v>41010115</v>
@@ -6802,11 +7099,23 @@
       <c r="B254" t="s">
         <v>228</v>
       </c>
+      <c r="C254" s="4">
+        <v>410101</v>
+      </c>
       <c r="D254" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" t="s">
+        <v>19</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <f t="shared" si="1"/>
         <v>41010116</v>
@@ -6814,11 +7123,23 @@
       <c r="B255" t="s">
         <v>229</v>
       </c>
+      <c r="C255" s="4">
+        <v>410101</v>
+      </c>
       <c r="D255" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" t="s">
+        <v>19</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <f t="shared" si="1"/>
         <v>41010117</v>
@@ -6826,11 +7147,23 @@
       <c r="B256" t="s">
         <v>230</v>
       </c>
+      <c r="C256" s="4">
+        <v>410101</v>
+      </c>
       <c r="D256" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>19</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <f t="shared" si="1"/>
         <v>41010118</v>
@@ -6838,11 +7171,23 @@
       <c r="B257" t="s">
         <v>231</v>
       </c>
+      <c r="C257" s="4">
+        <v>410101</v>
+      </c>
       <c r="D257" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" t="s">
+        <v>19</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <f t="shared" si="1"/>
         <v>41010119</v>
@@ -6850,11 +7195,23 @@
       <c r="B258" t="s">
         <v>232</v>
       </c>
+      <c r="C258" s="4">
+        <v>410101</v>
+      </c>
       <c r="D258" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" t="s">
+        <v>19</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <f t="shared" si="1"/>
         <v>41010120</v>
@@ -6862,11 +7219,23 @@
       <c r="B259" t="s">
         <v>233</v>
       </c>
+      <c r="C259" s="4">
+        <v>410101</v>
+      </c>
       <c r="D259" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" t="s">
+        <v>19</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <f t="shared" si="1"/>
         <v>41010121</v>
@@ -6874,11 +7243,23 @@
       <c r="B260" t="s">
         <v>234</v>
       </c>
+      <c r="C260" s="4">
+        <v>410101</v>
+      </c>
       <c r="D260" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" t="s">
+        <v>19</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <f t="shared" si="1"/>
         <v>41010122</v>
@@ -6886,11 +7267,23 @@
       <c r="B261" t="s">
         <v>235</v>
       </c>
+      <c r="C261" s="4">
+        <v>410101</v>
+      </c>
       <c r="D261" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>19</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <f t="shared" si="1"/>
         <v>41010123</v>
@@ -6898,11 +7291,23 @@
       <c r="B262" t="s">
         <v>236</v>
       </c>
+      <c r="C262" s="4">
+        <v>410101</v>
+      </c>
       <c r="D262" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <f t="shared" si="1"/>
         <v>41010124</v>
@@ -6910,11 +7315,23 @@
       <c r="B263" t="s">
         <v>237</v>
       </c>
+      <c r="C263" s="4">
+        <v>410101</v>
+      </c>
       <c r="D263" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>19</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <f t="shared" si="1"/>
         <v>41010125</v>
@@ -6922,11 +7339,23 @@
       <c r="B264" t="s">
         <v>238</v>
       </c>
+      <c r="C264" s="4">
+        <v>410101</v>
+      </c>
       <c r="D264" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" t="s">
+        <v>19</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <f t="shared" si="1"/>
         <v>41010126</v>
@@ -6934,11 +7363,23 @@
       <c r="B265" t="s">
         <v>239</v>
       </c>
+      <c r="C265" s="4">
+        <v>410101</v>
+      </c>
       <c r="D265" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
+        <v>19</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <f t="shared" si="1"/>
         <v>41010127</v>
@@ -6946,11 +7387,23 @@
       <c r="B266" t="s">
         <v>240</v>
       </c>
+      <c r="C266" s="4">
+        <v>410101</v>
+      </c>
       <c r="D266" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>19</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <f t="shared" si="1"/>
         <v>41010128</v>
@@ -6958,11 +7411,23 @@
       <c r="B267" t="s">
         <v>241</v>
       </c>
+      <c r="C267" s="4">
+        <v>410101</v>
+      </c>
       <c r="D267" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" t="s">
+        <v>19</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <f t="shared" si="1"/>
         <v>41010129</v>
@@ -6970,11 +7435,23 @@
       <c r="B268" t="s">
         <v>242</v>
       </c>
+      <c r="C268" s="4">
+        <v>410101</v>
+      </c>
       <c r="D268" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" t="s">
+        <v>19</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <f t="shared" si="1"/>
         <v>41010130</v>
@@ -6982,11 +7459,23 @@
       <c r="B269" t="s">
         <v>243</v>
       </c>
+      <c r="C269" s="4">
+        <v>410101</v>
+      </c>
       <c r="D269" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" t="s">
+        <v>19</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <f t="shared" si="1"/>
         <v>41010131</v>
@@ -6994,11 +7483,23 @@
       <c r="B270" t="s">
         <v>244</v>
       </c>
+      <c r="C270" s="4">
+        <v>410101</v>
+      </c>
       <c r="D270" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>19</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <f t="shared" si="1"/>
         <v>41010132</v>
@@ -7006,11 +7507,23 @@
       <c r="B271" t="s">
         <v>245</v>
       </c>
+      <c r="C271" s="4">
+        <v>410101</v>
+      </c>
       <c r="D271" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" t="s">
+        <v>19</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <f t="shared" si="1"/>
         <v>41010133</v>
@@ -7018,11 +7531,23 @@
       <c r="B272" t="s">
         <v>246</v>
       </c>
+      <c r="C272" s="4">
+        <v>410101</v>
+      </c>
       <c r="D272" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" t="s">
+        <v>19</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <f t="shared" si="1"/>
         <v>41010134</v>
@@ -7030,11 +7555,23 @@
       <c r="B273" t="s">
         <v>247</v>
       </c>
+      <c r="C273" s="4">
+        <v>410101</v>
+      </c>
       <c r="D273" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" t="s">
+        <v>19</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <f t="shared" si="1"/>
         <v>41010135</v>
@@ -7042,11 +7579,23 @@
       <c r="B274" t="s">
         <v>248</v>
       </c>
+      <c r="C274" s="4">
+        <v>410101</v>
+      </c>
       <c r="D274" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" t="s">
+        <v>19</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <f t="shared" si="1"/>
         <v>41010136</v>
@@ -7054,11 +7603,23 @@
       <c r="B275" t="s">
         <v>57</v>
       </c>
+      <c r="C275" s="4">
+        <v>410101</v>
+      </c>
       <c r="D275" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" t="s">
+        <v>19</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <f t="shared" si="1"/>
         <v>41010137</v>
@@ -7066,11 +7627,23 @@
       <c r="B276" t="s">
         <v>249</v>
       </c>
+      <c r="C276" s="4">
+        <v>410101</v>
+      </c>
       <c r="D276" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" t="s">
+        <v>19</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <f t="shared" si="1"/>
         <v>41010138</v>
@@ -7078,11 +7651,23 @@
       <c r="B277" t="s">
         <v>250</v>
       </c>
+      <c r="C277" s="4">
+        <v>410101</v>
+      </c>
       <c r="D277" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" t="s">
+        <v>19</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <f t="shared" si="1"/>
         <v>41010139</v>
@@ -7090,11 +7675,23 @@
       <c r="B278" t="s">
         <v>251</v>
       </c>
+      <c r="C278" s="4">
+        <v>410101</v>
+      </c>
       <c r="D278" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>19</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <f t="shared" si="1"/>
         <v>41010140</v>
@@ -7102,11 +7699,23 @@
       <c r="B279" t="s">
         <v>252</v>
       </c>
+      <c r="C279" s="4">
+        <v>410101</v>
+      </c>
       <c r="D279" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" t="s">
+        <v>19</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <f t="shared" si="1"/>
         <v>41010141</v>
@@ -7114,11 +7723,23 @@
       <c r="B280" t="s">
         <v>253</v>
       </c>
+      <c r="C280" s="4">
+        <v>410101</v>
+      </c>
       <c r="D280" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>19</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <f t="shared" si="1"/>
         <v>41010142</v>
@@ -7126,11 +7747,23 @@
       <c r="B281" t="s">
         <v>254</v>
       </c>
+      <c r="C281" s="4">
+        <v>410101</v>
+      </c>
       <c r="D281" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>19</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <f t="shared" si="1"/>
         <v>41010143</v>
@@ -7138,11 +7771,23 @@
       <c r="B282" t="s">
         <v>255</v>
       </c>
+      <c r="C282" s="4">
+        <v>410101</v>
+      </c>
       <c r="D282" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>19</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <f t="shared" si="1"/>
         <v>41010144</v>
@@ -7150,11 +7795,23 @@
       <c r="B283" t="s">
         <v>256</v>
       </c>
+      <c r="C283" s="4">
+        <v>410101</v>
+      </c>
       <c r="D283" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>19</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <f t="shared" si="1"/>
         <v>41010145</v>
@@ -7162,11 +7819,23 @@
       <c r="B284" t="s">
         <v>257</v>
       </c>
+      <c r="C284" s="4">
+        <v>410101</v>
+      </c>
       <c r="D284" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>19</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <f t="shared" si="1"/>
         <v>41010146</v>
@@ -7174,8 +7843,4059 @@
       <c r="B285" t="s">
         <v>258</v>
       </c>
+      <c r="C285" s="4">
+        <v>410101</v>
+      </c>
       <c r="D285" s="4">
         <v>5</v>
+      </c>
+      <c r="E285" t="s">
+        <v>19</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>410102</v>
+      </c>
+      <c r="B286" t="s">
+        <v>259</v>
+      </c>
+      <c r="C286" s="4">
+        <v>4101</v>
+      </c>
+      <c r="D286" s="4">
+        <v>4</v>
+      </c>
+      <c r="E286" t="s">
+        <v>18</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>41010201</v>
+      </c>
+      <c r="B287" t="s">
+        <v>217</v>
+      </c>
+      <c r="C287" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D287" s="4">
+        <v>5</v>
+      </c>
+      <c r="E287" t="s">
+        <v>19</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <f>+A287+1</f>
+        <v>41010202</v>
+      </c>
+      <c r="B288" t="s">
+        <v>218</v>
+      </c>
+      <c r="C288" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D288" s="4">
+        <v>5</v>
+      </c>
+      <c r="E288" t="s">
+        <v>19</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <f t="shared" ref="A289:A332" si="2">+A288+1</f>
+        <v>41010203</v>
+      </c>
+      <c r="B289" t="s">
+        <v>219</v>
+      </c>
+      <c r="C289" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D289" s="4">
+        <v>5</v>
+      </c>
+      <c r="E289" t="s">
+        <v>19</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <f t="shared" si="2"/>
+        <v>41010204</v>
+      </c>
+      <c r="B290" t="s">
+        <v>220</v>
+      </c>
+      <c r="C290" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D290" s="4">
+        <v>5</v>
+      </c>
+      <c r="E290" t="s">
+        <v>19</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <f t="shared" si="2"/>
+        <v>41010205</v>
+      </c>
+      <c r="B291" t="s">
+        <v>221</v>
+      </c>
+      <c r="C291" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D291" s="4">
+        <v>5</v>
+      </c>
+      <c r="E291" t="s">
+        <v>19</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <f t="shared" si="2"/>
+        <v>41010206</v>
+      </c>
+      <c r="B292" t="s">
+        <v>222</v>
+      </c>
+      <c r="C292" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D292" s="4">
+        <v>5</v>
+      </c>
+      <c r="E292" t="s">
+        <v>19</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <f t="shared" si="2"/>
+        <v>41010207</v>
+      </c>
+      <c r="B293" t="s">
+        <v>145</v>
+      </c>
+      <c r="C293" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D293" s="4">
+        <v>5</v>
+      </c>
+      <c r="E293" t="s">
+        <v>19</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <f t="shared" si="2"/>
+        <v>41010208</v>
+      </c>
+      <c r="B294" t="s">
+        <v>147</v>
+      </c>
+      <c r="C294" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D294" s="4">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>19</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <f t="shared" si="2"/>
+        <v>41010209</v>
+      </c>
+      <c r="B295" t="s">
+        <v>223</v>
+      </c>
+      <c r="C295" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D295" s="4">
+        <v>5</v>
+      </c>
+      <c r="E295" t="s">
+        <v>19</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <f t="shared" si="2"/>
+        <v>41010210</v>
+      </c>
+      <c r="B296" t="s">
+        <v>224</v>
+      </c>
+      <c r="C296" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D296" s="4">
+        <v>5</v>
+      </c>
+      <c r="E296" t="s">
+        <v>19</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <f t="shared" si="2"/>
+        <v>41010211</v>
+      </c>
+      <c r="B297" t="s">
+        <v>225</v>
+      </c>
+      <c r="C297" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D297" s="4">
+        <v>5</v>
+      </c>
+      <c r="E297" t="s">
+        <v>19</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <f t="shared" si="2"/>
+        <v>41010212</v>
+      </c>
+      <c r="B298" t="s">
+        <v>226</v>
+      </c>
+      <c r="C298" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D298" s="4">
+        <v>5</v>
+      </c>
+      <c r="E298" t="s">
+        <v>19</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <f t="shared" si="2"/>
+        <v>41010213</v>
+      </c>
+      <c r="B299" t="s">
+        <v>227</v>
+      </c>
+      <c r="C299" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D299" s="4">
+        <v>5</v>
+      </c>
+      <c r="E299" t="s">
+        <v>19</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <f t="shared" si="2"/>
+        <v>41010214</v>
+      </c>
+      <c r="B300" t="s">
+        <v>171</v>
+      </c>
+      <c r="C300" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D300" s="4">
+        <v>5</v>
+      </c>
+      <c r="E300" t="s">
+        <v>19</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <f t="shared" si="2"/>
+        <v>41010215</v>
+      </c>
+      <c r="B301" t="s">
+        <v>228</v>
+      </c>
+      <c r="C301" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D301" s="4">
+        <v>5</v>
+      </c>
+      <c r="E301" t="s">
+        <v>19</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
+        <f t="shared" si="2"/>
+        <v>41010216</v>
+      </c>
+      <c r="B302" t="s">
+        <v>229</v>
+      </c>
+      <c r="C302" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D302" s="4">
+        <v>5</v>
+      </c>
+      <c r="E302" t="s">
+        <v>19</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
+        <f t="shared" si="2"/>
+        <v>41010217</v>
+      </c>
+      <c r="B303" t="s">
+        <v>230</v>
+      </c>
+      <c r="C303" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D303" s="4">
+        <v>5</v>
+      </c>
+      <c r="E303" t="s">
+        <v>19</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <f t="shared" si="2"/>
+        <v>41010218</v>
+      </c>
+      <c r="B304" t="s">
+        <v>231</v>
+      </c>
+      <c r="C304" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D304" s="4">
+        <v>5</v>
+      </c>
+      <c r="E304" t="s">
+        <v>19</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
+        <f t="shared" si="2"/>
+        <v>41010219</v>
+      </c>
+      <c r="B305" t="s">
+        <v>232</v>
+      </c>
+      <c r="C305" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D305" s="4">
+        <v>5</v>
+      </c>
+      <c r="E305" t="s">
+        <v>19</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
+        <f t="shared" si="2"/>
+        <v>41010220</v>
+      </c>
+      <c r="B306" t="s">
+        <v>233</v>
+      </c>
+      <c r="C306" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D306" s="4">
+        <v>5</v>
+      </c>
+      <c r="E306" t="s">
+        <v>19</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
+        <f t="shared" si="2"/>
+        <v>41010221</v>
+      </c>
+      <c r="B307" t="s">
+        <v>234</v>
+      </c>
+      <c r="C307" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D307" s="4">
+        <v>5</v>
+      </c>
+      <c r="E307" t="s">
+        <v>19</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
+        <f t="shared" si="2"/>
+        <v>41010222</v>
+      </c>
+      <c r="B308" t="s">
+        <v>235</v>
+      </c>
+      <c r="C308" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D308" s="4">
+        <v>5</v>
+      </c>
+      <c r="E308" t="s">
+        <v>19</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
+        <f t="shared" si="2"/>
+        <v>41010223</v>
+      </c>
+      <c r="B309" t="s">
+        <v>236</v>
+      </c>
+      <c r="C309" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D309" s="4">
+        <v>5</v>
+      </c>
+      <c r="E309" t="s">
+        <v>19</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
+        <f t="shared" si="2"/>
+        <v>41010224</v>
+      </c>
+      <c r="B310" t="s">
+        <v>237</v>
+      </c>
+      <c r="C310" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D310" s="4">
+        <v>5</v>
+      </c>
+      <c r="E310" t="s">
+        <v>19</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
+        <f t="shared" si="2"/>
+        <v>41010225</v>
+      </c>
+      <c r="B311" t="s">
+        <v>238</v>
+      </c>
+      <c r="C311" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D311" s="4">
+        <v>5</v>
+      </c>
+      <c r="E311" t="s">
+        <v>19</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
+        <f t="shared" si="2"/>
+        <v>41010226</v>
+      </c>
+      <c r="B312" t="s">
+        <v>239</v>
+      </c>
+      <c r="C312" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D312" s="4">
+        <v>5</v>
+      </c>
+      <c r="E312" t="s">
+        <v>19</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <f t="shared" si="2"/>
+        <v>41010227</v>
+      </c>
+      <c r="B313" t="s">
+        <v>240</v>
+      </c>
+      <c r="C313" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D313" s="4">
+        <v>5</v>
+      </c>
+      <c r="E313" t="s">
+        <v>19</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <f t="shared" si="2"/>
+        <v>41010228</v>
+      </c>
+      <c r="B314" t="s">
+        <v>241</v>
+      </c>
+      <c r="C314" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D314" s="4">
+        <v>5</v>
+      </c>
+      <c r="E314" t="s">
+        <v>19</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <f t="shared" si="2"/>
+        <v>41010229</v>
+      </c>
+      <c r="B315" t="s">
+        <v>242</v>
+      </c>
+      <c r="C315" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D315" s="4">
+        <v>5</v>
+      </c>
+      <c r="E315" t="s">
+        <v>19</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <f t="shared" si="2"/>
+        <v>41010230</v>
+      </c>
+      <c r="B316" t="s">
+        <v>243</v>
+      </c>
+      <c r="C316" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D316" s="4">
+        <v>5</v>
+      </c>
+      <c r="E316" t="s">
+        <v>19</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <f t="shared" si="2"/>
+        <v>41010231</v>
+      </c>
+      <c r="B317" t="s">
+        <v>244</v>
+      </c>
+      <c r="C317" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D317" s="4">
+        <v>5</v>
+      </c>
+      <c r="E317" t="s">
+        <v>19</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <f t="shared" si="2"/>
+        <v>41010232</v>
+      </c>
+      <c r="B318" t="s">
+        <v>245</v>
+      </c>
+      <c r="C318" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D318" s="4">
+        <v>5</v>
+      </c>
+      <c r="E318" t="s">
+        <v>19</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <f t="shared" si="2"/>
+        <v>41010233</v>
+      </c>
+      <c r="B319" t="s">
+        <v>246</v>
+      </c>
+      <c r="C319" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D319" s="4">
+        <v>5</v>
+      </c>
+      <c r="E319" t="s">
+        <v>19</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <f t="shared" si="2"/>
+        <v>41010234</v>
+      </c>
+      <c r="B320" t="s">
+        <v>247</v>
+      </c>
+      <c r="C320" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D320" s="4">
+        <v>5</v>
+      </c>
+      <c r="E320" t="s">
+        <v>19</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <f t="shared" si="2"/>
+        <v>41010235</v>
+      </c>
+      <c r="B321" t="s">
+        <v>248</v>
+      </c>
+      <c r="C321" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D321" s="4">
+        <v>5</v>
+      </c>
+      <c r="E321" t="s">
+        <v>19</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
+        <f t="shared" si="2"/>
+        <v>41010236</v>
+      </c>
+      <c r="B322" t="s">
+        <v>57</v>
+      </c>
+      <c r="C322" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D322" s="4">
+        <v>5</v>
+      </c>
+      <c r="E322" t="s">
+        <v>19</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <f t="shared" si="2"/>
+        <v>41010237</v>
+      </c>
+      <c r="B323" t="s">
+        <v>249</v>
+      </c>
+      <c r="C323" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D323" s="4">
+        <v>5</v>
+      </c>
+      <c r="E323" t="s">
+        <v>19</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <f t="shared" si="2"/>
+        <v>41010238</v>
+      </c>
+      <c r="B324" t="s">
+        <v>250</v>
+      </c>
+      <c r="C324" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D324" s="4">
+        <v>5</v>
+      </c>
+      <c r="E324" t="s">
+        <v>19</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <f t="shared" si="2"/>
+        <v>41010239</v>
+      </c>
+      <c r="B325" t="s">
+        <v>251</v>
+      </c>
+      <c r="C325" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D325" s="4">
+        <v>5</v>
+      </c>
+      <c r="E325" t="s">
+        <v>19</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <f t="shared" si="2"/>
+        <v>41010240</v>
+      </c>
+      <c r="B326" t="s">
+        <v>252</v>
+      </c>
+      <c r="C326" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D326" s="4">
+        <v>5</v>
+      </c>
+      <c r="E326" t="s">
+        <v>19</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
+        <f t="shared" si="2"/>
+        <v>41010241</v>
+      </c>
+      <c r="B327" t="s">
+        <v>253</v>
+      </c>
+      <c r="C327" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D327" s="4">
+        <v>5</v>
+      </c>
+      <c r="E327" t="s">
+        <v>19</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
+        <f t="shared" si="2"/>
+        <v>41010242</v>
+      </c>
+      <c r="B328" t="s">
+        <v>254</v>
+      </c>
+      <c r="C328" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D328" s="4">
+        <v>5</v>
+      </c>
+      <c r="E328" t="s">
+        <v>19</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <f t="shared" si="2"/>
+        <v>41010243</v>
+      </c>
+      <c r="B329" t="s">
+        <v>255</v>
+      </c>
+      <c r="C329" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D329" s="4">
+        <v>5</v>
+      </c>
+      <c r="E329" t="s">
+        <v>19</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <f t="shared" si="2"/>
+        <v>41010244</v>
+      </c>
+      <c r="B330" t="s">
+        <v>256</v>
+      </c>
+      <c r="C330" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D330" s="4">
+        <v>5</v>
+      </c>
+      <c r="E330" t="s">
+        <v>19</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <f t="shared" si="2"/>
+        <v>41010245</v>
+      </c>
+      <c r="B331" t="s">
+        <v>257</v>
+      </c>
+      <c r="C331" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D331" s="4">
+        <v>5</v>
+      </c>
+      <c r="E331" t="s">
+        <v>19</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <f t="shared" si="2"/>
+        <v>41010246</v>
+      </c>
+      <c r="B332" t="s">
+        <v>258</v>
+      </c>
+      <c r="C332" s="4">
+        <v>410102</v>
+      </c>
+      <c r="D332" s="4">
+        <v>5</v>
+      </c>
+      <c r="E332" t="s">
+        <v>19</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>4102</v>
+      </c>
+      <c r="B333" t="s">
+        <v>260</v>
+      </c>
+      <c r="C333" s="4">
+        <v>41</v>
+      </c>
+      <c r="D333" s="4">
+        <v>3</v>
+      </c>
+      <c r="E333" t="s">
+        <v>18</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>410201</v>
+      </c>
+      <c r="B334" t="s">
+        <v>261</v>
+      </c>
+      <c r="C334" s="4">
+        <v>4102</v>
+      </c>
+      <c r="D334" s="4">
+        <v>4</v>
+      </c>
+      <c r="E334" t="s">
+        <v>18</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>41020101</v>
+      </c>
+      <c r="B335" t="s">
+        <v>217</v>
+      </c>
+      <c r="C335" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D335" s="4">
+        <v>5</v>
+      </c>
+      <c r="E335" t="s">
+        <v>19</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <f>+A335+1</f>
+        <v>41020102</v>
+      </c>
+      <c r="B336" t="s">
+        <v>218</v>
+      </c>
+      <c r="C336" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D336" s="4">
+        <v>5</v>
+      </c>
+      <c r="E336" t="s">
+        <v>19</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <f t="shared" ref="A337:A380" si="3">+A336+1</f>
+        <v>41020103</v>
+      </c>
+      <c r="B337" t="s">
+        <v>219</v>
+      </c>
+      <c r="C337" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D337" s="4">
+        <v>5</v>
+      </c>
+      <c r="E337" t="s">
+        <v>19</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <f t="shared" si="3"/>
+        <v>41020104</v>
+      </c>
+      <c r="B338" t="s">
+        <v>220</v>
+      </c>
+      <c r="C338" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D338" s="4">
+        <v>5</v>
+      </c>
+      <c r="E338" t="s">
+        <v>19</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <f t="shared" si="3"/>
+        <v>41020105</v>
+      </c>
+      <c r="B339" t="s">
+        <v>221</v>
+      </c>
+      <c r="C339" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D339" s="4">
+        <v>5</v>
+      </c>
+      <c r="E339" t="s">
+        <v>19</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <f t="shared" si="3"/>
+        <v>41020106</v>
+      </c>
+      <c r="B340" t="s">
+        <v>222</v>
+      </c>
+      <c r="C340" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D340" s="4">
+        <v>5</v>
+      </c>
+      <c r="E340" t="s">
+        <v>19</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <f t="shared" si="3"/>
+        <v>41020107</v>
+      </c>
+      <c r="B341" t="s">
+        <v>145</v>
+      </c>
+      <c r="C341" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D341" s="4">
+        <v>5</v>
+      </c>
+      <c r="E341" t="s">
+        <v>19</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <f t="shared" si="3"/>
+        <v>41020108</v>
+      </c>
+      <c r="B342" t="s">
+        <v>147</v>
+      </c>
+      <c r="C342" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D342" s="4">
+        <v>5</v>
+      </c>
+      <c r="E342" t="s">
+        <v>19</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <f t="shared" si="3"/>
+        <v>41020109</v>
+      </c>
+      <c r="B343" t="s">
+        <v>223</v>
+      </c>
+      <c r="C343" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D343" s="4">
+        <v>5</v>
+      </c>
+      <c r="E343" t="s">
+        <v>19</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <f t="shared" si="3"/>
+        <v>41020110</v>
+      </c>
+      <c r="B344" t="s">
+        <v>224</v>
+      </c>
+      <c r="C344" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D344" s="4">
+        <v>5</v>
+      </c>
+      <c r="E344" t="s">
+        <v>19</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <f t="shared" si="3"/>
+        <v>41020111</v>
+      </c>
+      <c r="B345" t="s">
+        <v>225</v>
+      </c>
+      <c r="C345" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D345" s="4">
+        <v>5</v>
+      </c>
+      <c r="E345" t="s">
+        <v>19</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <f t="shared" si="3"/>
+        <v>41020112</v>
+      </c>
+      <c r="B346" t="s">
+        <v>226</v>
+      </c>
+      <c r="C346" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D346" s="4">
+        <v>5</v>
+      </c>
+      <c r="E346" t="s">
+        <v>19</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <f t="shared" si="3"/>
+        <v>41020113</v>
+      </c>
+      <c r="B347" t="s">
+        <v>227</v>
+      </c>
+      <c r="C347" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D347" s="4">
+        <v>5</v>
+      </c>
+      <c r="E347" t="s">
+        <v>19</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <f t="shared" si="3"/>
+        <v>41020114</v>
+      </c>
+      <c r="B348" t="s">
+        <v>171</v>
+      </c>
+      <c r="C348" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D348" s="4">
+        <v>5</v>
+      </c>
+      <c r="E348" t="s">
+        <v>19</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <f t="shared" si="3"/>
+        <v>41020115</v>
+      </c>
+      <c r="B349" t="s">
+        <v>228</v>
+      </c>
+      <c r="C349" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D349" s="4">
+        <v>5</v>
+      </c>
+      <c r="E349" t="s">
+        <v>19</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <f t="shared" si="3"/>
+        <v>41020116</v>
+      </c>
+      <c r="B350" t="s">
+        <v>229</v>
+      </c>
+      <c r="C350" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D350" s="4">
+        <v>5</v>
+      </c>
+      <c r="E350" t="s">
+        <v>19</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <f t="shared" si="3"/>
+        <v>41020117</v>
+      </c>
+      <c r="B351" t="s">
+        <v>230</v>
+      </c>
+      <c r="C351" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D351" s="4">
+        <v>5</v>
+      </c>
+      <c r="E351" t="s">
+        <v>19</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <f t="shared" si="3"/>
+        <v>41020118</v>
+      </c>
+      <c r="B352" t="s">
+        <v>231</v>
+      </c>
+      <c r="C352" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D352" s="4">
+        <v>5</v>
+      </c>
+      <c r="E352" t="s">
+        <v>19</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <f t="shared" si="3"/>
+        <v>41020119</v>
+      </c>
+      <c r="B353" t="s">
+        <v>232</v>
+      </c>
+      <c r="C353" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D353" s="4">
+        <v>5</v>
+      </c>
+      <c r="E353" t="s">
+        <v>19</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <f t="shared" si="3"/>
+        <v>41020120</v>
+      </c>
+      <c r="B354" t="s">
+        <v>233</v>
+      </c>
+      <c r="C354" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D354" s="4">
+        <v>5</v>
+      </c>
+      <c r="E354" t="s">
+        <v>19</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
+        <f t="shared" si="3"/>
+        <v>41020121</v>
+      </c>
+      <c r="B355" t="s">
+        <v>234</v>
+      </c>
+      <c r="C355" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D355" s="4">
+        <v>5</v>
+      </c>
+      <c r="E355" t="s">
+        <v>19</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <f t="shared" si="3"/>
+        <v>41020122</v>
+      </c>
+      <c r="B356" t="s">
+        <v>235</v>
+      </c>
+      <c r="C356" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D356" s="4">
+        <v>5</v>
+      </c>
+      <c r="E356" t="s">
+        <v>19</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
+        <f t="shared" si="3"/>
+        <v>41020123</v>
+      </c>
+      <c r="B357" t="s">
+        <v>236</v>
+      </c>
+      <c r="C357" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D357" s="4">
+        <v>5</v>
+      </c>
+      <c r="E357" t="s">
+        <v>19</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
+        <f t="shared" si="3"/>
+        <v>41020124</v>
+      </c>
+      <c r="B358" t="s">
+        <v>237</v>
+      </c>
+      <c r="C358" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D358" s="4">
+        <v>5</v>
+      </c>
+      <c r="E358" t="s">
+        <v>19</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <f t="shared" si="3"/>
+        <v>41020125</v>
+      </c>
+      <c r="B359" t="s">
+        <v>238</v>
+      </c>
+      <c r="C359" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D359" s="4">
+        <v>5</v>
+      </c>
+      <c r="E359" t="s">
+        <v>19</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <f t="shared" si="3"/>
+        <v>41020126</v>
+      </c>
+      <c r="B360" t="s">
+        <v>239</v>
+      </c>
+      <c r="C360" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D360" s="4">
+        <v>5</v>
+      </c>
+      <c r="E360" t="s">
+        <v>19</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <f t="shared" si="3"/>
+        <v>41020127</v>
+      </c>
+      <c r="B361" t="s">
+        <v>240</v>
+      </c>
+      <c r="C361" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D361" s="4">
+        <v>5</v>
+      </c>
+      <c r="E361" t="s">
+        <v>19</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <f t="shared" si="3"/>
+        <v>41020128</v>
+      </c>
+      <c r="B362" t="s">
+        <v>241</v>
+      </c>
+      <c r="C362" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D362" s="4">
+        <v>5</v>
+      </c>
+      <c r="E362" t="s">
+        <v>19</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <f t="shared" si="3"/>
+        <v>41020129</v>
+      </c>
+      <c r="B363" t="s">
+        <v>242</v>
+      </c>
+      <c r="C363" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D363" s="4">
+        <v>5</v>
+      </c>
+      <c r="E363" t="s">
+        <v>19</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <f t="shared" si="3"/>
+        <v>41020130</v>
+      </c>
+      <c r="B364" t="s">
+        <v>243</v>
+      </c>
+      <c r="C364" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D364" s="4">
+        <v>5</v>
+      </c>
+      <c r="E364" t="s">
+        <v>19</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <f t="shared" si="3"/>
+        <v>41020131</v>
+      </c>
+      <c r="B365" t="s">
+        <v>244</v>
+      </c>
+      <c r="C365" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D365" s="4">
+        <v>5</v>
+      </c>
+      <c r="E365" t="s">
+        <v>19</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <f t="shared" si="3"/>
+        <v>41020132</v>
+      </c>
+      <c r="B366" t="s">
+        <v>245</v>
+      </c>
+      <c r="C366" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D366" s="4">
+        <v>5</v>
+      </c>
+      <c r="E366" t="s">
+        <v>19</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <f t="shared" si="3"/>
+        <v>41020133</v>
+      </c>
+      <c r="B367" t="s">
+        <v>246</v>
+      </c>
+      <c r="C367" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D367" s="4">
+        <v>5</v>
+      </c>
+      <c r="E367" t="s">
+        <v>19</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <f t="shared" si="3"/>
+        <v>41020134</v>
+      </c>
+      <c r="B368" t="s">
+        <v>247</v>
+      </c>
+      <c r="C368" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D368" s="4">
+        <v>5</v>
+      </c>
+      <c r="E368" t="s">
+        <v>19</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <f t="shared" si="3"/>
+        <v>41020135</v>
+      </c>
+      <c r="B369" t="s">
+        <v>248</v>
+      </c>
+      <c r="C369" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D369" s="4">
+        <v>5</v>
+      </c>
+      <c r="E369" t="s">
+        <v>19</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <f t="shared" si="3"/>
+        <v>41020136</v>
+      </c>
+      <c r="B370" t="s">
+        <v>57</v>
+      </c>
+      <c r="C370" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D370" s="4">
+        <v>5</v>
+      </c>
+      <c r="E370" t="s">
+        <v>19</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <f t="shared" si="3"/>
+        <v>41020137</v>
+      </c>
+      <c r="B371" t="s">
+        <v>249</v>
+      </c>
+      <c r="C371" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D371" s="4">
+        <v>5</v>
+      </c>
+      <c r="E371" t="s">
+        <v>19</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <f t="shared" si="3"/>
+        <v>41020138</v>
+      </c>
+      <c r="B372" t="s">
+        <v>250</v>
+      </c>
+      <c r="C372" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D372" s="4">
+        <v>5</v>
+      </c>
+      <c r="E372" t="s">
+        <v>19</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <f t="shared" si="3"/>
+        <v>41020139</v>
+      </c>
+      <c r="B373" t="s">
+        <v>251</v>
+      </c>
+      <c r="C373" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D373" s="4">
+        <v>5</v>
+      </c>
+      <c r="E373" t="s">
+        <v>19</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
+        <f t="shared" si="3"/>
+        <v>41020140</v>
+      </c>
+      <c r="B374" t="s">
+        <v>252</v>
+      </c>
+      <c r="C374" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D374" s="4">
+        <v>5</v>
+      </c>
+      <c r="E374" t="s">
+        <v>19</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="2">
+        <f t="shared" si="3"/>
+        <v>41020141</v>
+      </c>
+      <c r="B375" t="s">
+        <v>253</v>
+      </c>
+      <c r="C375" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D375" s="4">
+        <v>5</v>
+      </c>
+      <c r="E375" t="s">
+        <v>19</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="2">
+        <f t="shared" si="3"/>
+        <v>41020142</v>
+      </c>
+      <c r="B376" t="s">
+        <v>254</v>
+      </c>
+      <c r="C376" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D376" s="4">
+        <v>5</v>
+      </c>
+      <c r="E376" t="s">
+        <v>19</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
+        <f t="shared" si="3"/>
+        <v>41020143</v>
+      </c>
+      <c r="B377" t="s">
+        <v>255</v>
+      </c>
+      <c r="C377" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D377" s="4">
+        <v>5</v>
+      </c>
+      <c r="E377" t="s">
+        <v>19</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
+        <f t="shared" si="3"/>
+        <v>41020144</v>
+      </c>
+      <c r="B378" t="s">
+        <v>256</v>
+      </c>
+      <c r="C378" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D378" s="4">
+        <v>5</v>
+      </c>
+      <c r="E378" t="s">
+        <v>19</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
+        <f t="shared" si="3"/>
+        <v>41020145</v>
+      </c>
+      <c r="B379" t="s">
+        <v>257</v>
+      </c>
+      <c r="C379" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D379" s="4">
+        <v>5</v>
+      </c>
+      <c r="E379" t="s">
+        <v>19</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <f t="shared" si="3"/>
+        <v>41020146</v>
+      </c>
+      <c r="B380" t="s">
+        <v>258</v>
+      </c>
+      <c r="C380" s="4">
+        <v>410201</v>
+      </c>
+      <c r="D380" s="4">
+        <v>5</v>
+      </c>
+      <c r="E380" t="s">
+        <v>19</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
+        <v>410202</v>
+      </c>
+      <c r="B381" t="s">
+        <v>262</v>
+      </c>
+      <c r="C381" s="4">
+        <v>4102</v>
+      </c>
+      <c r="D381" s="4">
+        <v>4</v>
+      </c>
+      <c r="E381" t="s">
+        <v>18</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="2">
+        <v>41020201</v>
+      </c>
+      <c r="B382" t="s">
+        <v>217</v>
+      </c>
+      <c r="C382" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D382" s="4">
+        <v>5</v>
+      </c>
+      <c r="E382" t="s">
+        <v>19</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
+        <f>+A382+1</f>
+        <v>41020202</v>
+      </c>
+      <c r="B383" t="s">
+        <v>218</v>
+      </c>
+      <c r="C383" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D383" s="4">
+        <v>5</v>
+      </c>
+      <c r="E383" t="s">
+        <v>19</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <f t="shared" ref="A384:A427" si="4">+A383+1</f>
+        <v>41020203</v>
+      </c>
+      <c r="B384" t="s">
+        <v>219</v>
+      </c>
+      <c r="C384" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D384" s="4">
+        <v>5</v>
+      </c>
+      <c r="E384" t="s">
+        <v>19</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
+        <f t="shared" si="4"/>
+        <v>41020204</v>
+      </c>
+      <c r="B385" t="s">
+        <v>220</v>
+      </c>
+      <c r="C385" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D385" s="4">
+        <v>5</v>
+      </c>
+      <c r="E385" t="s">
+        <v>19</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="2">
+        <f t="shared" si="4"/>
+        <v>41020205</v>
+      </c>
+      <c r="B386" t="s">
+        <v>221</v>
+      </c>
+      <c r="C386" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D386" s="4">
+        <v>5</v>
+      </c>
+      <c r="E386" t="s">
+        <v>19</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+      <c r="G386" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" s="2">
+        <f t="shared" si="4"/>
+        <v>41020206</v>
+      </c>
+      <c r="B387" t="s">
+        <v>222</v>
+      </c>
+      <c r="C387" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D387" s="4">
+        <v>5</v>
+      </c>
+      <c r="E387" t="s">
+        <v>19</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
+        <f t="shared" si="4"/>
+        <v>41020207</v>
+      </c>
+      <c r="B388" t="s">
+        <v>145</v>
+      </c>
+      <c r="C388" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D388" s="4">
+        <v>5</v>
+      </c>
+      <c r="E388" t="s">
+        <v>19</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+      <c r="G388" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" s="2">
+        <f t="shared" si="4"/>
+        <v>41020208</v>
+      </c>
+      <c r="B389" t="s">
+        <v>147</v>
+      </c>
+      <c r="C389" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D389" s="4">
+        <v>5</v>
+      </c>
+      <c r="E389" t="s">
+        <v>19</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" s="2">
+        <f t="shared" si="4"/>
+        <v>41020209</v>
+      </c>
+      <c r="B390" t="s">
+        <v>223</v>
+      </c>
+      <c r="C390" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D390" s="4">
+        <v>5</v>
+      </c>
+      <c r="E390" t="s">
+        <v>19</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+      <c r="G390" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" s="2">
+        <f t="shared" si="4"/>
+        <v>41020210</v>
+      </c>
+      <c r="B391" t="s">
+        <v>224</v>
+      </c>
+      <c r="C391" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D391" s="4">
+        <v>5</v>
+      </c>
+      <c r="E391" t="s">
+        <v>19</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" s="2">
+        <f t="shared" si="4"/>
+        <v>41020211</v>
+      </c>
+      <c r="B392" t="s">
+        <v>225</v>
+      </c>
+      <c r="C392" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D392" s="4">
+        <v>5</v>
+      </c>
+      <c r="E392" t="s">
+        <v>19</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" s="2">
+        <f t="shared" si="4"/>
+        <v>41020212</v>
+      </c>
+      <c r="B393" t="s">
+        <v>226</v>
+      </c>
+      <c r="C393" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D393" s="4">
+        <v>5</v>
+      </c>
+      <c r="E393" t="s">
+        <v>19</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+      <c r="G393" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" s="2">
+        <f t="shared" si="4"/>
+        <v>41020213</v>
+      </c>
+      <c r="B394" t="s">
+        <v>227</v>
+      </c>
+      <c r="C394" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D394" s="4">
+        <v>5</v>
+      </c>
+      <c r="E394" t="s">
+        <v>19</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+      <c r="G394" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" s="2">
+        <f t="shared" si="4"/>
+        <v>41020214</v>
+      </c>
+      <c r="B395" t="s">
+        <v>171</v>
+      </c>
+      <c r="C395" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D395" s="4">
+        <v>5</v>
+      </c>
+      <c r="E395" t="s">
+        <v>19</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+      <c r="G395" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396" s="2">
+        <f t="shared" si="4"/>
+        <v>41020215</v>
+      </c>
+      <c r="B396" t="s">
+        <v>228</v>
+      </c>
+      <c r="C396" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D396" s="4">
+        <v>5</v>
+      </c>
+      <c r="E396" t="s">
+        <v>19</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+      <c r="G396" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" s="2">
+        <f t="shared" si="4"/>
+        <v>41020216</v>
+      </c>
+      <c r="B397" t="s">
+        <v>229</v>
+      </c>
+      <c r="C397" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D397" s="4">
+        <v>5</v>
+      </c>
+      <c r="E397" t="s">
+        <v>19</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+      <c r="G397" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" s="2">
+        <f t="shared" si="4"/>
+        <v>41020217</v>
+      </c>
+      <c r="B398" t="s">
+        <v>230</v>
+      </c>
+      <c r="C398" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D398" s="4">
+        <v>5</v>
+      </c>
+      <c r="E398" t="s">
+        <v>19</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+      <c r="G398" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" s="2">
+        <f t="shared" si="4"/>
+        <v>41020218</v>
+      </c>
+      <c r="B399" t="s">
+        <v>231</v>
+      </c>
+      <c r="C399" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D399" s="4">
+        <v>5</v>
+      </c>
+      <c r="E399" t="s">
+        <v>19</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+      <c r="G399" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="2">
+        <f t="shared" si="4"/>
+        <v>41020219</v>
+      </c>
+      <c r="B400" t="s">
+        <v>232</v>
+      </c>
+      <c r="C400" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D400" s="4">
+        <v>5</v>
+      </c>
+      <c r="E400" t="s">
+        <v>19</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+      <c r="G400" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="2">
+        <f t="shared" si="4"/>
+        <v>41020220</v>
+      </c>
+      <c r="B401" t="s">
+        <v>233</v>
+      </c>
+      <c r="C401" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D401" s="4">
+        <v>5</v>
+      </c>
+      <c r="E401" t="s">
+        <v>19</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+      <c r="G401" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="2">
+        <f t="shared" si="4"/>
+        <v>41020221</v>
+      </c>
+      <c r="B402" t="s">
+        <v>234</v>
+      </c>
+      <c r="C402" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D402" s="4">
+        <v>5</v>
+      </c>
+      <c r="E402" t="s">
+        <v>19</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+      <c r="G402" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="2">
+        <f t="shared" si="4"/>
+        <v>41020222</v>
+      </c>
+      <c r="B403" t="s">
+        <v>235</v>
+      </c>
+      <c r="C403" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D403" s="4">
+        <v>5</v>
+      </c>
+      <c r="E403" t="s">
+        <v>19</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+      <c r="G403" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" s="2">
+        <f t="shared" si="4"/>
+        <v>41020223</v>
+      </c>
+      <c r="B404" t="s">
+        <v>236</v>
+      </c>
+      <c r="C404" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D404" s="4">
+        <v>5</v>
+      </c>
+      <c r="E404" t="s">
+        <v>19</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+      <c r="G404" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="2">
+        <f t="shared" si="4"/>
+        <v>41020224</v>
+      </c>
+      <c r="B405" t="s">
+        <v>237</v>
+      </c>
+      <c r="C405" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D405" s="4">
+        <v>5</v>
+      </c>
+      <c r="E405" t="s">
+        <v>19</v>
+      </c>
+      <c r="F405">
+        <v>0</v>
+      </c>
+      <c r="G405" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="2">
+        <f t="shared" si="4"/>
+        <v>41020225</v>
+      </c>
+      <c r="B406" t="s">
+        <v>238</v>
+      </c>
+      <c r="C406" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D406" s="4">
+        <v>5</v>
+      </c>
+      <c r="E406" t="s">
+        <v>19</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+      <c r="G406" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="2">
+        <f t="shared" si="4"/>
+        <v>41020226</v>
+      </c>
+      <c r="B407" t="s">
+        <v>239</v>
+      </c>
+      <c r="C407" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D407" s="4">
+        <v>5</v>
+      </c>
+      <c r="E407" t="s">
+        <v>19</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+      <c r="G407" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="2">
+        <f t="shared" si="4"/>
+        <v>41020227</v>
+      </c>
+      <c r="B408" t="s">
+        <v>240</v>
+      </c>
+      <c r="C408" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D408" s="4">
+        <v>5</v>
+      </c>
+      <c r="E408" t="s">
+        <v>19</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+      <c r="G408" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="2">
+        <f t="shared" si="4"/>
+        <v>41020228</v>
+      </c>
+      <c r="B409" t="s">
+        <v>241</v>
+      </c>
+      <c r="C409" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D409" s="4">
+        <v>5</v>
+      </c>
+      <c r="E409" t="s">
+        <v>19</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+      <c r="G409" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="2">
+        <f t="shared" si="4"/>
+        <v>41020229</v>
+      </c>
+      <c r="B410" t="s">
+        <v>242</v>
+      </c>
+      <c r="C410" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D410" s="4">
+        <v>5</v>
+      </c>
+      <c r="E410" t="s">
+        <v>19</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+      <c r="G410" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="2">
+        <f t="shared" si="4"/>
+        <v>41020230</v>
+      </c>
+      <c r="B411" t="s">
+        <v>243</v>
+      </c>
+      <c r="C411" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D411" s="4">
+        <v>5</v>
+      </c>
+      <c r="E411" t="s">
+        <v>19</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+      <c r="G411" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="2">
+        <f t="shared" si="4"/>
+        <v>41020231</v>
+      </c>
+      <c r="B412" t="s">
+        <v>244</v>
+      </c>
+      <c r="C412" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D412" s="4">
+        <v>5</v>
+      </c>
+      <c r="E412" t="s">
+        <v>19</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+      <c r="G412" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="2">
+        <f t="shared" si="4"/>
+        <v>41020232</v>
+      </c>
+      <c r="B413" t="s">
+        <v>245</v>
+      </c>
+      <c r="C413" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D413" s="4">
+        <v>5</v>
+      </c>
+      <c r="E413" t="s">
+        <v>19</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+      <c r="G413" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="2">
+        <f t="shared" si="4"/>
+        <v>41020233</v>
+      </c>
+      <c r="B414" t="s">
+        <v>246</v>
+      </c>
+      <c r="C414" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D414" s="4">
+        <v>5</v>
+      </c>
+      <c r="E414" t="s">
+        <v>19</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+      <c r="G414" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="2">
+        <f t="shared" si="4"/>
+        <v>41020234</v>
+      </c>
+      <c r="B415" t="s">
+        <v>247</v>
+      </c>
+      <c r="C415" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D415" s="4">
+        <v>5</v>
+      </c>
+      <c r="E415" t="s">
+        <v>19</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+      <c r="G415" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="2">
+        <f t="shared" si="4"/>
+        <v>41020235</v>
+      </c>
+      <c r="B416" t="s">
+        <v>248</v>
+      </c>
+      <c r="C416" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D416" s="4">
+        <v>5</v>
+      </c>
+      <c r="E416" t="s">
+        <v>19</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" s="2">
+        <f t="shared" si="4"/>
+        <v>41020236</v>
+      </c>
+      <c r="B417" t="s">
+        <v>57</v>
+      </c>
+      <c r="C417" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D417" s="4">
+        <v>5</v>
+      </c>
+      <c r="E417" t="s">
+        <v>19</v>
+      </c>
+      <c r="F417">
+        <v>0</v>
+      </c>
+      <c r="G417" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" s="2">
+        <f t="shared" si="4"/>
+        <v>41020237</v>
+      </c>
+      <c r="B418" t="s">
+        <v>249</v>
+      </c>
+      <c r="C418" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D418" s="4">
+        <v>5</v>
+      </c>
+      <c r="E418" t="s">
+        <v>19</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
+        <f t="shared" si="4"/>
+        <v>41020238</v>
+      </c>
+      <c r="B419" t="s">
+        <v>250</v>
+      </c>
+      <c r="C419" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D419" s="4">
+        <v>5</v>
+      </c>
+      <c r="E419" t="s">
+        <v>19</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
+        <f t="shared" si="4"/>
+        <v>41020239</v>
+      </c>
+      <c r="B420" t="s">
+        <v>251</v>
+      </c>
+      <c r="C420" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D420" s="4">
+        <v>5</v>
+      </c>
+      <c r="E420" t="s">
+        <v>19</v>
+      </c>
+      <c r="F420">
+        <v>0</v>
+      </c>
+      <c r="G420" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
+        <f t="shared" si="4"/>
+        <v>41020240</v>
+      </c>
+      <c r="B421" t="s">
+        <v>252</v>
+      </c>
+      <c r="C421" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D421" s="4">
+        <v>5</v>
+      </c>
+      <c r="E421" t="s">
+        <v>19</v>
+      </c>
+      <c r="F421">
+        <v>0</v>
+      </c>
+      <c r="G421" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" s="2">
+        <f t="shared" si="4"/>
+        <v>41020241</v>
+      </c>
+      <c r="B422" t="s">
+        <v>253</v>
+      </c>
+      <c r="C422" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D422" s="4">
+        <v>5</v>
+      </c>
+      <c r="E422" t="s">
+        <v>19</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+      <c r="G422" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" s="2">
+        <f t="shared" si="4"/>
+        <v>41020242</v>
+      </c>
+      <c r="B423" t="s">
+        <v>254</v>
+      </c>
+      <c r="C423" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D423" s="4">
+        <v>5</v>
+      </c>
+      <c r="E423" t="s">
+        <v>19</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+      <c r="G423" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" s="2">
+        <f t="shared" si="4"/>
+        <v>41020243</v>
+      </c>
+      <c r="B424" t="s">
+        <v>255</v>
+      </c>
+      <c r="C424" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D424" s="4">
+        <v>5</v>
+      </c>
+      <c r="E424" t="s">
+        <v>19</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+      <c r="G424" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
+        <f t="shared" si="4"/>
+        <v>41020244</v>
+      </c>
+      <c r="B425" t="s">
+        <v>256</v>
+      </c>
+      <c r="C425" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D425" s="4">
+        <v>5</v>
+      </c>
+      <c r="E425" t="s">
+        <v>19</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+      <c r="G425" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <f t="shared" si="4"/>
+        <v>41020245</v>
+      </c>
+      <c r="B426" t="s">
+        <v>257</v>
+      </c>
+      <c r="C426" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D426" s="4">
+        <v>5</v>
+      </c>
+      <c r="E426" t="s">
+        <v>19</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" s="2">
+        <f t="shared" si="4"/>
+        <v>41020246</v>
+      </c>
+      <c r="B427" t="s">
+        <v>258</v>
+      </c>
+      <c r="C427" s="4">
+        <v>410202</v>
+      </c>
+      <c r="D427" s="4">
+        <v>5</v>
+      </c>
+      <c r="E427" t="s">
+        <v>19</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
+        <v>410203</v>
+      </c>
+      <c r="B428" t="s">
+        <v>263</v>
+      </c>
+      <c r="C428" s="4">
+        <v>4102</v>
+      </c>
+      <c r="D428" s="4">
+        <v>4</v>
+      </c>
+      <c r="E428" t="s">
+        <v>18</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+      <c r="G428" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" s="2">
+        <v>41020301</v>
+      </c>
+      <c r="B429" t="s">
+        <v>264</v>
+      </c>
+      <c r="C429" s="4">
+        <v>410203</v>
+      </c>
+      <c r="D429" s="4">
+        <v>5</v>
+      </c>
+      <c r="E429" t="s">
+        <v>19</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+      <c r="G429" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" s="2">
+        <v>41020302</v>
+      </c>
+      <c r="B430" t="s">
+        <v>143</v>
+      </c>
+      <c r="C430" s="4">
+        <v>410203</v>
+      </c>
+      <c r="D430" s="4">
+        <v>5</v>
+      </c>
+      <c r="E430" t="s">
+        <v>19</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+      <c r="G430" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" s="2">
+        <v>410204</v>
+      </c>
+      <c r="B431" t="s">
+        <v>265</v>
+      </c>
+      <c r="C431" s="4">
+        <v>4102</v>
+      </c>
+      <c r="D431" s="4">
+        <v>4</v>
+      </c>
+      <c r="E431" t="s">
+        <v>19</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>42</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C432" s="4">
+        <v>4</v>
+      </c>
+      <c r="D432" s="4">
+        <v>2</v>
+      </c>
+      <c r="E432" t="s">
+        <v>18</v>
+      </c>
+      <c r="F432">
+        <v>0</v>
+      </c>
+      <c r="G432" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" s="2">
+        <v>4201</v>
+      </c>
+      <c r="B433" t="s">
+        <v>258</v>
+      </c>
+      <c r="C433" s="4">
+        <v>42</v>
+      </c>
+      <c r="D433" s="4">
+        <v>3</v>
+      </c>
+      <c r="E433" t="s">
+        <v>18</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+      <c r="G433" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
+        <v>420101</v>
+      </c>
+      <c r="B434" t="s">
+        <v>267</v>
+      </c>
+      <c r="C434" s="4">
+        <v>4201</v>
+      </c>
+      <c r="D434" s="4">
+        <v>4</v>
+      </c>
+      <c r="E434" t="s">
+        <v>18</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+      <c r="G434" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
+        <v>42010101</v>
+      </c>
+      <c r="B435" t="s">
+        <v>268</v>
+      </c>
+      <c r="C435" s="4">
+        <v>420101</v>
+      </c>
+      <c r="D435" s="4">
+        <v>5</v>
+      </c>
+      <c r="E435" t="s">
+        <v>19</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+      <c r="G435" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="2">
+        <v>42010102</v>
+      </c>
+      <c r="B436" t="s">
+        <v>269</v>
+      </c>
+      <c r="C436" s="4">
+        <v>420101</v>
+      </c>
+      <c r="D436" s="4">
+        <v>5</v>
+      </c>
+      <c r="E436" t="s">
+        <v>19</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" s="2">
+        <v>420102</v>
+      </c>
+      <c r="B437" t="s">
+        <v>270</v>
+      </c>
+      <c r="C437" s="4">
+        <v>4201</v>
+      </c>
+      <c r="D437" s="4">
+        <v>4</v>
+      </c>
+      <c r="E437" t="s">
+        <v>19</v>
+      </c>
+      <c r="F437">
+        <v>0</v>
+      </c>
+      <c r="G437" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
+        <v>420103</v>
+      </c>
+      <c r="B438" t="s">
+        <v>271</v>
+      </c>
+      <c r="C438" s="4">
+        <v>4201</v>
+      </c>
+      <c r="D438" s="4">
+        <v>4</v>
+      </c>
+      <c r="E438" t="s">
+        <v>19</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+      <c r="G438" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>5</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D439" s="4">
+        <v>1</v>
+      </c>
+      <c r="E439" t="s">
+        <v>18</v>
+      </c>
+      <c r="F439">
+        <v>0</v>
+      </c>
+      <c r="G439" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>51</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C440" s="4">
+        <v>5</v>
+      </c>
+      <c r="D440" s="4">
+        <v>2</v>
+      </c>
+      <c r="E440" t="s">
+        <v>18</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <v>5101</v>
+      </c>
+      <c r="B441" t="s">
+        <v>274</v>
+      </c>
+      <c r="C441" s="4">
+        <v>51</v>
+      </c>
+      <c r="D441" s="4">
+        <v>3</v>
+      </c>
+      <c r="E441" t="s">
+        <v>19</v>
+      </c>
+      <c r="F441">
+        <v>0</v>
+      </c>
+      <c r="G441" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
+        <v>5102</v>
+      </c>
+      <c r="B442" t="s">
+        <v>275</v>
+      </c>
+      <c r="C442" s="4">
+        <v>51</v>
+      </c>
+      <c r="D442" s="4">
+        <v>3</v>
+      </c>
+      <c r="E442" t="s">
+        <v>19</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+      <c r="G442" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>52</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C443" s="4">
+        <v>5</v>
+      </c>
+      <c r="D443" s="4">
+        <v>2</v>
+      </c>
+      <c r="E443" t="s">
+        <v>18</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+      <c r="G443" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <v>5201</v>
+      </c>
+      <c r="B444" t="s">
+        <v>277</v>
+      </c>
+      <c r="C444" s="4">
+        <v>52</v>
+      </c>
+      <c r="D444" s="4">
+        <v>3</v>
+      </c>
+      <c r="E444" t="s">
+        <v>18</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+      <c r="G444" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <v>520101</v>
+      </c>
+      <c r="B445" t="s">
+        <v>278</v>
+      </c>
+      <c r="C445" s="4">
+        <v>5201</v>
+      </c>
+      <c r="D445" s="4">
+        <v>4</v>
+      </c>
+      <c r="E445" t="s">
+        <v>18</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <v>52010101</v>
+      </c>
+      <c r="B446" t="s">
+        <v>279</v>
+      </c>
+      <c r="C446" s="4">
+        <v>520101</v>
+      </c>
+      <c r="D446" s="4">
+        <v>5</v>
+      </c>
+      <c r="E446" t="s">
+        <v>19</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+      <c r="G446" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <v>52010102</v>
+      </c>
+      <c r="B447" t="s">
+        <v>280</v>
+      </c>
+      <c r="C447" s="4">
+        <v>520101</v>
+      </c>
+      <c r="D447" s="4">
+        <v>5</v>
+      </c>
+      <c r="E447" t="s">
+        <v>19</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+      <c r="G447" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <v>520102</v>
+      </c>
+      <c r="B448" t="s">
+        <v>281</v>
+      </c>
+      <c r="C448" s="4">
+        <v>5201</v>
+      </c>
+      <c r="D448" s="4">
+        <v>4</v>
+      </c>
+      <c r="E448" t="s">
+        <v>19</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+      <c r="G448" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <v>520109</v>
+      </c>
+      <c r="B449" t="s">
+        <v>282</v>
+      </c>
+      <c r="C449" s="4">
+        <v>5201</v>
+      </c>
+      <c r="D449" s="4">
+        <v>4</v>
+      </c>
+      <c r="E449" t="s">
+        <v>18</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+      <c r="G449" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <v>52010901</v>
+      </c>
+      <c r="B450" t="s">
+        <v>283</v>
+      </c>
+      <c r="C450" s="4">
+        <v>520109</v>
+      </c>
+      <c r="D450" s="4">
+        <v>5</v>
+      </c>
+      <c r="E450" t="s">
+        <v>19</v>
+      </c>
+      <c r="F450">
+        <v>0</v>
+      </c>
+      <c r="G450" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <v>52010902</v>
+      </c>
+      <c r="B451" t="s">
+        <v>284</v>
+      </c>
+      <c r="C451" s="4">
+        <v>520109</v>
+      </c>
+      <c r="D451" s="4">
+        <v>5</v>
+      </c>
+      <c r="E451" t="s">
+        <v>19</v>
+      </c>
+      <c r="F451">
+        <v>0</v>
+      </c>
+      <c r="G451" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>6</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+      <c r="E452" t="s">
+        <v>18</v>
+      </c>
+      <c r="F452">
+        <v>0</v>
+      </c>
+      <c r="G452" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>61</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C453" s="4">
+        <v>6</v>
+      </c>
+      <c r="D453" s="4">
+        <v>2</v>
+      </c>
+      <c r="E453" t="s">
+        <v>18</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+      <c r="G453" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <v>6101</v>
+      </c>
+      <c r="B454" t="s">
+        <v>287</v>
+      </c>
+      <c r="C454" s="4">
+        <v>61</v>
+      </c>
+      <c r="D454" s="4">
+        <v>3</v>
+      </c>
+      <c r="E454" t="s">
+        <v>18</v>
+      </c>
+      <c r="F454">
+        <v>0</v>
+      </c>
+      <c r="G454" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="2">
+        <v>610101</v>
+      </c>
+      <c r="B455" t="s">
+        <v>287</v>
+      </c>
+      <c r="C455" s="4">
+        <v>6101</v>
+      </c>
+      <c r="D455" s="4">
+        <v>4</v>
+      </c>
+      <c r="E455" t="s">
+        <v>19</v>
+      </c>
+      <c r="F455">
+        <v>0</v>
+      </c>
+      <c r="G455" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/public/export-catalogo-cuentas.xlsx
+++ b/public/export-catalogo-cuentas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\sistema-contable-laravel\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE22EAD-E89C-4122-9F61-D444E4AC184A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B8ADE9-9F42-43A3-9991-DFCE09949FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A2AE2034-F604-4493-B048-E4A39ECD138D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A2AE2034-F604-4493-B048-E4A39ECD138D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -932,17 +932,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1260,19 +1261,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90C8A6F-E1C6-407F-8162-6A60B393BDBE}">
   <dimension ref="A1:G455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="G456" sqref="G456"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="36.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1295,7 +1297,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1315,7 +1317,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -1338,7 +1340,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>1101</v>
       </c>
       <c r="B4" t="s">
@@ -1361,7 +1363,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>110101</v>
       </c>
       <c r="B5" t="s">
@@ -1384,7 +1386,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>110102</v>
       </c>
       <c r="B6" t="s">
@@ -1407,7 +1409,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>110103</v>
       </c>
       <c r="B7" t="s">
@@ -1430,7 +1432,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>11010301</v>
       </c>
       <c r="B8" t="s">
@@ -1453,7 +1455,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>11010302</v>
       </c>
       <c r="B9" t="s">
@@ -1476,7 +1478,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>110104</v>
       </c>
       <c r="B10" t="s">
@@ -1499,7 +1501,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>11010401</v>
       </c>
       <c r="B11" t="s">
@@ -1522,7 +1524,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>11010402</v>
       </c>
       <c r="B12" t="s">
@@ -1545,7 +1547,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>11010403</v>
       </c>
       <c r="B13" t="s">
@@ -1568,7 +1570,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>1102</v>
       </c>
       <c r="B14" t="s">
@@ -1591,7 +1593,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>110201</v>
       </c>
       <c r="B15" t="s">
@@ -1614,7 +1616,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>110202</v>
       </c>
       <c r="B16" t="s">
@@ -1637,7 +1639,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>110203</v>
       </c>
       <c r="B17" t="s">
@@ -1660,7 +1662,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>110204</v>
       </c>
       <c r="B18" t="s">
@@ -1683,7 +1685,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>110205</v>
       </c>
       <c r="B19" t="s">
@@ -1706,7 +1708,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>11020501</v>
       </c>
       <c r="B20" t="s">
@@ -1729,7 +1731,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>11020502</v>
       </c>
       <c r="B21" t="s">
@@ -1752,7 +1754,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>110206</v>
       </c>
       <c r="B22" t="s">
@@ -1775,7 +1777,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>110220</v>
       </c>
       <c r="B23" t="s">
@@ -1798,7 +1800,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>1103</v>
       </c>
       <c r="B24" t="s">
@@ -1821,7 +1823,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>110301</v>
       </c>
       <c r="B25" t="s">
@@ -1844,7 +1846,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>1104</v>
       </c>
       <c r="B26" t="s">
@@ -1867,7 +1869,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>110401</v>
       </c>
       <c r="B27" t="s">
@@ -1890,7 +1892,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>110402</v>
       </c>
       <c r="B28" t="s">
@@ -1913,7 +1915,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>110403</v>
       </c>
       <c r="B29" t="s">
@@ -1936,7 +1938,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>110404</v>
       </c>
       <c r="B30" t="s">
@@ -1959,7 +1961,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>110405</v>
       </c>
       <c r="B31" t="s">
@@ -1982,7 +1984,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>110406</v>
       </c>
       <c r="B32" t="s">
@@ -2005,7 +2007,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>110407</v>
       </c>
       <c r="B33" t="s">
@@ -2028,7 +2030,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="4">
         <v>110408</v>
       </c>
       <c r="B34" t="s">
@@ -2051,7 +2053,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>1105</v>
       </c>
       <c r="B35" t="s">
@@ -2074,7 +2076,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>110501</v>
       </c>
       <c r="B36" t="s">
@@ -2097,7 +2099,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>110502</v>
       </c>
       <c r="B37" t="s">
@@ -2120,7 +2122,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="4">
         <v>1106</v>
       </c>
       <c r="B38" t="s">
@@ -2143,7 +2145,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="4">
         <v>110601</v>
       </c>
       <c r="B39" t="s">
@@ -2166,7 +2168,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="4">
         <v>110602</v>
       </c>
       <c r="B40" t="s">
@@ -2189,7 +2191,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="4">
         <v>110603</v>
       </c>
       <c r="B41" t="s">
@@ -2212,7 +2214,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="4">
         <v>110604</v>
       </c>
       <c r="B42" t="s">
@@ -2235,7 +2237,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="4">
         <v>110605</v>
       </c>
       <c r="B43" t="s">
@@ -2258,7 +2260,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="4">
         <v>1107</v>
       </c>
       <c r="B44" t="s">
@@ -2281,13 +2283,13 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="4">
         <v>110701</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>1107</v>
       </c>
       <c r="D45">
@@ -2304,13 +2306,13 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="4">
         <v>110702</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>1107</v>
       </c>
       <c r="D46">
@@ -2327,13 +2329,13 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="4">
         <v>110703</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="2">
         <v>1107</v>
       </c>
       <c r="D47">
@@ -2350,13 +2352,13 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="4">
         <v>110704</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="2">
         <v>1107</v>
       </c>
       <c r="D48">
@@ -2373,13 +2375,13 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="4">
         <v>1108</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="2">
         <v>11</v>
       </c>
       <c r="D49">
@@ -2396,13 +2398,13 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="4">
         <v>110801</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="2">
         <v>1108</v>
       </c>
       <c r="D50">
@@ -2419,13 +2421,13 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="4">
         <v>110802</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="2">
         <v>1108</v>
       </c>
       <c r="D51">
@@ -2442,13 +2444,13 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="4">
         <v>110803</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="2">
         <v>1108</v>
       </c>
       <c r="D52">
@@ -2465,13 +2467,13 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="4">
         <v>110804</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="2">
         <v>1108</v>
       </c>
       <c r="D53">
@@ -2488,13 +2490,13 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="4">
         <v>1109</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="2">
         <v>11</v>
       </c>
       <c r="D54">
@@ -2511,13 +2513,13 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="4">
         <v>110901</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="2">
         <v>1109</v>
       </c>
       <c r="D55">
@@ -2534,13 +2536,13 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56" s="5">
         <v>12</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="2">
         <v>1</v>
       </c>
       <c r="D56">
@@ -2557,13 +2559,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="4">
         <v>1201</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="2">
         <v>12</v>
       </c>
       <c r="D57">
@@ -2580,13 +2582,13 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="4">
         <v>120101</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="2">
         <v>1201</v>
       </c>
       <c r="D58">
@@ -2603,13 +2605,13 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="4">
         <v>12010101</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="2">
         <v>120101</v>
       </c>
       <c r="D59">
@@ -2626,13 +2628,13 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="4">
         <v>12010102</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="2">
         <v>120101</v>
       </c>
       <c r="D60">
@@ -2649,13 +2651,13 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="4">
         <v>12010103</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="2">
         <v>120101</v>
       </c>
       <c r="D61">
@@ -2672,13 +2674,13 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="4">
         <v>120102</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="2">
         <v>1201</v>
       </c>
       <c r="D62">
@@ -2695,13 +2697,13 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="A63" s="4">
         <v>12010201</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="2">
         <v>120102</v>
       </c>
       <c r="D63">
@@ -2718,13 +2720,13 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="A64" s="4">
         <v>12010202</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="2">
         <v>120102</v>
       </c>
       <c r="D64">
@@ -2741,13 +2743,13 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="4">
         <v>120103</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="2">
         <v>1201</v>
       </c>
       <c r="D65">
@@ -2764,13 +2766,13 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="4">
         <v>12010301</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="2">
         <v>120103</v>
       </c>
       <c r="D66">
@@ -2787,13 +2789,13 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="A67" s="4">
         <v>12010302</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="2">
         <v>120103</v>
       </c>
       <c r="D67">
@@ -2810,13 +2812,13 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="4">
         <v>120104</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="2">
         <v>1201</v>
       </c>
       <c r="D68">
@@ -2833,13 +2835,13 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="A69" s="4">
         <v>12010401</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="2">
         <v>120104</v>
       </c>
       <c r="D69">
@@ -2856,13 +2858,13 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="4">
         <v>12010402</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="2">
         <v>120104</v>
       </c>
       <c r="D70">
@@ -2879,13 +2881,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="4">
         <v>12010403</v>
       </c>
       <c r="B71" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="2">
         <v>120104</v>
       </c>
       <c r="D71">
@@ -2902,13 +2904,13 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="A72" s="4">
         <v>120105</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="2">
         <v>1201</v>
       </c>
       <c r="D72">
@@ -2925,13 +2927,13 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="4">
         <v>1202</v>
       </c>
       <c r="B73" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="2">
         <v>12</v>
       </c>
       <c r="D73">
@@ -2948,13 +2950,13 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="4">
         <v>120201</v>
       </c>
       <c r="B74" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="2">
         <v>1202</v>
       </c>
       <c r="D74">
@@ -2971,13 +2973,13 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="A75" s="4">
         <v>120202</v>
       </c>
       <c r="B75" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="2">
         <v>1202</v>
       </c>
       <c r="D75">
@@ -2994,13 +2996,13 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="A76" s="4">
         <v>120203</v>
       </c>
       <c r="B76" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="2">
         <v>1202</v>
       </c>
       <c r="D76">
@@ -3017,13 +3019,13 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="4">
         <v>120204</v>
       </c>
       <c r="B77" t="s">
         <v>82</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="2">
         <v>1202</v>
       </c>
       <c r="D77">
@@ -3040,13 +3042,13 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="4">
         <v>120205</v>
       </c>
       <c r="B78" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="2">
         <v>1202</v>
       </c>
       <c r="D78">
@@ -3063,13 +3065,13 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="A79" s="4">
         <v>1203</v>
       </c>
       <c r="B79" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="2">
         <v>12</v>
       </c>
       <c r="D79">
@@ -3086,13 +3088,13 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="A80" s="4">
         <v>120301</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="2">
         <v>1203</v>
       </c>
       <c r="D80">
@@ -3109,13 +3111,13 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="4">
         <v>120302</v>
       </c>
       <c r="B81" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="2">
         <v>1203</v>
       </c>
       <c r="D81">
@@ -3132,13 +3134,13 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="4">
         <v>120303</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="2">
         <v>1203</v>
       </c>
       <c r="D82">
@@ -3155,13 +3157,13 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="A83" s="4">
         <v>120304</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="2">
         <v>1203</v>
       </c>
       <c r="D83">
@@ -3178,13 +3180,13 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="4">
         <v>120305</v>
       </c>
       <c r="B84" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="2">
         <v>1203</v>
       </c>
       <c r="D84">
@@ -3201,13 +3203,13 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="4">
         <v>1204</v>
       </c>
       <c r="B85" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="2">
         <v>12</v>
       </c>
       <c r="D85">
@@ -3224,13 +3226,13 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="A86" s="4">
         <v>120401</v>
       </c>
       <c r="B86" t="s">
         <v>91</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="2">
         <v>1204</v>
       </c>
       <c r="D86">
@@ -3247,13 +3249,13 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="4">
         <v>120402</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="2">
         <v>1204</v>
       </c>
       <c r="D87">
@@ -3270,13 +3272,13 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="A88" s="4">
         <v>120403</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="2">
         <v>1204</v>
       </c>
       <c r="D88">
@@ -3293,13 +3295,13 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="A89" s="4">
         <v>120409</v>
       </c>
       <c r="B89" t="s">
         <v>94</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="2">
         <v>1204</v>
       </c>
       <c r="D89">
@@ -3316,13 +3318,13 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="4">
         <v>1205</v>
       </c>
       <c r="B90" t="s">
         <v>95</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="2">
         <v>12</v>
       </c>
       <c r="D90">
@@ -3339,13 +3341,13 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="A91" s="4">
         <v>120501</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="2">
         <v>1205</v>
       </c>
       <c r="D91">
@@ -3362,13 +3364,13 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="A92" s="4">
         <v>12050101</v>
       </c>
       <c r="B92" t="s">
         <v>64</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="2">
         <v>120501</v>
       </c>
       <c r="D92">
@@ -3385,13 +3387,13 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="A93" s="4">
         <v>12050102</v>
       </c>
       <c r="B93" t="s">
         <v>97</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="2">
         <v>120501</v>
       </c>
       <c r="D93">
@@ -3408,13 +3410,13 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94" s="4">
         <v>12050103</v>
       </c>
       <c r="B94" t="s">
         <v>98</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="2">
         <v>120501</v>
       </c>
       <c r="D94">
@@ -3431,13 +3433,13 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+      <c r="A95" s="4">
         <v>12050104</v>
       </c>
       <c r="B95" t="s">
         <v>99</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="2">
         <v>120501</v>
       </c>
       <c r="D95">
@@ -3454,13 +3456,13 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+      <c r="A96" s="4">
         <v>120502</v>
       </c>
       <c r="B96" t="s">
         <v>100</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="2">
         <v>1205</v>
       </c>
       <c r="D96">
@@ -3477,13 +3479,13 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="A97" s="4">
         <v>12050201</v>
       </c>
       <c r="B97" t="s">
         <v>64</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="2">
         <v>120502</v>
       </c>
       <c r="D97">
@@ -3500,13 +3502,13 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="4">
         <v>12050202</v>
       </c>
       <c r="B98" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="2">
         <v>120502</v>
       </c>
       <c r="D98">
@@ -3523,13 +3525,13 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="A99" s="4">
         <v>12050203</v>
       </c>
       <c r="B99" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="2">
         <v>120502</v>
       </c>
       <c r="D99">
@@ -3546,13 +3548,13 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="A100" s="4">
         <v>1206</v>
       </c>
       <c r="B100" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="2">
         <v>12</v>
       </c>
       <c r="D100">
@@ -3569,13 +3571,13 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="4">
         <v>120601</v>
       </c>
       <c r="B101" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="2">
         <v>1206</v>
       </c>
       <c r="D101">
@@ -3592,13 +3594,13 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="A102" s="4">
         <v>12060101</v>
       </c>
       <c r="B102" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="2">
         <v>120601</v>
       </c>
       <c r="D102">
@@ -3615,13 +3617,13 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="A103" s="4">
         <v>12060102</v>
       </c>
       <c r="B103" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="2">
         <v>120601</v>
       </c>
       <c r="D103">
@@ -3638,13 +3640,13 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+      <c r="A104" s="4">
         <v>120602</v>
       </c>
       <c r="B104" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="2">
         <v>1206</v>
       </c>
       <c r="D104">
@@ -3661,13 +3663,13 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+      <c r="A105" s="4">
         <v>12060201</v>
       </c>
       <c r="B105" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="2">
         <v>120602</v>
       </c>
       <c r="D105">
@@ -3684,13 +3686,13 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="4">
         <v>12060202</v>
       </c>
       <c r="B106" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="2">
         <v>120602</v>
       </c>
       <c r="D106">
@@ -3707,13 +3709,13 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+      <c r="A107" s="4">
         <v>120603</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="2">
         <v>1206</v>
       </c>
       <c r="D107">
@@ -3730,13 +3732,13 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="A108" s="4">
         <v>12060301</v>
       </c>
       <c r="B108" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="2">
         <v>120603</v>
       </c>
       <c r="D108">
@@ -3753,13 +3755,13 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+      <c r="A109" s="4">
         <v>12060302</v>
       </c>
       <c r="B109" t="s">
         <v>105</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="2">
         <v>120603</v>
       </c>
       <c r="D109">
@@ -3776,13 +3778,13 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="4">
         <v>120604</v>
       </c>
       <c r="B110" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="2">
         <v>1206</v>
       </c>
       <c r="D110">
@@ -3799,13 +3801,13 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+      <c r="A111" s="4">
         <v>12060401</v>
       </c>
       <c r="B111" t="s">
         <v>104</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="2">
         <v>120604</v>
       </c>
       <c r="D111">
@@ -3822,13 +3824,13 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="A112" s="4">
         <v>12060402</v>
       </c>
       <c r="B112" t="s">
         <v>105</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="2">
         <v>120604</v>
       </c>
       <c r="D112">
@@ -3845,13 +3847,13 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+      <c r="A113" s="4">
         <v>120605</v>
       </c>
       <c r="B113" t="s">
         <v>109</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="2">
         <v>1206</v>
       </c>
       <c r="D113">
@@ -3868,13 +3870,13 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+      <c r="A114" s="4">
         <v>1207</v>
       </c>
       <c r="B114" t="s">
         <v>110</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="2">
         <v>12</v>
       </c>
       <c r="D114">
@@ -3891,13 +3893,13 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+      <c r="A115" s="4">
         <v>120701</v>
       </c>
       <c r="B115" t="s">
         <v>110</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="2">
         <v>1207</v>
       </c>
       <c r="D115">
@@ -3914,13 +3916,13 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="A116" s="4">
         <v>12070101</v>
       </c>
       <c r="B116" t="s">
         <v>111</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="2">
         <v>120701</v>
       </c>
       <c r="D116">
@@ -3937,13 +3939,13 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+      <c r="A117" s="4">
         <v>1208</v>
       </c>
       <c r="B117" t="s">
         <v>112</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="2">
         <v>12</v>
       </c>
       <c r="D117">
@@ -3960,13 +3962,13 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="A118" s="4">
         <v>120801</v>
       </c>
       <c r="B118" t="s">
         <v>21</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="2">
         <v>1208</v>
       </c>
       <c r="D118">
@@ -3983,13 +3985,13 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+      <c r="A119" s="4">
         <v>120802</v>
       </c>
       <c r="B119" t="s">
         <v>113</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="2">
         <v>1208</v>
       </c>
       <c r="D119">
@@ -4006,13 +4008,13 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+      <c r="A120" s="4">
         <v>120803</v>
       </c>
       <c r="B120" t="s">
         <v>114</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="2">
         <v>1208</v>
       </c>
       <c r="D120">
@@ -4029,13 +4031,13 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+      <c r="A121" s="4">
         <v>1209</v>
       </c>
       <c r="B121" t="s">
         <v>115</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="2">
         <v>12</v>
       </c>
       <c r="D121">
@@ -4052,13 +4054,13 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+      <c r="A122" s="4">
         <v>120901</v>
       </c>
       <c r="B122" t="s">
         <v>115</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="2">
         <v>1209</v>
       </c>
       <c r="D122">
@@ -4075,13 +4077,13 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+      <c r="A123" s="4">
         <v>1213</v>
       </c>
       <c r="B123" t="s">
         <v>116</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="2">
         <v>12</v>
       </c>
       <c r="D123">
@@ -4098,13 +4100,13 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+      <c r="A124" s="4">
         <v>121301</v>
       </c>
       <c r="B124" t="s">
         <v>117</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="2">
         <v>1213</v>
       </c>
       <c r="D124">
@@ -4121,13 +4123,13 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+      <c r="A125" s="4">
         <v>121302</v>
       </c>
       <c r="B125" t="s">
         <v>118</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="2">
         <v>1213</v>
       </c>
       <c r="D125">
@@ -4144,13 +4146,13 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+      <c r="A126" s="4">
         <v>121303</v>
       </c>
       <c r="B126" t="s">
         <v>119</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="2">
         <v>1213</v>
       </c>
       <c r="D126">
@@ -4167,13 +4169,13 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+      <c r="A127" s="4">
         <v>121304</v>
       </c>
       <c r="B127" t="s">
         <v>120</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="2">
         <v>1213</v>
       </c>
       <c r="D127">
@@ -4190,13 +4192,13 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+      <c r="A128" s="4">
         <v>121305</v>
       </c>
       <c r="B128" t="s">
         <v>121</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="2">
         <v>1213</v>
       </c>
       <c r="D128">
@@ -4213,13 +4215,13 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+      <c r="A129" s="4">
         <v>1214</v>
       </c>
       <c r="B129" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="2">
         <v>12</v>
       </c>
       <c r="D129">
@@ -4236,13 +4238,13 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+      <c r="A130" s="4">
         <v>121401</v>
       </c>
       <c r="B130" t="s">
         <v>122</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="2">
         <v>1214</v>
       </c>
       <c r="D130">
@@ -4259,13 +4261,13 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+      <c r="A131" s="4">
         <v>12140101</v>
       </c>
       <c r="B131" t="s">
         <v>123</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="2">
         <v>121401</v>
       </c>
       <c r="D131">
@@ -4282,13 +4284,13 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+      <c r="A132" s="4">
         <v>12140102</v>
       </c>
       <c r="B132" t="s">
         <v>124</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="2">
         <v>121401</v>
       </c>
       <c r="D132">
@@ -4305,10 +4307,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+      <c r="A133" s="5">
         <v>2</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D133">
@@ -4325,13 +4327,13 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+      <c r="A134" s="5">
         <v>21</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="2">
         <v>2</v>
       </c>
       <c r="D134">
@@ -4348,13 +4350,13 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
+      <c r="A135" s="4">
         <v>2101</v>
       </c>
       <c r="B135" t="s">
         <v>129</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="2">
         <v>21</v>
       </c>
       <c r="D135">
@@ -4371,13 +4373,13 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
+      <c r="A136" s="4">
         <v>210101</v>
       </c>
       <c r="B136" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="2">
         <v>2101</v>
       </c>
       <c r="D136">
@@ -4394,13 +4396,13 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
+      <c r="A137" s="4">
         <v>210102</v>
       </c>
       <c r="B137" t="s">
         <v>131</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="2">
         <v>2101</v>
       </c>
       <c r="D137">
@@ -4417,13 +4419,13 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+      <c r="A138" s="4">
         <v>210103</v>
       </c>
       <c r="B138" t="s">
         <v>132</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="2">
         <v>2101</v>
       </c>
       <c r="D138">
@@ -4440,13 +4442,13 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
+      <c r="A139" s="4">
         <v>210104</v>
       </c>
       <c r="B139" t="s">
         <v>133</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="2">
         <v>2101</v>
       </c>
       <c r="D139">
@@ -4463,13 +4465,13 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
+      <c r="A140" s="4">
         <v>2102</v>
       </c>
       <c r="B140" t="s">
         <v>135</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="2">
         <v>21</v>
       </c>
       <c r="D140">
@@ -4486,13 +4488,13 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
+      <c r="A141" s="4">
         <v>210201</v>
       </c>
       <c r="B141" t="s">
         <v>136</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="2">
         <v>2102</v>
       </c>
       <c r="D141">
@@ -4509,13 +4511,13 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+      <c r="A142" s="4">
         <v>210202</v>
       </c>
       <c r="B142" t="s">
         <v>137</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="2">
         <v>2102</v>
       </c>
       <c r="D142">
@@ -4532,13 +4534,13 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
+      <c r="A143" s="4">
         <v>210203</v>
       </c>
       <c r="B143" t="s">
         <v>138</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="2">
         <v>2102</v>
       </c>
       <c r="D143">
@@ -4555,13 +4557,13 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+      <c r="A144" s="4">
         <v>210204</v>
       </c>
       <c r="B144" t="s">
         <v>139</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="2">
         <v>2102</v>
       </c>
       <c r="D144">
@@ -4578,13 +4580,13 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+      <c r="A145" s="4">
         <v>2103</v>
       </c>
       <c r="B145" t="s">
         <v>140</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="2">
         <v>21</v>
       </c>
       <c r="D145">
@@ -4601,13 +4603,13 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+      <c r="A146" s="4">
         <v>210301</v>
       </c>
       <c r="B146" t="s">
         <v>141</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="2">
         <v>2103</v>
       </c>
       <c r="D146">
@@ -4624,13 +4626,13 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+      <c r="A147" s="4">
         <v>21030101</v>
       </c>
       <c r="B147" t="s">
         <v>142</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="2">
         <v>210301</v>
       </c>
       <c r="D147">
@@ -4647,13 +4649,13 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+      <c r="A148" s="4">
         <v>21030102</v>
       </c>
       <c r="B148" t="s">
         <v>143</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="2">
         <v>210301</v>
       </c>
       <c r="D148">
@@ -4670,13 +4672,13 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
+      <c r="A149" s="4">
         <v>21030103</v>
       </c>
       <c r="B149" t="s">
         <v>144</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="2">
         <v>210301</v>
       </c>
       <c r="D149">
@@ -4693,13 +4695,13 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+      <c r="A150" s="4">
         <v>21030104</v>
       </c>
       <c r="B150" t="s">
         <v>145</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="2">
         <v>210301</v>
       </c>
       <c r="D150">
@@ -4716,13 +4718,13 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
+      <c r="A151" s="4">
         <v>21030105</v>
       </c>
       <c r="B151" t="s">
         <v>146</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="2">
         <v>210301</v>
       </c>
       <c r="D151">
@@ -4739,13 +4741,13 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
+      <c r="A152" s="4">
         <v>21030106</v>
       </c>
       <c r="B152" t="s">
         <v>147</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="2">
         <v>210301</v>
       </c>
       <c r="D152">
@@ -4762,13 +4764,13 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
+      <c r="A153" s="4">
         <v>2104</v>
       </c>
       <c r="B153" t="s">
         <v>148</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="2">
         <v>21</v>
       </c>
       <c r="D153">
@@ -4785,13 +4787,13 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+      <c r="A154" s="4">
         <v>210401</v>
       </c>
       <c r="B154" t="s">
         <v>149</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="2">
         <v>2104</v>
       </c>
       <c r="D154">
@@ -4808,13 +4810,13 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+      <c r="A155" s="4">
         <v>210402</v>
       </c>
       <c r="B155" t="s">
         <v>150</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="2">
         <v>2104</v>
       </c>
       <c r="D155">
@@ -4831,13 +4833,13 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+      <c r="A156" s="4">
         <v>2105</v>
       </c>
       <c r="B156" t="s">
         <v>151</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="2">
         <v>21</v>
       </c>
       <c r="D156">
@@ -4854,13 +4856,13 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+      <c r="A157" s="4">
         <v>210501</v>
       </c>
       <c r="B157" t="s">
         <v>152</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="2">
         <v>2105</v>
       </c>
       <c r="D157">
@@ -4877,13 +4879,13 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+      <c r="A158" s="4">
         <v>21050101</v>
       </c>
       <c r="B158" t="s">
         <v>153</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="2">
         <v>210501</v>
       </c>
       <c r="D158">
@@ -4900,13 +4902,13 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
+      <c r="A159" s="4">
         <v>21050102</v>
       </c>
       <c r="B159" t="s">
         <v>154</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="2">
         <v>210501</v>
       </c>
       <c r="D159">
@@ -4923,13 +4925,13 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
+      <c r="A160" s="4">
         <v>21050103</v>
       </c>
       <c r="B160" t="s">
         <v>155</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="2">
         <v>210501</v>
       </c>
       <c r="D160">
@@ -4946,13 +4948,13 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
+      <c r="A161" s="4">
         <v>210502</v>
       </c>
       <c r="B161" t="s">
         <v>156</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="2">
         <v>2105</v>
       </c>
       <c r="D161">
@@ -4969,13 +4971,13 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+      <c r="A162" s="4">
         <v>21050201</v>
       </c>
       <c r="B162" t="s">
         <v>157</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C162" s="2">
         <v>210502</v>
       </c>
       <c r="D162">
@@ -4992,13 +4994,13 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
+      <c r="A163" s="4">
         <v>21050202</v>
       </c>
       <c r="B163" t="s">
         <v>158</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="2">
         <v>210502</v>
       </c>
       <c r="D163">
@@ -5015,13 +5017,13 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+      <c r="A164" s="4">
         <v>210503</v>
       </c>
       <c r="B164" t="s">
         <v>159</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164" s="2">
         <v>2105</v>
       </c>
       <c r="D164">
@@ -5038,13 +5040,13 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+      <c r="A165" s="4">
         <v>21050301</v>
       </c>
       <c r="B165" t="s">
         <v>160</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="2">
         <v>210503</v>
       </c>
       <c r="D165">
@@ -5061,13 +5063,13 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+      <c r="A166" s="4">
         <v>21050302</v>
       </c>
       <c r="B166" t="s">
         <v>161</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="2">
         <v>210503</v>
       </c>
       <c r="D166">
@@ -5084,13 +5086,13 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
+      <c r="A167" s="4">
         <v>210504</v>
       </c>
       <c r="B167" t="s">
         <v>162</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="2">
         <v>2105</v>
       </c>
       <c r="D167">
@@ -5107,13 +5109,13 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
+      <c r="A168" s="4">
         <v>2106</v>
       </c>
       <c r="B168" t="s">
         <v>163</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="2">
         <v>21</v>
       </c>
       <c r="D168">
@@ -5130,13 +5132,13 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+      <c r="A169" s="4">
         <v>210601</v>
       </c>
       <c r="B169" t="s">
         <v>163</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="2">
         <v>2106</v>
       </c>
       <c r="D169">
@@ -5153,13 +5155,13 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+      <c r="A170" s="4">
         <v>2107</v>
       </c>
       <c r="B170" t="s">
         <v>164</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="2">
         <v>21</v>
       </c>
       <c r="D170">
@@ -5176,13 +5178,13 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+      <c r="A171" s="4">
         <v>210701</v>
       </c>
       <c r="B171" t="s">
         <v>164</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="2">
         <v>2107</v>
       </c>
       <c r="D171">
@@ -5199,13 +5201,13 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+      <c r="A172" s="4">
         <v>2108</v>
       </c>
       <c r="B172" t="s">
         <v>165</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="2">
         <v>21</v>
       </c>
       <c r="D172">
@@ -5222,13 +5224,13 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
+      <c r="A173" s="4">
         <v>210801</v>
       </c>
       <c r="B173" t="s">
         <v>165</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="2">
         <v>2108</v>
       </c>
       <c r="D173">
@@ -5245,13 +5247,13 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+      <c r="A174" s="4">
         <v>2109</v>
       </c>
       <c r="B174" t="s">
         <v>166</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="2">
         <v>21</v>
       </c>
       <c r="D174">
@@ -5268,13 +5270,13 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
+      <c r="A175" s="4">
         <v>210901</v>
       </c>
       <c r="B175" t="s">
         <v>167</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="2">
         <v>2109</v>
       </c>
       <c r="D175">
@@ -5291,13 +5293,13 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
+      <c r="A176" s="4">
         <v>21090101</v>
       </c>
       <c r="B176" t="s">
         <v>168</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176" s="2">
         <v>210901</v>
       </c>
       <c r="D176">
@@ -5314,13 +5316,13 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+      <c r="A177" s="4">
         <v>21090102</v>
       </c>
       <c r="B177" t="s">
         <v>169</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="2">
         <v>210901</v>
       </c>
       <c r="D177">
@@ -5337,13 +5339,13 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+      <c r="A178" s="4">
         <v>21090103</v>
       </c>
       <c r="B178" t="s">
         <v>170</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178" s="2">
         <v>210901</v>
       </c>
       <c r="D178">
@@ -5360,13 +5362,13 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+      <c r="A179" s="4">
         <v>21090104</v>
       </c>
       <c r="B179" t="s">
         <v>171</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="2">
         <v>210901</v>
       </c>
       <c r="D179">
@@ -5383,13 +5385,13 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+      <c r="A180" s="4">
         <v>21090105</v>
       </c>
       <c r="B180" t="s">
         <v>172</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180" s="2">
         <v>210901</v>
       </c>
       <c r="D180">
@@ -5406,13 +5408,13 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+      <c r="A181" s="4">
         <v>21090106</v>
       </c>
       <c r="B181" t="s">
         <v>173</v>
       </c>
-      <c r="C181" s="4">
+      <c r="C181" s="2">
         <v>210901</v>
       </c>
       <c r="D181">
@@ -5429,13 +5431,13 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+      <c r="A182" s="4">
         <v>2110</v>
       </c>
       <c r="B182" t="s">
         <v>174</v>
       </c>
-      <c r="C182" s="4">
+      <c r="C182" s="2">
         <v>21</v>
       </c>
       <c r="D182">
@@ -5452,13 +5454,13 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
+      <c r="A183" s="4">
         <v>211001</v>
       </c>
       <c r="B183" t="s">
         <v>175</v>
       </c>
-      <c r="C183" s="4">
+      <c r="C183" s="2">
         <v>2110</v>
       </c>
       <c r="D183">
@@ -5475,13 +5477,13 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
+      <c r="A184" s="4">
         <v>211002</v>
       </c>
       <c r="B184" t="s">
         <v>176</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184" s="2">
         <v>2110</v>
       </c>
       <c r="D184">
@@ -5498,13 +5500,13 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
+      <c r="A185" s="4">
         <v>211003</v>
       </c>
       <c r="B185" t="s">
         <v>46</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185" s="2">
         <v>2110</v>
       </c>
       <c r="D185">
@@ -5521,13 +5523,13 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+      <c r="A186" s="4">
         <v>211004</v>
       </c>
       <c r="B186" t="s">
         <v>47</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186" s="2">
         <v>2110</v>
       </c>
       <c r="D186">
@@ -5544,13 +5546,13 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+      <c r="A187" s="4">
         <v>211005</v>
       </c>
       <c r="B187" t="s">
         <v>48</v>
       </c>
-      <c r="C187" s="4">
+      <c r="C187" s="2">
         <v>2110</v>
       </c>
       <c r="D187">
@@ -5567,13 +5569,13 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
+      <c r="A188" s="4">
         <v>2111</v>
       </c>
       <c r="B188" t="s">
         <v>177</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188" s="2">
         <v>21</v>
       </c>
       <c r="D188">
@@ -5590,13 +5592,13 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+      <c r="A189" s="4">
         <v>211101</v>
       </c>
       <c r="B189" t="s">
         <v>178</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C189" s="2">
         <v>2111</v>
       </c>
       <c r="D189">
@@ -5613,13 +5615,13 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
+      <c r="A190" s="4">
         <v>211102</v>
       </c>
       <c r="B190" t="s">
         <v>179</v>
       </c>
-      <c r="C190" s="4">
+      <c r="C190" s="2">
         <v>2111</v>
       </c>
       <c r="D190">
@@ -5636,13 +5638,13 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+      <c r="A191" s="5">
         <v>22</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191" s="2">
         <v>2</v>
       </c>
       <c r="D191">
@@ -5659,13 +5661,13 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
+      <c r="A192" s="4">
         <v>2201</v>
       </c>
       <c r="B192" t="s">
         <v>181</v>
       </c>
-      <c r="C192" s="4">
+      <c r="C192" s="2">
         <v>22</v>
       </c>
       <c r="D192">
@@ -5682,13 +5684,13 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+      <c r="A193" s="4">
         <v>220101</v>
       </c>
       <c r="B193" t="s">
         <v>182</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193" s="2">
         <v>2201</v>
       </c>
       <c r="D193">
@@ -5705,13 +5707,13 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+      <c r="A194" s="4">
         <v>220102</v>
       </c>
       <c r="B194" t="s">
         <v>183</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194" s="2">
         <v>2201</v>
       </c>
       <c r="D194">
@@ -5728,13 +5730,13 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+      <c r="A195" s="4">
         <v>2202</v>
       </c>
       <c r="B195" t="s">
         <v>184</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195" s="2">
         <v>22</v>
       </c>
       <c r="D195">
@@ -5751,13 +5753,13 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+      <c r="A196" s="4">
         <v>220201</v>
       </c>
       <c r="B196" t="s">
         <v>184</v>
       </c>
-      <c r="C196" s="4">
+      <c r="C196" s="2">
         <v>2102</v>
       </c>
       <c r="D196">
@@ -5774,13 +5776,13 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+      <c r="A197" s="4">
         <v>2203</v>
       </c>
       <c r="B197" t="s">
         <v>185</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197" s="2">
         <v>22</v>
       </c>
       <c r="D197">
@@ -5797,13 +5799,13 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+      <c r="A198" s="4">
         <v>220301</v>
       </c>
       <c r="B198" t="s">
         <v>185</v>
       </c>
-      <c r="C198" s="4">
+      <c r="C198" s="2">
         <v>2203</v>
       </c>
       <c r="D198">
@@ -5820,13 +5822,13 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
+      <c r="A199" s="4">
         <v>2204</v>
       </c>
       <c r="B199" t="s">
         <v>186</v>
       </c>
-      <c r="C199" s="4">
+      <c r="C199" s="2">
         <v>22</v>
       </c>
       <c r="D199">
@@ -5843,13 +5845,13 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+      <c r="A200" s="4">
         <v>220401</v>
       </c>
       <c r="B200" t="s">
         <v>186</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C200" s="2">
         <v>2204</v>
       </c>
       <c r="D200">
@@ -5866,13 +5868,13 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
+      <c r="A201" s="4">
         <v>2205</v>
       </c>
       <c r="B201" t="s">
         <v>187</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201" s="2">
         <v>22</v>
       </c>
       <c r="D201">
@@ -5889,13 +5891,13 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
+      <c r="A202" s="4">
         <v>220501</v>
       </c>
       <c r="B202" t="s">
         <v>187</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202" s="2">
         <v>2205</v>
       </c>
       <c r="D202">
@@ -5912,13 +5914,13 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
+      <c r="A203" s="4">
         <v>2206</v>
       </c>
       <c r="B203" t="s">
         <v>188</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203" s="2">
         <v>22</v>
       </c>
       <c r="D203">
@@ -5935,13 +5937,13 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
+      <c r="A204" s="4">
         <v>220601</v>
       </c>
       <c r="B204" t="s">
         <v>117</v>
       </c>
-      <c r="C204" s="4">
+      <c r="C204" s="2">
         <v>2206</v>
       </c>
       <c r="D204">
@@ -5958,13 +5960,13 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
+      <c r="A205" s="4">
         <v>220602</v>
       </c>
       <c r="B205" t="s">
         <v>118</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205" s="2">
         <v>2206</v>
       </c>
       <c r="D205">
@@ -5981,13 +5983,13 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+      <c r="A206" s="4">
         <v>220603</v>
       </c>
       <c r="B206" t="s">
         <v>189</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="2">
         <v>2206</v>
       </c>
       <c r="D206">
@@ -6004,13 +6006,13 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
+      <c r="A207" s="4">
         <v>220604</v>
       </c>
       <c r="B207" t="s">
         <v>120</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207" s="2">
         <v>2206</v>
       </c>
       <c r="D207">
@@ -6027,13 +6029,13 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+      <c r="A208" s="4">
         <v>220605</v>
       </c>
       <c r="B208" t="s">
         <v>190</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C208" s="2">
         <v>2206</v>
       </c>
       <c r="D208">
@@ -6050,13 +6052,13 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
+      <c r="A209" s="4">
         <v>2207</v>
       </c>
       <c r="B209" t="s">
         <v>177</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209" s="2">
         <v>22</v>
       </c>
       <c r="D209">
@@ -6073,13 +6075,13 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
+      <c r="A210" s="4">
         <v>220701</v>
       </c>
       <c r="B210" t="s">
         <v>191</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="2">
         <v>2207</v>
       </c>
       <c r="D210">
@@ -6096,13 +6098,13 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
+      <c r="A211" s="4">
         <v>220702</v>
       </c>
       <c r="B211" t="s">
         <v>192</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="2">
         <v>2207</v>
       </c>
       <c r="D211">
@@ -6119,13 +6121,13 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
+      <c r="A212" s="4">
         <v>2208</v>
       </c>
       <c r="B212" t="s">
         <v>193</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C212" s="2">
         <v>22</v>
       </c>
       <c r="D212">
@@ -6142,13 +6144,13 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
+      <c r="A213" s="4">
         <v>220801</v>
       </c>
       <c r="B213" t="s">
         <v>194</v>
       </c>
-      <c r="C213" s="4">
+      <c r="C213" s="2">
         <v>2208</v>
       </c>
       <c r="D213">
@@ -6165,13 +6167,13 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
+      <c r="A214" s="4">
         <v>220802</v>
       </c>
       <c r="B214" t="s">
         <v>195</v>
       </c>
-      <c r="C214" s="4">
+      <c r="C214" s="2">
         <v>2208</v>
       </c>
       <c r="D214">
@@ -6188,13 +6190,13 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
+      <c r="A215" s="4">
         <v>2209</v>
       </c>
       <c r="B215" t="s">
         <v>122</v>
       </c>
-      <c r="C215" s="4">
+      <c r="C215" s="2">
         <v>22</v>
       </c>
       <c r="D215">
@@ -6211,13 +6213,13 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
+      <c r="A216" s="4">
         <v>220901</v>
       </c>
       <c r="B216" t="s">
         <v>122</v>
       </c>
-      <c r="C216" s="4">
+      <c r="C216" s="2">
         <v>2209</v>
       </c>
       <c r="D216">
@@ -6234,13 +6236,13 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
+      <c r="A217" s="4">
         <v>22090101</v>
       </c>
       <c r="B217" t="s">
         <v>196</v>
       </c>
-      <c r="C217" s="4">
+      <c r="C217" s="2">
         <v>2209</v>
       </c>
       <c r="D217">
@@ -6257,13 +6259,13 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
+      <c r="A218" s="4">
         <v>22090102</v>
       </c>
       <c r="B218" t="s">
         <v>197</v>
       </c>
-      <c r="C218" s="4">
+      <c r="C218" s="2">
         <v>2209</v>
       </c>
       <c r="D218">
@@ -6280,10 +6282,10 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
+      <c r="A219" s="5">
         <v>3</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D219">
@@ -6300,13 +6302,13 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
+      <c r="A220" s="4">
         <v>31</v>
       </c>
       <c r="B220" t="s">
         <v>199</v>
       </c>
-      <c r="C220" s="4">
+      <c r="C220" s="2">
         <v>3</v>
       </c>
       <c r="D220">
@@ -6323,13 +6325,13 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
+      <c r="A221" s="4">
         <v>3101</v>
       </c>
       <c r="B221" t="s">
         <v>200</v>
       </c>
-      <c r="C221" s="4">
+      <c r="C221" s="2">
         <v>31</v>
       </c>
       <c r="D221">
@@ -6346,13 +6348,13 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
+      <c r="A222" s="4">
         <v>310101</v>
       </c>
       <c r="B222" t="s">
         <v>201</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C222" s="2">
         <v>3101</v>
       </c>
       <c r="D222">
@@ -6369,13 +6371,13 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
+      <c r="A223" s="4">
         <v>31010101</v>
       </c>
       <c r="B223" t="s">
         <v>201</v>
       </c>
-      <c r="C223" s="4">
+      <c r="C223" s="2">
         <v>310101</v>
       </c>
       <c r="D223">
@@ -6392,13 +6394,13 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
+      <c r="A224" s="4">
         <v>31010102</v>
       </c>
       <c r="B224" t="s">
         <v>202</v>
       </c>
-      <c r="C224" s="4">
+      <c r="C224" s="2">
         <v>310101</v>
       </c>
       <c r="D224">
@@ -6415,13 +6417,13 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
+      <c r="A225" s="4">
         <v>310102</v>
       </c>
       <c r="B225" t="s">
         <v>203</v>
       </c>
-      <c r="C225" s="4">
+      <c r="C225" s="2">
         <v>3101</v>
       </c>
       <c r="D225">
@@ -6438,13 +6440,13 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
+      <c r="A226" s="4">
         <v>31010201</v>
       </c>
       <c r="B226" t="s">
         <v>203</v>
       </c>
-      <c r="C226" s="4">
+      <c r="C226" s="2">
         <v>310102</v>
       </c>
       <c r="D226">
@@ -6461,13 +6463,13 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
+      <c r="A227" s="4">
         <v>31010202</v>
       </c>
       <c r="B227" t="s">
         <v>204</v>
       </c>
-      <c r="C227" s="4">
+      <c r="C227" s="2">
         <v>310102</v>
       </c>
       <c r="D227">
@@ -6484,13 +6486,13 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
+      <c r="A228" s="4">
         <v>3102</v>
       </c>
       <c r="B228" t="s">
         <v>205</v>
       </c>
-      <c r="C228" s="4">
+      <c r="C228" s="2">
         <v>31</v>
       </c>
       <c r="D228">
@@ -6507,13 +6509,13 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
+      <c r="A229" s="4">
         <v>310201</v>
       </c>
       <c r="B229" t="s">
         <v>206</v>
       </c>
-      <c r="C229" s="4">
+      <c r="C229" s="2">
         <v>3102</v>
       </c>
       <c r="D229">
@@ -6530,13 +6532,13 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
+      <c r="A230" s="4">
         <v>3103</v>
       </c>
       <c r="B230" t="s">
         <v>207</v>
       </c>
-      <c r="C230" s="4">
+      <c r="C230" s="2">
         <v>31</v>
       </c>
       <c r="D230">
@@ -6553,13 +6555,13 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
+      <c r="A231" s="4">
         <v>310301</v>
       </c>
       <c r="B231" t="s">
         <v>208</v>
       </c>
-      <c r="C231" s="4">
+      <c r="C231" s="2">
         <v>3103</v>
       </c>
       <c r="D231">
@@ -6576,13 +6578,13 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
+      <c r="A232" s="4">
         <v>310302</v>
       </c>
       <c r="B232" t="s">
         <v>209</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232" s="2">
         <v>3103</v>
       </c>
       <c r="D232">
@@ -6599,13 +6601,13 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
+      <c r="A233" s="4">
         <v>3104</v>
       </c>
       <c r="B233" t="s">
         <v>210</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233" s="2">
         <v>31</v>
       </c>
       <c r="D233">
@@ -6622,13 +6624,13 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
+      <c r="A234" s="4">
         <v>310401</v>
       </c>
       <c r="B234" t="s">
         <v>211</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234" s="2">
         <v>3104</v>
       </c>
       <c r="D234">
@@ -6645,13 +6647,13 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
+      <c r="A235" s="4">
         <v>310402</v>
       </c>
       <c r="B235" t="s">
         <v>212</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235" s="2">
         <v>3104</v>
       </c>
       <c r="D235">
@@ -6668,13 +6670,13 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>4</v>
-      </c>
-      <c r="B236" s="3" t="s">
+      <c r="A236" s="5">
+        <v>4</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D236" s="4">
+      <c r="D236" s="2">
         <v>1</v>
       </c>
       <c r="E236" t="s">
@@ -6688,16 +6690,16 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
+      <c r="A237" s="5">
         <v>41</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237" s="2">
         <v>1</v>
       </c>
-      <c r="D237" s="4">
+      <c r="D237" s="2">
         <v>2</v>
       </c>
       <c r="E237" t="s">
@@ -6711,16 +6713,16 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
+      <c r="A238" s="4">
         <v>4101</v>
       </c>
       <c r="B238" t="s">
         <v>215</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238" s="2">
         <v>41</v>
       </c>
-      <c r="D238" s="4">
+      <c r="D238" s="2">
         <v>3</v>
       </c>
       <c r="E238" t="s">
@@ -6734,16 +6736,16 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
+      <c r="A239" s="4">
         <v>410101</v>
       </c>
       <c r="B239" t="s">
         <v>216</v>
       </c>
-      <c r="C239" s="4">
+      <c r="C239" s="2">
         <v>4101</v>
       </c>
-      <c r="D239" s="4">
+      <c r="D239" s="2">
         <v>4</v>
       </c>
       <c r="E239" t="s">
@@ -6757,16 +6759,16 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
+      <c r="A240" s="4">
         <v>41010101</v>
       </c>
       <c r="B240" t="s">
         <v>217</v>
       </c>
-      <c r="C240" s="4">
+      <c r="C240" s="2">
         <v>410101</v>
       </c>
-      <c r="D240" s="4">
+      <c r="D240" s="2">
         <v>5</v>
       </c>
       <c r="E240" t="s">
@@ -6780,17 +6782,17 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
+      <c r="A241" s="4">
         <f>+A240+1</f>
         <v>41010102</v>
       </c>
       <c r="B241" t="s">
         <v>218</v>
       </c>
-      <c r="C241" s="4">
+      <c r="C241" s="2">
         <v>410101</v>
       </c>
-      <c r="D241" s="4">
+      <c r="D241" s="2">
         <v>5</v>
       </c>
       <c r="E241" t="s">
@@ -6804,17 +6806,17 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
+      <c r="A242" s="4">
         <f t="shared" ref="A242:A250" si="0">+A241+1</f>
         <v>41010103</v>
       </c>
       <c r="B242" t="s">
         <v>219</v>
       </c>
-      <c r="C242" s="4">
+      <c r="C242" s="2">
         <v>410101</v>
       </c>
-      <c r="D242" s="4">
+      <c r="D242" s="2">
         <v>5</v>
       </c>
       <c r="E242" t="s">
@@ -6828,17 +6830,17 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
+      <c r="A243" s="4">
         <f t="shared" si="0"/>
         <v>41010104</v>
       </c>
       <c r="B243" t="s">
         <v>220</v>
       </c>
-      <c r="C243" s="4">
+      <c r="C243" s="2">
         <v>410101</v>
       </c>
-      <c r="D243" s="4">
+      <c r="D243" s="2">
         <v>5</v>
       </c>
       <c r="E243" t="s">
@@ -6852,17 +6854,17 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
+      <c r="A244" s="4">
         <f t="shared" si="0"/>
         <v>41010105</v>
       </c>
       <c r="B244" t="s">
         <v>221</v>
       </c>
-      <c r="C244" s="4">
+      <c r="C244" s="2">
         <v>410101</v>
       </c>
-      <c r="D244" s="4">
+      <c r="D244" s="2">
         <v>5</v>
       </c>
       <c r="E244" t="s">
@@ -6876,17 +6878,17 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
+      <c r="A245" s="4">
         <f t="shared" si="0"/>
         <v>41010106</v>
       </c>
       <c r="B245" t="s">
         <v>222</v>
       </c>
-      <c r="C245" s="4">
+      <c r="C245" s="2">
         <v>410101</v>
       </c>
-      <c r="D245" s="4">
+      <c r="D245" s="2">
         <v>5</v>
       </c>
       <c r="E245" t="s">
@@ -6900,17 +6902,17 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
+      <c r="A246" s="4">
         <f t="shared" si="0"/>
         <v>41010107</v>
       </c>
       <c r="B246" t="s">
         <v>145</v>
       </c>
-      <c r="C246" s="4">
+      <c r="C246" s="2">
         <v>410101</v>
       </c>
-      <c r="D246" s="4">
+      <c r="D246" s="2">
         <v>5</v>
       </c>
       <c r="E246" t="s">
@@ -6924,17 +6926,17 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
+      <c r="A247" s="4">
         <f t="shared" si="0"/>
         <v>41010108</v>
       </c>
       <c r="B247" t="s">
         <v>147</v>
       </c>
-      <c r="C247" s="4">
+      <c r="C247" s="2">
         <v>410101</v>
       </c>
-      <c r="D247" s="4">
+      <c r="D247" s="2">
         <v>5</v>
       </c>
       <c r="E247" t="s">
@@ -6948,17 +6950,17 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
+      <c r="A248" s="4">
         <f t="shared" si="0"/>
         <v>41010109</v>
       </c>
       <c r="B248" t="s">
         <v>223</v>
       </c>
-      <c r="C248" s="4">
+      <c r="C248" s="2">
         <v>410101</v>
       </c>
-      <c r="D248" s="4">
+      <c r="D248" s="2">
         <v>5</v>
       </c>
       <c r="E248" t="s">
@@ -6972,17 +6974,17 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
+      <c r="A249" s="4">
         <f t="shared" si="0"/>
         <v>41010110</v>
       </c>
       <c r="B249" t="s">
         <v>224</v>
       </c>
-      <c r="C249" s="4">
+      <c r="C249" s="2">
         <v>410101</v>
       </c>
-      <c r="D249" s="4">
+      <c r="D249" s="2">
         <v>5</v>
       </c>
       <c r="E249" t="s">
@@ -6996,17 +6998,17 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
+      <c r="A250" s="4">
         <f t="shared" si="0"/>
         <v>41010111</v>
       </c>
       <c r="B250" t="s">
         <v>225</v>
       </c>
-      <c r="C250" s="4">
+      <c r="C250" s="2">
         <v>410101</v>
       </c>
-      <c r="D250" s="4">
+      <c r="D250" s="2">
         <v>5</v>
       </c>
       <c r="E250" t="s">
@@ -7020,17 +7022,17 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
+      <c r="A251" s="4">
         <f>+A250+1</f>
         <v>41010112</v>
       </c>
       <c r="B251" t="s">
         <v>226</v>
       </c>
-      <c r="C251" s="4">
+      <c r="C251" s="2">
         <v>410101</v>
       </c>
-      <c r="D251" s="4">
+      <c r="D251" s="2">
         <v>5</v>
       </c>
       <c r="E251" t="s">
@@ -7044,17 +7046,17 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
+      <c r="A252" s="4">
         <f t="shared" ref="A252:A285" si="1">+A251+1</f>
         <v>41010113</v>
       </c>
       <c r="B252" t="s">
         <v>227</v>
       </c>
-      <c r="C252" s="4">
+      <c r="C252" s="2">
         <v>410101</v>
       </c>
-      <c r="D252" s="4">
+      <c r="D252" s="2">
         <v>5</v>
       </c>
       <c r="E252" t="s">
@@ -7068,17 +7070,17 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
+      <c r="A253" s="4">
         <f t="shared" si="1"/>
         <v>41010114</v>
       </c>
       <c r="B253" t="s">
         <v>171</v>
       </c>
-      <c r="C253" s="4">
+      <c r="C253" s="2">
         <v>410101</v>
       </c>
-      <c r="D253" s="4">
+      <c r="D253" s="2">
         <v>5</v>
       </c>
       <c r="E253" t="s">
@@ -7092,17 +7094,17 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
+      <c r="A254" s="4">
         <f t="shared" si="1"/>
         <v>41010115</v>
       </c>
       <c r="B254" t="s">
         <v>228</v>
       </c>
-      <c r="C254" s="4">
+      <c r="C254" s="2">
         <v>410101</v>
       </c>
-      <c r="D254" s="4">
+      <c r="D254" s="2">
         <v>5</v>
       </c>
       <c r="E254" t="s">
@@ -7116,17 +7118,17 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
+      <c r="A255" s="4">
         <f t="shared" si="1"/>
         <v>41010116</v>
       </c>
       <c r="B255" t="s">
         <v>229</v>
       </c>
-      <c r="C255" s="4">
+      <c r="C255" s="2">
         <v>410101</v>
       </c>
-      <c r="D255" s="4">
+      <c r="D255" s="2">
         <v>5</v>
       </c>
       <c r="E255" t="s">
@@ -7140,17 +7142,17 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
+      <c r="A256" s="4">
         <f t="shared" si="1"/>
         <v>41010117</v>
       </c>
       <c r="B256" t="s">
         <v>230</v>
       </c>
-      <c r="C256" s="4">
+      <c r="C256" s="2">
         <v>410101</v>
       </c>
-      <c r="D256" s="4">
+      <c r="D256" s="2">
         <v>5</v>
       </c>
       <c r="E256" t="s">
@@ -7164,17 +7166,17 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
+      <c r="A257" s="4">
         <f t="shared" si="1"/>
         <v>41010118</v>
       </c>
       <c r="B257" t="s">
         <v>231</v>
       </c>
-      <c r="C257" s="4">
+      <c r="C257" s="2">
         <v>410101</v>
       </c>
-      <c r="D257" s="4">
+      <c r="D257" s="2">
         <v>5</v>
       </c>
       <c r="E257" t="s">
@@ -7188,17 +7190,17 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
+      <c r="A258" s="4">
         <f t="shared" si="1"/>
         <v>41010119</v>
       </c>
       <c r="B258" t="s">
         <v>232</v>
       </c>
-      <c r="C258" s="4">
+      <c r="C258" s="2">
         <v>410101</v>
       </c>
-      <c r="D258" s="4">
+      <c r="D258" s="2">
         <v>5</v>
       </c>
       <c r="E258" t="s">
@@ -7212,17 +7214,17 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
+      <c r="A259" s="4">
         <f t="shared" si="1"/>
         <v>41010120</v>
       </c>
       <c r="B259" t="s">
         <v>233</v>
       </c>
-      <c r="C259" s="4">
+      <c r="C259" s="2">
         <v>410101</v>
       </c>
-      <c r="D259" s="4">
+      <c r="D259" s="2">
         <v>5</v>
       </c>
       <c r="E259" t="s">
@@ -7236,17 +7238,17 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
+      <c r="A260" s="4">
         <f t="shared" si="1"/>
         <v>41010121</v>
       </c>
       <c r="B260" t="s">
         <v>234</v>
       </c>
-      <c r="C260" s="4">
+      <c r="C260" s="2">
         <v>410101</v>
       </c>
-      <c r="D260" s="4">
+      <c r="D260" s="2">
         <v>5</v>
       </c>
       <c r="E260" t="s">
@@ -7260,17 +7262,17 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
+      <c r="A261" s="4">
         <f t="shared" si="1"/>
         <v>41010122</v>
       </c>
       <c r="B261" t="s">
         <v>235</v>
       </c>
-      <c r="C261" s="4">
+      <c r="C261" s="2">
         <v>410101</v>
       </c>
-      <c r="D261" s="4">
+      <c r="D261" s="2">
         <v>5</v>
       </c>
       <c r="E261" t="s">
@@ -7284,17 +7286,17 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
+      <c r="A262" s="4">
         <f t="shared" si="1"/>
         <v>41010123</v>
       </c>
       <c r="B262" t="s">
         <v>236</v>
       </c>
-      <c r="C262" s="4">
+      <c r="C262" s="2">
         <v>410101</v>
       </c>
-      <c r="D262" s="4">
+      <c r="D262" s="2">
         <v>5</v>
       </c>
       <c r="E262" t="s">
@@ -7308,17 +7310,17 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
+      <c r="A263" s="4">
         <f t="shared" si="1"/>
         <v>41010124</v>
       </c>
       <c r="B263" t="s">
         <v>237</v>
       </c>
-      <c r="C263" s="4">
+      <c r="C263" s="2">
         <v>410101</v>
       </c>
-      <c r="D263" s="4">
+      <c r="D263" s="2">
         <v>5</v>
       </c>
       <c r="E263" t="s">
@@ -7332,17 +7334,17 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
+      <c r="A264" s="4">
         <f t="shared" si="1"/>
         <v>41010125</v>
       </c>
       <c r="B264" t="s">
         <v>238</v>
       </c>
-      <c r="C264" s="4">
+      <c r="C264" s="2">
         <v>410101</v>
       </c>
-      <c r="D264" s="4">
+      <c r="D264" s="2">
         <v>5</v>
       </c>
       <c r="E264" t="s">
@@ -7356,17 +7358,17 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
+      <c r="A265" s="4">
         <f t="shared" si="1"/>
         <v>41010126</v>
       </c>
       <c r="B265" t="s">
         <v>239</v>
       </c>
-      <c r="C265" s="4">
+      <c r="C265" s="2">
         <v>410101</v>
       </c>
-      <c r="D265" s="4">
+      <c r="D265" s="2">
         <v>5</v>
       </c>
       <c r="E265" t="s">
@@ -7380,17 +7382,17 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
+      <c r="A266" s="4">
         <f t="shared" si="1"/>
         <v>41010127</v>
       </c>
       <c r="B266" t="s">
         <v>240</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C266" s="2">
         <v>410101</v>
       </c>
-      <c r="D266" s="4">
+      <c r="D266" s="2">
         <v>5</v>
       </c>
       <c r="E266" t="s">
@@ -7404,17 +7406,17 @@
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
+      <c r="A267" s="4">
         <f t="shared" si="1"/>
         <v>41010128</v>
       </c>
       <c r="B267" t="s">
         <v>241</v>
       </c>
-      <c r="C267" s="4">
+      <c r="C267" s="2">
         <v>410101</v>
       </c>
-      <c r="D267" s="4">
+      <c r="D267" s="2">
         <v>5</v>
       </c>
       <c r="E267" t="s">
@@ -7428,17 +7430,17 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
+      <c r="A268" s="4">
         <f t="shared" si="1"/>
         <v>41010129</v>
       </c>
       <c r="B268" t="s">
         <v>242</v>
       </c>
-      <c r="C268" s="4">
+      <c r="C268" s="2">
         <v>410101</v>
       </c>
-      <c r="D268" s="4">
+      <c r="D268" s="2">
         <v>5</v>
       </c>
       <c r="E268" t="s">
@@ -7452,17 +7454,17 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
+      <c r="A269" s="4">
         <f t="shared" si="1"/>
         <v>41010130</v>
       </c>
       <c r="B269" t="s">
         <v>243</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C269" s="2">
         <v>410101</v>
       </c>
-      <c r="D269" s="4">
+      <c r="D269" s="2">
         <v>5</v>
       </c>
       <c r="E269" t="s">
@@ -7476,17 +7478,17 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
+      <c r="A270" s="4">
         <f t="shared" si="1"/>
         <v>41010131</v>
       </c>
       <c r="B270" t="s">
         <v>244</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C270" s="2">
         <v>410101</v>
       </c>
-      <c r="D270" s="4">
+      <c r="D270" s="2">
         <v>5</v>
       </c>
       <c r="E270" t="s">
@@ -7500,17 +7502,17 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
+      <c r="A271" s="4">
         <f t="shared" si="1"/>
         <v>41010132</v>
       </c>
       <c r="B271" t="s">
         <v>245</v>
       </c>
-      <c r="C271" s="4">
+      <c r="C271" s="2">
         <v>410101</v>
       </c>
-      <c r="D271" s="4">
+      <c r="D271" s="2">
         <v>5</v>
       </c>
       <c r="E271" t="s">
@@ -7524,17 +7526,17 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
+      <c r="A272" s="4">
         <f t="shared" si="1"/>
         <v>41010133</v>
       </c>
       <c r="B272" t="s">
         <v>246</v>
       </c>
-      <c r="C272" s="4">
+      <c r="C272" s="2">
         <v>410101</v>
       </c>
-      <c r="D272" s="4">
+      <c r="D272" s="2">
         <v>5</v>
       </c>
       <c r="E272" t="s">
@@ -7548,17 +7550,17 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
+      <c r="A273" s="4">
         <f t="shared" si="1"/>
         <v>41010134</v>
       </c>
       <c r="B273" t="s">
         <v>247</v>
       </c>
-      <c r="C273" s="4">
+      <c r="C273" s="2">
         <v>410101</v>
       </c>
-      <c r="D273" s="4">
+      <c r="D273" s="2">
         <v>5</v>
       </c>
       <c r="E273" t="s">
@@ -7572,17 +7574,17 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
+      <c r="A274" s="4">
         <f t="shared" si="1"/>
         <v>41010135</v>
       </c>
       <c r="B274" t="s">
         <v>248</v>
       </c>
-      <c r="C274" s="4">
+      <c r="C274" s="2">
         <v>410101</v>
       </c>
-      <c r="D274" s="4">
+      <c r="D274" s="2">
         <v>5</v>
       </c>
       <c r="E274" t="s">
@@ -7596,17 +7598,17 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
+      <c r="A275" s="4">
         <f t="shared" si="1"/>
         <v>41010136</v>
       </c>
       <c r="B275" t="s">
         <v>57</v>
       </c>
-      <c r="C275" s="4">
+      <c r="C275" s="2">
         <v>410101</v>
       </c>
-      <c r="D275" s="4">
+      <c r="D275" s="2">
         <v>5</v>
       </c>
       <c r="E275" t="s">
@@ -7620,17 +7622,17 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
+      <c r="A276" s="4">
         <f t="shared" si="1"/>
         <v>41010137</v>
       </c>
       <c r="B276" t="s">
         <v>249</v>
       </c>
-      <c r="C276" s="4">
+      <c r="C276" s="2">
         <v>410101</v>
       </c>
-      <c r="D276" s="4">
+      <c r="D276" s="2">
         <v>5</v>
       </c>
       <c r="E276" t="s">
@@ -7644,17 +7646,17 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
+      <c r="A277" s="4">
         <f t="shared" si="1"/>
         <v>41010138</v>
       </c>
       <c r="B277" t="s">
         <v>250</v>
       </c>
-      <c r="C277" s="4">
+      <c r="C277" s="2">
         <v>410101</v>
       </c>
-      <c r="D277" s="4">
+      <c r="D277" s="2">
         <v>5</v>
       </c>
       <c r="E277" t="s">
@@ -7668,17 +7670,17 @@
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
+      <c r="A278" s="4">
         <f t="shared" si="1"/>
         <v>41010139</v>
       </c>
       <c r="B278" t="s">
         <v>251</v>
       </c>
-      <c r="C278" s="4">
+      <c r="C278" s="2">
         <v>410101</v>
       </c>
-      <c r="D278" s="4">
+      <c r="D278" s="2">
         <v>5</v>
       </c>
       <c r="E278" t="s">
@@ -7692,17 +7694,17 @@
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
+      <c r="A279" s="4">
         <f t="shared" si="1"/>
         <v>41010140</v>
       </c>
       <c r="B279" t="s">
         <v>252</v>
       </c>
-      <c r="C279" s="4">
+      <c r="C279" s="2">
         <v>410101</v>
       </c>
-      <c r="D279" s="4">
+      <c r="D279" s="2">
         <v>5</v>
       </c>
       <c r="E279" t="s">
@@ -7716,17 +7718,17 @@
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
+      <c r="A280" s="4">
         <f t="shared" si="1"/>
         <v>41010141</v>
       </c>
       <c r="B280" t="s">
         <v>253</v>
       </c>
-      <c r="C280" s="4">
+      <c r="C280" s="2">
         <v>410101</v>
       </c>
-      <c r="D280" s="4">
+      <c r="D280" s="2">
         <v>5</v>
       </c>
       <c r="E280" t="s">
@@ -7740,17 +7742,17 @@
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
+      <c r="A281" s="4">
         <f t="shared" si="1"/>
         <v>41010142</v>
       </c>
       <c r="B281" t="s">
         <v>254</v>
       </c>
-      <c r="C281" s="4">
+      <c r="C281" s="2">
         <v>410101</v>
       </c>
-      <c r="D281" s="4">
+      <c r="D281" s="2">
         <v>5</v>
       </c>
       <c r="E281" t="s">
@@ -7764,17 +7766,17 @@
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
+      <c r="A282" s="4">
         <f t="shared" si="1"/>
         <v>41010143</v>
       </c>
       <c r="B282" t="s">
         <v>255</v>
       </c>
-      <c r="C282" s="4">
+      <c r="C282" s="2">
         <v>410101</v>
       </c>
-      <c r="D282" s="4">
+      <c r="D282" s="2">
         <v>5</v>
       </c>
       <c r="E282" t="s">
@@ -7788,17 +7790,17 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
+      <c r="A283" s="4">
         <f t="shared" si="1"/>
         <v>41010144</v>
       </c>
       <c r="B283" t="s">
         <v>256</v>
       </c>
-      <c r="C283" s="4">
+      <c r="C283" s="2">
         <v>410101</v>
       </c>
-      <c r="D283" s="4">
+      <c r="D283" s="2">
         <v>5</v>
       </c>
       <c r="E283" t="s">
@@ -7812,17 +7814,17 @@
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
+      <c r="A284" s="4">
         <f t="shared" si="1"/>
         <v>41010145</v>
       </c>
       <c r="B284" t="s">
         <v>257</v>
       </c>
-      <c r="C284" s="4">
+      <c r="C284" s="2">
         <v>410101</v>
       </c>
-      <c r="D284" s="4">
+      <c r="D284" s="2">
         <v>5</v>
       </c>
       <c r="E284" t="s">
@@ -7836,17 +7838,17 @@
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
+      <c r="A285" s="4">
         <f t="shared" si="1"/>
         <v>41010146</v>
       </c>
       <c r="B285" t="s">
         <v>258</v>
       </c>
-      <c r="C285" s="4">
+      <c r="C285" s="2">
         <v>410101</v>
       </c>
-      <c r="D285" s="4">
+      <c r="D285" s="2">
         <v>5</v>
       </c>
       <c r="E285" t="s">
@@ -7860,16 +7862,16 @@
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
+      <c r="A286" s="4">
         <v>410102</v>
       </c>
       <c r="B286" t="s">
         <v>259</v>
       </c>
-      <c r="C286" s="4">
+      <c r="C286" s="2">
         <v>4101</v>
       </c>
-      <c r="D286" s="4">
+      <c r="D286" s="2">
         <v>4</v>
       </c>
       <c r="E286" t="s">
@@ -7883,16 +7885,16 @@
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
+      <c r="A287" s="4">
         <v>41010201</v>
       </c>
       <c r="B287" t="s">
         <v>217</v>
       </c>
-      <c r="C287" s="4">
+      <c r="C287" s="2">
         <v>410102</v>
       </c>
-      <c r="D287" s="4">
+      <c r="D287" s="2">
         <v>5</v>
       </c>
       <c r="E287" t="s">
@@ -7906,17 +7908,17 @@
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
+      <c r="A288" s="4">
         <f>+A287+1</f>
         <v>41010202</v>
       </c>
       <c r="B288" t="s">
         <v>218</v>
       </c>
-      <c r="C288" s="4">
+      <c r="C288" s="2">
         <v>410102</v>
       </c>
-      <c r="D288" s="4">
+      <c r="D288" s="2">
         <v>5</v>
       </c>
       <c r="E288" t="s">
@@ -7930,17 +7932,17 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
+      <c r="A289" s="4">
         <f t="shared" ref="A289:A332" si="2">+A288+1</f>
         <v>41010203</v>
       </c>
       <c r="B289" t="s">
         <v>219</v>
       </c>
-      <c r="C289" s="4">
+      <c r="C289" s="2">
         <v>410102</v>
       </c>
-      <c r="D289" s="4">
+      <c r="D289" s="2">
         <v>5</v>
       </c>
       <c r="E289" t="s">
@@ -7954,17 +7956,17 @@
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
+      <c r="A290" s="4">
         <f t="shared" si="2"/>
         <v>41010204</v>
       </c>
       <c r="B290" t="s">
         <v>220</v>
       </c>
-      <c r="C290" s="4">
+      <c r="C290" s="2">
         <v>410102</v>
       </c>
-      <c r="D290" s="4">
+      <c r="D290" s="2">
         <v>5</v>
       </c>
       <c r="E290" t="s">
@@ -7978,17 +7980,17 @@
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
+      <c r="A291" s="4">
         <f t="shared" si="2"/>
         <v>41010205</v>
       </c>
       <c r="B291" t="s">
         <v>221</v>
       </c>
-      <c r="C291" s="4">
+      <c r="C291" s="2">
         <v>410102</v>
       </c>
-      <c r="D291" s="4">
+      <c r="D291" s="2">
         <v>5</v>
       </c>
       <c r="E291" t="s">
@@ -8002,17 +8004,17 @@
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
+      <c r="A292" s="4">
         <f t="shared" si="2"/>
         <v>41010206</v>
       </c>
       <c r="B292" t="s">
         <v>222</v>
       </c>
-      <c r="C292" s="4">
+      <c r="C292" s="2">
         <v>410102</v>
       </c>
-      <c r="D292" s="4">
+      <c r="D292" s="2">
         <v>5</v>
       </c>
       <c r="E292" t="s">
@@ -8026,17 +8028,17 @@
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
+      <c r="A293" s="4">
         <f t="shared" si="2"/>
         <v>41010207</v>
       </c>
       <c r="B293" t="s">
         <v>145</v>
       </c>
-      <c r="C293" s="4">
+      <c r="C293" s="2">
         <v>410102</v>
       </c>
-      <c r="D293" s="4">
+      <c r="D293" s="2">
         <v>5</v>
       </c>
       <c r="E293" t="s">
@@ -8050,17 +8052,17 @@
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
+      <c r="A294" s="4">
         <f t="shared" si="2"/>
         <v>41010208</v>
       </c>
       <c r="B294" t="s">
         <v>147</v>
       </c>
-      <c r="C294" s="4">
+      <c r="C294" s="2">
         <v>410102</v>
       </c>
-      <c r="D294" s="4">
+      <c r="D294" s="2">
         <v>5</v>
       </c>
       <c r="E294" t="s">
@@ -8074,17 +8076,17 @@
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
+      <c r="A295" s="4">
         <f t="shared" si="2"/>
         <v>41010209</v>
       </c>
       <c r="B295" t="s">
         <v>223</v>
       </c>
-      <c r="C295" s="4">
+      <c r="C295" s="2">
         <v>410102</v>
       </c>
-      <c r="D295" s="4">
+      <c r="D295" s="2">
         <v>5</v>
       </c>
       <c r="E295" t="s">
@@ -8098,17 +8100,17 @@
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
+      <c r="A296" s="4">
         <f t="shared" si="2"/>
         <v>41010210</v>
       </c>
       <c r="B296" t="s">
         <v>224</v>
       </c>
-      <c r="C296" s="4">
+      <c r="C296" s="2">
         <v>410102</v>
       </c>
-      <c r="D296" s="4">
+      <c r="D296" s="2">
         <v>5</v>
       </c>
       <c r="E296" t="s">
@@ -8122,17 +8124,17 @@
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
+      <c r="A297" s="4">
         <f t="shared" si="2"/>
         <v>41010211</v>
       </c>
       <c r="B297" t="s">
         <v>225</v>
       </c>
-      <c r="C297" s="4">
+      <c r="C297" s="2">
         <v>410102</v>
       </c>
-      <c r="D297" s="4">
+      <c r="D297" s="2">
         <v>5</v>
       </c>
       <c r="E297" t="s">
@@ -8146,17 +8148,17 @@
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
+      <c r="A298" s="4">
         <f t="shared" si="2"/>
         <v>41010212</v>
       </c>
       <c r="B298" t="s">
         <v>226</v>
       </c>
-      <c r="C298" s="4">
+      <c r="C298" s="2">
         <v>410102</v>
       </c>
-      <c r="D298" s="4">
+      <c r="D298" s="2">
         <v>5</v>
       </c>
       <c r="E298" t="s">
@@ -8170,17 +8172,17 @@
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
+      <c r="A299" s="4">
         <f t="shared" si="2"/>
         <v>41010213</v>
       </c>
       <c r="B299" t="s">
         <v>227</v>
       </c>
-      <c r="C299" s="4">
+      <c r="C299" s="2">
         <v>410102</v>
       </c>
-      <c r="D299" s="4">
+      <c r="D299" s="2">
         <v>5</v>
       </c>
       <c r="E299" t="s">
@@ -8194,17 +8196,17 @@
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
+      <c r="A300" s="4">
         <f t="shared" si="2"/>
         <v>41010214</v>
       </c>
       <c r="B300" t="s">
         <v>171</v>
       </c>
-      <c r="C300" s="4">
+      <c r="C300" s="2">
         <v>410102</v>
       </c>
-      <c r="D300" s="4">
+      <c r="D300" s="2">
         <v>5</v>
       </c>
       <c r="E300" t="s">
@@ -8218,17 +8220,17 @@
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
+      <c r="A301" s="4">
         <f t="shared" si="2"/>
         <v>41010215</v>
       </c>
       <c r="B301" t="s">
         <v>228</v>
       </c>
-      <c r="C301" s="4">
+      <c r="C301" s="2">
         <v>410102</v>
       </c>
-      <c r="D301" s="4">
+      <c r="D301" s="2">
         <v>5</v>
       </c>
       <c r="E301" t="s">
@@ -8242,17 +8244,17 @@
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="2">
+      <c r="A302" s="4">
         <f t="shared" si="2"/>
         <v>41010216</v>
       </c>
       <c r="B302" t="s">
         <v>229</v>
       </c>
-      <c r="C302" s="4">
+      <c r="C302" s="2">
         <v>410102</v>
       </c>
-      <c r="D302" s="4">
+      <c r="D302" s="2">
         <v>5</v>
       </c>
       <c r="E302" t="s">
@@ -8266,17 +8268,17 @@
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="2">
+      <c r="A303" s="4">
         <f t="shared" si="2"/>
         <v>41010217</v>
       </c>
       <c r="B303" t="s">
         <v>230</v>
       </c>
-      <c r="C303" s="4">
+      <c r="C303" s="2">
         <v>410102</v>
       </c>
-      <c r="D303" s="4">
+      <c r="D303" s="2">
         <v>5</v>
       </c>
       <c r="E303" t="s">
@@ -8290,17 +8292,17 @@
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
+      <c r="A304" s="4">
         <f t="shared" si="2"/>
         <v>41010218</v>
       </c>
       <c r="B304" t="s">
         <v>231</v>
       </c>
-      <c r="C304" s="4">
+      <c r="C304" s="2">
         <v>410102</v>
       </c>
-      <c r="D304" s="4">
+      <c r="D304" s="2">
         <v>5</v>
       </c>
       <c r="E304" t="s">
@@ -8314,17 +8316,17 @@
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="2">
+      <c r="A305" s="4">
         <f t="shared" si="2"/>
         <v>41010219</v>
       </c>
       <c r="B305" t="s">
         <v>232</v>
       </c>
-      <c r="C305" s="4">
+      <c r="C305" s="2">
         <v>410102</v>
       </c>
-      <c r="D305" s="4">
+      <c r="D305" s="2">
         <v>5</v>
       </c>
       <c r="E305" t="s">
@@ -8338,17 +8340,17 @@
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="2">
+      <c r="A306" s="4">
         <f t="shared" si="2"/>
         <v>41010220</v>
       </c>
       <c r="B306" t="s">
         <v>233</v>
       </c>
-      <c r="C306" s="4">
+      <c r="C306" s="2">
         <v>410102</v>
       </c>
-      <c r="D306" s="4">
+      <c r="D306" s="2">
         <v>5</v>
       </c>
       <c r="E306" t="s">
@@ -8362,17 +8364,17 @@
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="2">
+      <c r="A307" s="4">
         <f t="shared" si="2"/>
         <v>41010221</v>
       </c>
       <c r="B307" t="s">
         <v>234</v>
       </c>
-      <c r="C307" s="4">
+      <c r="C307" s="2">
         <v>410102</v>
       </c>
-      <c r="D307" s="4">
+      <c r="D307" s="2">
         <v>5</v>
       </c>
       <c r="E307" t="s">
@@ -8386,17 +8388,17 @@
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="2">
+      <c r="A308" s="4">
         <f t="shared" si="2"/>
         <v>41010222</v>
       </c>
       <c r="B308" t="s">
         <v>235</v>
       </c>
-      <c r="C308" s="4">
+      <c r="C308" s="2">
         <v>410102</v>
       </c>
-      <c r="D308" s="4">
+      <c r="D308" s="2">
         <v>5</v>
       </c>
       <c r="E308" t="s">
@@ -8410,17 +8412,17 @@
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="2">
+      <c r="A309" s="4">
         <f t="shared" si="2"/>
         <v>41010223</v>
       </c>
       <c r="B309" t="s">
         <v>236</v>
       </c>
-      <c r="C309" s="4">
+      <c r="C309" s="2">
         <v>410102</v>
       </c>
-      <c r="D309" s="4">
+      <c r="D309" s="2">
         <v>5</v>
       </c>
       <c r="E309" t="s">
@@ -8434,17 +8436,17 @@
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="2">
+      <c r="A310" s="4">
         <f t="shared" si="2"/>
         <v>41010224</v>
       </c>
       <c r="B310" t="s">
         <v>237</v>
       </c>
-      <c r="C310" s="4">
+      <c r="C310" s="2">
         <v>410102</v>
       </c>
-      <c r="D310" s="4">
+      <c r="D310" s="2">
         <v>5</v>
       </c>
       <c r="E310" t="s">
@@ -8458,17 +8460,17 @@
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="2">
+      <c r="A311" s="4">
         <f t="shared" si="2"/>
         <v>41010225</v>
       </c>
       <c r="B311" t="s">
         <v>238</v>
       </c>
-      <c r="C311" s="4">
+      <c r="C311" s="2">
         <v>410102</v>
       </c>
-      <c r="D311" s="4">
+      <c r="D311" s="2">
         <v>5</v>
       </c>
       <c r="E311" t="s">
@@ -8482,17 +8484,17 @@
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="2">
+      <c r="A312" s="4">
         <f t="shared" si="2"/>
         <v>41010226</v>
       </c>
       <c r="B312" t="s">
         <v>239</v>
       </c>
-      <c r="C312" s="4">
+      <c r="C312" s="2">
         <v>410102</v>
       </c>
-      <c r="D312" s="4">
+      <c r="D312" s="2">
         <v>5</v>
       </c>
       <c r="E312" t="s">
@@ -8506,17 +8508,17 @@
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="2">
+      <c r="A313" s="4">
         <f t="shared" si="2"/>
         <v>41010227</v>
       </c>
       <c r="B313" t="s">
         <v>240</v>
       </c>
-      <c r="C313" s="4">
+      <c r="C313" s="2">
         <v>410102</v>
       </c>
-      <c r="D313" s="4">
+      <c r="D313" s="2">
         <v>5</v>
       </c>
       <c r="E313" t="s">
@@ -8530,17 +8532,17 @@
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="2">
+      <c r="A314" s="4">
         <f t="shared" si="2"/>
         <v>41010228</v>
       </c>
       <c r="B314" t="s">
         <v>241</v>
       </c>
-      <c r="C314" s="4">
+      <c r="C314" s="2">
         <v>410102</v>
       </c>
-      <c r="D314" s="4">
+      <c r="D314" s="2">
         <v>5</v>
       </c>
       <c r="E314" t="s">
@@ -8554,17 +8556,17 @@
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
+      <c r="A315" s="4">
         <f t="shared" si="2"/>
         <v>41010229</v>
       </c>
       <c r="B315" t="s">
         <v>242</v>
       </c>
-      <c r="C315" s="4">
+      <c r="C315" s="2">
         <v>410102</v>
       </c>
-      <c r="D315" s="4">
+      <c r="D315" s="2">
         <v>5</v>
       </c>
       <c r="E315" t="s">
@@ -8578,17 +8580,17 @@
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="2">
+      <c r="A316" s="4">
         <f t="shared" si="2"/>
         <v>41010230</v>
       </c>
       <c r="B316" t="s">
         <v>243</v>
       </c>
-      <c r="C316" s="4">
+      <c r="C316" s="2">
         <v>410102</v>
       </c>
-      <c r="D316" s="4">
+      <c r="D316" s="2">
         <v>5</v>
       </c>
       <c r="E316" t="s">
@@ -8602,17 +8604,17 @@
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="2">
+      <c r="A317" s="4">
         <f t="shared" si="2"/>
         <v>41010231</v>
       </c>
       <c r="B317" t="s">
         <v>244</v>
       </c>
-      <c r="C317" s="4">
+      <c r="C317" s="2">
         <v>410102</v>
       </c>
-      <c r="D317" s="4">
+      <c r="D317" s="2">
         <v>5</v>
       </c>
       <c r="E317" t="s">
@@ -8626,17 +8628,17 @@
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="2">
+      <c r="A318" s="4">
         <f t="shared" si="2"/>
         <v>41010232</v>
       </c>
       <c r="B318" t="s">
         <v>245</v>
       </c>
-      <c r="C318" s="4">
+      <c r="C318" s="2">
         <v>410102</v>
       </c>
-      <c r="D318" s="4">
+      <c r="D318" s="2">
         <v>5</v>
       </c>
       <c r="E318" t="s">
@@ -8650,17 +8652,17 @@
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="2">
+      <c r="A319" s="4">
         <f t="shared" si="2"/>
         <v>41010233</v>
       </c>
       <c r="B319" t="s">
         <v>246</v>
       </c>
-      <c r="C319" s="4">
+      <c r="C319" s="2">
         <v>410102</v>
       </c>
-      <c r="D319" s="4">
+      <c r="D319" s="2">
         <v>5</v>
       </c>
       <c r="E319" t="s">
@@ -8674,17 +8676,17 @@
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="2">
+      <c r="A320" s="4">
         <f t="shared" si="2"/>
         <v>41010234</v>
       </c>
       <c r="B320" t="s">
         <v>247</v>
       </c>
-      <c r="C320" s="4">
+      <c r="C320" s="2">
         <v>410102</v>
       </c>
-      <c r="D320" s="4">
+      <c r="D320" s="2">
         <v>5</v>
       </c>
       <c r="E320" t="s">
@@ -8698,17 +8700,17 @@
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="2">
+      <c r="A321" s="4">
         <f t="shared" si="2"/>
         <v>41010235</v>
       </c>
       <c r="B321" t="s">
         <v>248</v>
       </c>
-      <c r="C321" s="4">
+      <c r="C321" s="2">
         <v>410102</v>
       </c>
-      <c r="D321" s="4">
+      <c r="D321" s="2">
         <v>5</v>
       </c>
       <c r="E321" t="s">
@@ -8722,17 +8724,17 @@
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="2">
+      <c r="A322" s="4">
         <f t="shared" si="2"/>
         <v>41010236</v>
       </c>
       <c r="B322" t="s">
         <v>57</v>
       </c>
-      <c r="C322" s="4">
+      <c r="C322" s="2">
         <v>410102</v>
       </c>
-      <c r="D322" s="4">
+      <c r="D322" s="2">
         <v>5</v>
       </c>
       <c r="E322" t="s">
@@ -8746,17 +8748,17 @@
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="2">
+      <c r="A323" s="4">
         <f t="shared" si="2"/>
         <v>41010237</v>
       </c>
       <c r="B323" t="s">
         <v>249</v>
       </c>
-      <c r="C323" s="4">
+      <c r="C323" s="2">
         <v>410102</v>
       </c>
-      <c r="D323" s="4">
+      <c r="D323" s="2">
         <v>5</v>
       </c>
       <c r="E323" t="s">
@@ -8770,17 +8772,17 @@
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="2">
+      <c r="A324" s="4">
         <f t="shared" si="2"/>
         <v>41010238</v>
       </c>
       <c r="B324" t="s">
         <v>250</v>
       </c>
-      <c r="C324" s="4">
+      <c r="C324" s="2">
         <v>410102</v>
       </c>
-      <c r="D324" s="4">
+      <c r="D324" s="2">
         <v>5</v>
       </c>
       <c r="E324" t="s">
@@ -8794,17 +8796,17 @@
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="2">
+      <c r="A325" s="4">
         <f t="shared" si="2"/>
         <v>41010239</v>
       </c>
       <c r="B325" t="s">
         <v>251</v>
       </c>
-      <c r="C325" s="4">
+      <c r="C325" s="2">
         <v>410102</v>
       </c>
-      <c r="D325" s="4">
+      <c r="D325" s="2">
         <v>5</v>
       </c>
       <c r="E325" t="s">
@@ -8818,17 +8820,17 @@
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="2">
+      <c r="A326" s="4">
         <f t="shared" si="2"/>
         <v>41010240</v>
       </c>
       <c r="B326" t="s">
         <v>252</v>
       </c>
-      <c r="C326" s="4">
+      <c r="C326" s="2">
         <v>410102</v>
       </c>
-      <c r="D326" s="4">
+      <c r="D326" s="2">
         <v>5</v>
       </c>
       <c r="E326" t="s">
@@ -8842,17 +8844,17 @@
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="2">
+      <c r="A327" s="4">
         <f t="shared" si="2"/>
         <v>41010241</v>
       </c>
       <c r="B327" t="s">
         <v>253</v>
       </c>
-      <c r="C327" s="4">
+      <c r="C327" s="2">
         <v>410102</v>
       </c>
-      <c r="D327" s="4">
+      <c r="D327" s="2">
         <v>5</v>
       </c>
       <c r="E327" t="s">
@@ -8866,17 +8868,17 @@
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="2">
+      <c r="A328" s="4">
         <f t="shared" si="2"/>
         <v>41010242</v>
       </c>
       <c r="B328" t="s">
         <v>254</v>
       </c>
-      <c r="C328" s="4">
+      <c r="C328" s="2">
         <v>410102</v>
       </c>
-      <c r="D328" s="4">
+      <c r="D328" s="2">
         <v>5</v>
       </c>
       <c r="E328" t="s">
@@ -8890,17 +8892,17 @@
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="2">
+      <c r="A329" s="4">
         <f t="shared" si="2"/>
         <v>41010243</v>
       </c>
       <c r="B329" t="s">
         <v>255</v>
       </c>
-      <c r="C329" s="4">
+      <c r="C329" s="2">
         <v>410102</v>
       </c>
-      <c r="D329" s="4">
+      <c r="D329" s="2">
         <v>5</v>
       </c>
       <c r="E329" t="s">
@@ -8914,17 +8916,17 @@
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="2">
+      <c r="A330" s="4">
         <f t="shared" si="2"/>
         <v>41010244</v>
       </c>
       <c r="B330" t="s">
         <v>256</v>
       </c>
-      <c r="C330" s="4">
+      <c r="C330" s="2">
         <v>410102</v>
       </c>
-      <c r="D330" s="4">
+      <c r="D330" s="2">
         <v>5</v>
       </c>
       <c r="E330" t="s">
@@ -8938,17 +8940,17 @@
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="2">
+      <c r="A331" s="4">
         <f t="shared" si="2"/>
         <v>41010245</v>
       </c>
       <c r="B331" t="s">
         <v>257</v>
       </c>
-      <c r="C331" s="4">
+      <c r="C331" s="2">
         <v>410102</v>
       </c>
-      <c r="D331" s="4">
+      <c r="D331" s="2">
         <v>5</v>
       </c>
       <c r="E331" t="s">
@@ -8962,17 +8964,17 @@
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="2">
+      <c r="A332" s="4">
         <f t="shared" si="2"/>
         <v>41010246</v>
       </c>
       <c r="B332" t="s">
         <v>258</v>
       </c>
-      <c r="C332" s="4">
+      <c r="C332" s="2">
         <v>410102</v>
       </c>
-      <c r="D332" s="4">
+      <c r="D332" s="2">
         <v>5</v>
       </c>
       <c r="E332" t="s">
@@ -8986,16 +8988,16 @@
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="2">
+      <c r="A333" s="4">
         <v>4102</v>
       </c>
       <c r="B333" t="s">
         <v>260</v>
       </c>
-      <c r="C333" s="4">
+      <c r="C333" s="2">
         <v>41</v>
       </c>
-      <c r="D333" s="4">
+      <c r="D333" s="2">
         <v>3</v>
       </c>
       <c r="E333" t="s">
@@ -9009,16 +9011,16 @@
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="2">
+      <c r="A334" s="4">
         <v>410201</v>
       </c>
       <c r="B334" t="s">
         <v>261</v>
       </c>
-      <c r="C334" s="4">
+      <c r="C334" s="2">
         <v>4102</v>
       </c>
-      <c r="D334" s="4">
+      <c r="D334" s="2">
         <v>4</v>
       </c>
       <c r="E334" t="s">
@@ -9032,16 +9034,16 @@
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="2">
+      <c r="A335" s="4">
         <v>41020101</v>
       </c>
       <c r="B335" t="s">
         <v>217</v>
       </c>
-      <c r="C335" s="4">
+      <c r="C335" s="2">
         <v>410201</v>
       </c>
-      <c r="D335" s="4">
+      <c r="D335" s="2">
         <v>5</v>
       </c>
       <c r="E335" t="s">
@@ -9055,17 +9057,17 @@
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="2">
+      <c r="A336" s="4">
         <f>+A335+1</f>
         <v>41020102</v>
       </c>
       <c r="B336" t="s">
         <v>218</v>
       </c>
-      <c r="C336" s="4">
+      <c r="C336" s="2">
         <v>410201</v>
       </c>
-      <c r="D336" s="4">
+      <c r="D336" s="2">
         <v>5</v>
       </c>
       <c r="E336" t="s">
@@ -9079,17 +9081,17 @@
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="2">
+      <c r="A337" s="4">
         <f t="shared" ref="A337:A380" si="3">+A336+1</f>
         <v>41020103</v>
       </c>
       <c r="B337" t="s">
         <v>219</v>
       </c>
-      <c r="C337" s="4">
+      <c r="C337" s="2">
         <v>410201</v>
       </c>
-      <c r="D337" s="4">
+      <c r="D337" s="2">
         <v>5</v>
       </c>
       <c r="E337" t="s">
@@ -9103,17 +9105,17 @@
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="2">
+      <c r="A338" s="4">
         <f t="shared" si="3"/>
         <v>41020104</v>
       </c>
       <c r="B338" t="s">
         <v>220</v>
       </c>
-      <c r="C338" s="4">
+      <c r="C338" s="2">
         <v>410201</v>
       </c>
-      <c r="D338" s="4">
+      <c r="D338" s="2">
         <v>5</v>
       </c>
       <c r="E338" t="s">
@@ -9127,17 +9129,17 @@
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339" s="2">
+      <c r="A339" s="4">
         <f t="shared" si="3"/>
         <v>41020105</v>
       </c>
       <c r="B339" t="s">
         <v>221</v>
       </c>
-      <c r="C339" s="4">
+      <c r="C339" s="2">
         <v>410201</v>
       </c>
-      <c r="D339" s="4">
+      <c r="D339" s="2">
         <v>5</v>
       </c>
       <c r="E339" t="s">
@@ -9151,17 +9153,17 @@
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="2">
+      <c r="A340" s="4">
         <f t="shared" si="3"/>
         <v>41020106</v>
       </c>
       <c r="B340" t="s">
         <v>222</v>
       </c>
-      <c r="C340" s="4">
+      <c r="C340" s="2">
         <v>410201</v>
       </c>
-      <c r="D340" s="4">
+      <c r="D340" s="2">
         <v>5</v>
       </c>
       <c r="E340" t="s">
@@ -9175,17 +9177,17 @@
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" s="2">
+      <c r="A341" s="4">
         <f t="shared" si="3"/>
         <v>41020107</v>
       </c>
       <c r="B341" t="s">
         <v>145</v>
       </c>
-      <c r="C341" s="4">
+      <c r="C341" s="2">
         <v>410201</v>
       </c>
-      <c r="D341" s="4">
+      <c r="D341" s="2">
         <v>5</v>
       </c>
       <c r="E341" t="s">
@@ -9199,17 +9201,17 @@
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="2">
+      <c r="A342" s="4">
         <f t="shared" si="3"/>
         <v>41020108</v>
       </c>
       <c r="B342" t="s">
         <v>147</v>
       </c>
-      <c r="C342" s="4">
+      <c r="C342" s="2">
         <v>410201</v>
       </c>
-      <c r="D342" s="4">
+      <c r="D342" s="2">
         <v>5</v>
       </c>
       <c r="E342" t="s">
@@ -9223,17 +9225,17 @@
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="2">
+      <c r="A343" s="4">
         <f t="shared" si="3"/>
         <v>41020109</v>
       </c>
       <c r="B343" t="s">
         <v>223</v>
       </c>
-      <c r="C343" s="4">
+      <c r="C343" s="2">
         <v>410201</v>
       </c>
-      <c r="D343" s="4">
+      <c r="D343" s="2">
         <v>5</v>
       </c>
       <c r="E343" t="s">
@@ -9247,17 +9249,17 @@
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="2">
+      <c r="A344" s="4">
         <f t="shared" si="3"/>
         <v>41020110</v>
       </c>
       <c r="B344" t="s">
         <v>224</v>
       </c>
-      <c r="C344" s="4">
+      <c r="C344" s="2">
         <v>410201</v>
       </c>
-      <c r="D344" s="4">
+      <c r="D344" s="2">
         <v>5</v>
       </c>
       <c r="E344" t="s">
@@ -9271,17 +9273,17 @@
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="2">
+      <c r="A345" s="4">
         <f t="shared" si="3"/>
         <v>41020111</v>
       </c>
       <c r="B345" t="s">
         <v>225</v>
       </c>
-      <c r="C345" s="4">
+      <c r="C345" s="2">
         <v>410201</v>
       </c>
-      <c r="D345" s="4">
+      <c r="D345" s="2">
         <v>5</v>
       </c>
       <c r="E345" t="s">
@@ -9295,17 +9297,17 @@
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="2">
+      <c r="A346" s="4">
         <f t="shared" si="3"/>
         <v>41020112</v>
       </c>
       <c r="B346" t="s">
         <v>226</v>
       </c>
-      <c r="C346" s="4">
+      <c r="C346" s="2">
         <v>410201</v>
       </c>
-      <c r="D346" s="4">
+      <c r="D346" s="2">
         <v>5</v>
       </c>
       <c r="E346" t="s">
@@ -9319,17 +9321,17 @@
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" s="2">
+      <c r="A347" s="4">
         <f t="shared" si="3"/>
         <v>41020113</v>
       </c>
       <c r="B347" t="s">
         <v>227</v>
       </c>
-      <c r="C347" s="4">
+      <c r="C347" s="2">
         <v>410201</v>
       </c>
-      <c r="D347" s="4">
+      <c r="D347" s="2">
         <v>5</v>
       </c>
       <c r="E347" t="s">
@@ -9343,17 +9345,17 @@
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348" s="2">
+      <c r="A348" s="4">
         <f t="shared" si="3"/>
         <v>41020114</v>
       </c>
       <c r="B348" t="s">
         <v>171</v>
       </c>
-      <c r="C348" s="4">
+      <c r="C348" s="2">
         <v>410201</v>
       </c>
-      <c r="D348" s="4">
+      <c r="D348" s="2">
         <v>5</v>
       </c>
       <c r="E348" t="s">
@@ -9367,17 +9369,17 @@
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349" s="2">
+      <c r="A349" s="4">
         <f t="shared" si="3"/>
         <v>41020115</v>
       </c>
       <c r="B349" t="s">
         <v>228</v>
       </c>
-      <c r="C349" s="4">
+      <c r="C349" s="2">
         <v>410201</v>
       </c>
-      <c r="D349" s="4">
+      <c r="D349" s="2">
         <v>5</v>
       </c>
       <c r="E349" t="s">
@@ -9391,17 +9393,17 @@
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350" s="2">
+      <c r="A350" s="4">
         <f t="shared" si="3"/>
         <v>41020116</v>
       </c>
       <c r="B350" t="s">
         <v>229</v>
       </c>
-      <c r="C350" s="4">
+      <c r="C350" s="2">
         <v>410201</v>
       </c>
-      <c r="D350" s="4">
+      <c r="D350" s="2">
         <v>5</v>
       </c>
       <c r="E350" t="s">
@@ -9415,17 +9417,17 @@
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="2">
+      <c r="A351" s="4">
         <f t="shared" si="3"/>
         <v>41020117</v>
       </c>
       <c r="B351" t="s">
         <v>230</v>
       </c>
-      <c r="C351" s="4">
+      <c r="C351" s="2">
         <v>410201</v>
       </c>
-      <c r="D351" s="4">
+      <c r="D351" s="2">
         <v>5</v>
       </c>
       <c r="E351" t="s">
@@ -9439,17 +9441,17 @@
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="2">
+      <c r="A352" s="4">
         <f t="shared" si="3"/>
         <v>41020118</v>
       </c>
       <c r="B352" t="s">
         <v>231</v>
       </c>
-      <c r="C352" s="4">
+      <c r="C352" s="2">
         <v>410201</v>
       </c>
-      <c r="D352" s="4">
+      <c r="D352" s="2">
         <v>5</v>
       </c>
       <c r="E352" t="s">
@@ -9463,17 +9465,17 @@
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="2">
+      <c r="A353" s="4">
         <f t="shared" si="3"/>
         <v>41020119</v>
       </c>
       <c r="B353" t="s">
         <v>232</v>
       </c>
-      <c r="C353" s="4">
+      <c r="C353" s="2">
         <v>410201</v>
       </c>
-      <c r="D353" s="4">
+      <c r="D353" s="2">
         <v>5</v>
       </c>
       <c r="E353" t="s">
@@ -9487,17 +9489,17 @@
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="2">
+      <c r="A354" s="4">
         <f t="shared" si="3"/>
         <v>41020120</v>
       </c>
       <c r="B354" t="s">
         <v>233</v>
       </c>
-      <c r="C354" s="4">
+      <c r="C354" s="2">
         <v>410201</v>
       </c>
-      <c r="D354" s="4">
+      <c r="D354" s="2">
         <v>5</v>
       </c>
       <c r="E354" t="s">
@@ -9511,17 +9513,17 @@
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="2">
+      <c r="A355" s="4">
         <f t="shared" si="3"/>
         <v>41020121</v>
       </c>
       <c r="B355" t="s">
         <v>234</v>
       </c>
-      <c r="C355" s="4">
+      <c r="C355" s="2">
         <v>410201</v>
       </c>
-      <c r="D355" s="4">
+      <c r="D355" s="2">
         <v>5</v>
       </c>
       <c r="E355" t="s">
@@ -9535,17 +9537,17 @@
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" s="2">
+      <c r="A356" s="4">
         <f t="shared" si="3"/>
         <v>41020122</v>
       </c>
       <c r="B356" t="s">
         <v>235</v>
       </c>
-      <c r="C356" s="4">
+      <c r="C356" s="2">
         <v>410201</v>
       </c>
-      <c r="D356" s="4">
+      <c r="D356" s="2">
         <v>5</v>
       </c>
       <c r="E356" t="s">
@@ -9559,17 +9561,17 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="2">
+      <c r="A357" s="4">
         <f t="shared" si="3"/>
         <v>41020123</v>
       </c>
       <c r="B357" t="s">
         <v>236</v>
       </c>
-      <c r="C357" s="4">
+      <c r="C357" s="2">
         <v>410201</v>
       </c>
-      <c r="D357" s="4">
+      <c r="D357" s="2">
         <v>5</v>
       </c>
       <c r="E357" t="s">
@@ -9583,17 +9585,17 @@
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="2">
+      <c r="A358" s="4">
         <f t="shared" si="3"/>
         <v>41020124</v>
       </c>
       <c r="B358" t="s">
         <v>237</v>
       </c>
-      <c r="C358" s="4">
+      <c r="C358" s="2">
         <v>410201</v>
       </c>
-      <c r="D358" s="4">
+      <c r="D358" s="2">
         <v>5</v>
       </c>
       <c r="E358" t="s">
@@ -9607,17 +9609,17 @@
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="2">
+      <c r="A359" s="4">
         <f t="shared" si="3"/>
         <v>41020125</v>
       </c>
       <c r="B359" t="s">
         <v>238</v>
       </c>
-      <c r="C359" s="4">
+      <c r="C359" s="2">
         <v>410201</v>
       </c>
-      <c r="D359" s="4">
+      <c r="D359" s="2">
         <v>5</v>
       </c>
       <c r="E359" t="s">
@@ -9631,17 +9633,17 @@
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="2">
+      <c r="A360" s="4">
         <f t="shared" si="3"/>
         <v>41020126</v>
       </c>
       <c r="B360" t="s">
         <v>239</v>
       </c>
-      <c r="C360" s="4">
+      <c r="C360" s="2">
         <v>410201</v>
       </c>
-      <c r="D360" s="4">
+      <c r="D360" s="2">
         <v>5</v>
       </c>
       <c r="E360" t="s">
@@ -9655,17 +9657,17 @@
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="2">
+      <c r="A361" s="4">
         <f t="shared" si="3"/>
         <v>41020127</v>
       </c>
       <c r="B361" t="s">
         <v>240</v>
       </c>
-      <c r="C361" s="4">
+      <c r="C361" s="2">
         <v>410201</v>
       </c>
-      <c r="D361" s="4">
+      <c r="D361" s="2">
         <v>5</v>
       </c>
       <c r="E361" t="s">
@@ -9679,17 +9681,17 @@
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="2">
+      <c r="A362" s="4">
         <f t="shared" si="3"/>
         <v>41020128</v>
       </c>
       <c r="B362" t="s">
         <v>241</v>
       </c>
-      <c r="C362" s="4">
+      <c r="C362" s="2">
         <v>410201</v>
       </c>
-      <c r="D362" s="4">
+      <c r="D362" s="2">
         <v>5</v>
       </c>
       <c r="E362" t="s">
@@ -9703,17 +9705,17 @@
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="2">
+      <c r="A363" s="4">
         <f t="shared" si="3"/>
         <v>41020129</v>
       </c>
       <c r="B363" t="s">
         <v>242</v>
       </c>
-      <c r="C363" s="4">
+      <c r="C363" s="2">
         <v>410201</v>
       </c>
-      <c r="D363" s="4">
+      <c r="D363" s="2">
         <v>5</v>
       </c>
       <c r="E363" t="s">
@@ -9727,17 +9729,17 @@
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" s="2">
+      <c r="A364" s="4">
         <f t="shared" si="3"/>
         <v>41020130</v>
       </c>
       <c r="B364" t="s">
         <v>243</v>
       </c>
-      <c r="C364" s="4">
+      <c r="C364" s="2">
         <v>410201</v>
       </c>
-      <c r="D364" s="4">
+      <c r="D364" s="2">
         <v>5</v>
       </c>
       <c r="E364" t="s">
@@ -9751,17 +9753,17 @@
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="2">
+      <c r="A365" s="4">
         <f t="shared" si="3"/>
         <v>41020131</v>
       </c>
       <c r="B365" t="s">
         <v>244</v>
       </c>
-      <c r="C365" s="4">
+      <c r="C365" s="2">
         <v>410201</v>
       </c>
-      <c r="D365" s="4">
+      <c r="D365" s="2">
         <v>5</v>
       </c>
       <c r="E365" t="s">
@@ -9775,17 +9777,17 @@
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366" s="2">
+      <c r="A366" s="4">
         <f t="shared" si="3"/>
         <v>41020132</v>
       </c>
       <c r="B366" t="s">
         <v>245</v>
       </c>
-      <c r="C366" s="4">
+      <c r="C366" s="2">
         <v>410201</v>
       </c>
-      <c r="D366" s="4">
+      <c r="D366" s="2">
         <v>5</v>
       </c>
       <c r="E366" t="s">
@@ -9799,17 +9801,17 @@
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="2">
+      <c r="A367" s="4">
         <f t="shared" si="3"/>
         <v>41020133</v>
       </c>
       <c r="B367" t="s">
         <v>246</v>
       </c>
-      <c r="C367" s="4">
+      <c r="C367" s="2">
         <v>410201</v>
       </c>
-      <c r="D367" s="4">
+      <c r="D367" s="2">
         <v>5</v>
       </c>
       <c r="E367" t="s">
@@ -9823,17 +9825,17 @@
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="2">
+      <c r="A368" s="4">
         <f t="shared" si="3"/>
         <v>41020134</v>
       </c>
       <c r="B368" t="s">
         <v>247</v>
       </c>
-      <c r="C368" s="4">
+      <c r="C368" s="2">
         <v>410201</v>
       </c>
-      <c r="D368" s="4">
+      <c r="D368" s="2">
         <v>5</v>
       </c>
       <c r="E368" t="s">
@@ -9847,17 +9849,17 @@
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" s="2">
+      <c r="A369" s="4">
         <f t="shared" si="3"/>
         <v>41020135</v>
       </c>
       <c r="B369" t="s">
         <v>248</v>
       </c>
-      <c r="C369" s="4">
+      <c r="C369" s="2">
         <v>410201</v>
       </c>
-      <c r="D369" s="4">
+      <c r="D369" s="2">
         <v>5</v>
       </c>
       <c r="E369" t="s">
@@ -9871,17 +9873,17 @@
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="2">
+      <c r="A370" s="4">
         <f t="shared" si="3"/>
         <v>41020136</v>
       </c>
       <c r="B370" t="s">
         <v>57</v>
       </c>
-      <c r="C370" s="4">
+      <c r="C370" s="2">
         <v>410201</v>
       </c>
-      <c r="D370" s="4">
+      <c r="D370" s="2">
         <v>5</v>
       </c>
       <c r="E370" t="s">
@@ -9895,17 +9897,17 @@
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="2">
+      <c r="A371" s="4">
         <f t="shared" si="3"/>
         <v>41020137</v>
       </c>
       <c r="B371" t="s">
         <v>249</v>
       </c>
-      <c r="C371" s="4">
+      <c r="C371" s="2">
         <v>410201</v>
       </c>
-      <c r="D371" s="4">
+      <c r="D371" s="2">
         <v>5</v>
       </c>
       <c r="E371" t="s">
@@ -9919,17 +9921,17 @@
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="2">
+      <c r="A372" s="4">
         <f t="shared" si="3"/>
         <v>41020138</v>
       </c>
       <c r="B372" t="s">
         <v>250</v>
       </c>
-      <c r="C372" s="4">
+      <c r="C372" s="2">
         <v>410201</v>
       </c>
-      <c r="D372" s="4">
+      <c r="D372" s="2">
         <v>5</v>
       </c>
       <c r="E372" t="s">
@@ -9943,17 +9945,17 @@
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="2">
+      <c r="A373" s="4">
         <f t="shared" si="3"/>
         <v>41020139</v>
       </c>
       <c r="B373" t="s">
         <v>251</v>
       </c>
-      <c r="C373" s="4">
+      <c r="C373" s="2">
         <v>410201</v>
       </c>
-      <c r="D373" s="4">
+      <c r="D373" s="2">
         <v>5</v>
       </c>
       <c r="E373" t="s">
@@ -9967,17 +9969,17 @@
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="2">
+      <c r="A374" s="4">
         <f t="shared" si="3"/>
         <v>41020140</v>
       </c>
       <c r="B374" t="s">
         <v>252</v>
       </c>
-      <c r="C374" s="4">
+      <c r="C374" s="2">
         <v>410201</v>
       </c>
-      <c r="D374" s="4">
+      <c r="D374" s="2">
         <v>5</v>
       </c>
       <c r="E374" t="s">
@@ -9991,17 +9993,17 @@
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" s="2">
+      <c r="A375" s="4">
         <f t="shared" si="3"/>
         <v>41020141</v>
       </c>
       <c r="B375" t="s">
         <v>253</v>
       </c>
-      <c r="C375" s="4">
+      <c r="C375" s="2">
         <v>410201</v>
       </c>
-      <c r="D375" s="4">
+      <c r="D375" s="2">
         <v>5</v>
       </c>
       <c r="E375" t="s">
@@ -10015,17 +10017,17 @@
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="2">
+      <c r="A376" s="4">
         <f t="shared" si="3"/>
         <v>41020142</v>
       </c>
       <c r="B376" t="s">
         <v>254</v>
       </c>
-      <c r="C376" s="4">
+      <c r="C376" s="2">
         <v>410201</v>
       </c>
-      <c r="D376" s="4">
+      <c r="D376" s="2">
         <v>5</v>
       </c>
       <c r="E376" t="s">
@@ -10039,17 +10041,17 @@
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="2">
+      <c r="A377" s="4">
         <f t="shared" si="3"/>
         <v>41020143</v>
       </c>
       <c r="B377" t="s">
         <v>255</v>
       </c>
-      <c r="C377" s="4">
+      <c r="C377" s="2">
         <v>410201</v>
       </c>
-      <c r="D377" s="4">
+      <c r="D377" s="2">
         <v>5</v>
       </c>
       <c r="E377" t="s">
@@ -10063,17 +10065,17 @@
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="2">
+      <c r="A378" s="4">
         <f t="shared" si="3"/>
         <v>41020144</v>
       </c>
       <c r="B378" t="s">
         <v>256</v>
       </c>
-      <c r="C378" s="4">
+      <c r="C378" s="2">
         <v>410201</v>
       </c>
-      <c r="D378" s="4">
+      <c r="D378" s="2">
         <v>5</v>
       </c>
       <c r="E378" t="s">
@@ -10087,17 +10089,17 @@
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" s="2">
+      <c r="A379" s="4">
         <f t="shared" si="3"/>
         <v>41020145</v>
       </c>
       <c r="B379" t="s">
         <v>257</v>
       </c>
-      <c r="C379" s="4">
+      <c r="C379" s="2">
         <v>410201</v>
       </c>
-      <c r="D379" s="4">
+      <c r="D379" s="2">
         <v>5</v>
       </c>
       <c r="E379" t="s">
@@ -10111,17 +10113,17 @@
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" s="2">
+      <c r="A380" s="4">
         <f t="shared" si="3"/>
         <v>41020146</v>
       </c>
       <c r="B380" t="s">
         <v>258</v>
       </c>
-      <c r="C380" s="4">
+      <c r="C380" s="2">
         <v>410201</v>
       </c>
-      <c r="D380" s="4">
+      <c r="D380" s="2">
         <v>5</v>
       </c>
       <c r="E380" t="s">
@@ -10135,16 +10137,16 @@
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" s="2">
+      <c r="A381" s="4">
         <v>410202</v>
       </c>
       <c r="B381" t="s">
         <v>262</v>
       </c>
-      <c r="C381" s="4">
+      <c r="C381" s="2">
         <v>4102</v>
       </c>
-      <c r="D381" s="4">
+      <c r="D381" s="2">
         <v>4</v>
       </c>
       <c r="E381" t="s">
@@ -10158,16 +10160,16 @@
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" s="2">
+      <c r="A382" s="4">
         <v>41020201</v>
       </c>
       <c r="B382" t="s">
         <v>217</v>
       </c>
-      <c r="C382" s="4">
+      <c r="C382" s="2">
         <v>410202</v>
       </c>
-      <c r="D382" s="4">
+      <c r="D382" s="2">
         <v>5</v>
       </c>
       <c r="E382" t="s">
@@ -10181,17 +10183,17 @@
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="2">
+      <c r="A383" s="4">
         <f>+A382+1</f>
         <v>41020202</v>
       </c>
       <c r="B383" t="s">
         <v>218</v>
       </c>
-      <c r="C383" s="4">
+      <c r="C383" s="2">
         <v>410202</v>
       </c>
-      <c r="D383" s="4">
+      <c r="D383" s="2">
         <v>5</v>
       </c>
       <c r="E383" t="s">
@@ -10205,17 +10207,17 @@
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="2">
+      <c r="A384" s="4">
         <f t="shared" ref="A384:A427" si="4">+A383+1</f>
         <v>41020203</v>
       </c>
       <c r="B384" t="s">
         <v>219</v>
       </c>
-      <c r="C384" s="4">
+      <c r="C384" s="2">
         <v>410202</v>
       </c>
-      <c r="D384" s="4">
+      <c r="D384" s="2">
         <v>5</v>
       </c>
       <c r="E384" t="s">
@@ -10229,17 +10231,17 @@
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="2">
+      <c r="A385" s="4">
         <f t="shared" si="4"/>
         <v>41020204</v>
       </c>
       <c r="B385" t="s">
         <v>220</v>
       </c>
-      <c r="C385" s="4">
+      <c r="C385" s="2">
         <v>410202</v>
       </c>
-      <c r="D385" s="4">
+      <c r="D385" s="2">
         <v>5</v>
       </c>
       <c r="E385" t="s">
@@ -10253,17 +10255,17 @@
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="2">
+      <c r="A386" s="4">
         <f t="shared" si="4"/>
         <v>41020205</v>
       </c>
       <c r="B386" t="s">
         <v>221</v>
       </c>
-      <c r="C386" s="4">
+      <c r="C386" s="2">
         <v>410202</v>
       </c>
-      <c r="D386" s="4">
+      <c r="D386" s="2">
         <v>5</v>
       </c>
       <c r="E386" t="s">
@@ -10277,17 +10279,17 @@
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" s="2">
+      <c r="A387" s="4">
         <f t="shared" si="4"/>
         <v>41020206</v>
       </c>
       <c r="B387" t="s">
         <v>222</v>
       </c>
-      <c r="C387" s="4">
+      <c r="C387" s="2">
         <v>410202</v>
       </c>
-      <c r="D387" s="4">
+      <c r="D387" s="2">
         <v>5</v>
       </c>
       <c r="E387" t="s">
@@ -10301,17 +10303,17 @@
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388" s="2">
+      <c r="A388" s="4">
         <f t="shared" si="4"/>
         <v>41020207</v>
       </c>
       <c r="B388" t="s">
         <v>145</v>
       </c>
-      <c r="C388" s="4">
+      <c r="C388" s="2">
         <v>410202</v>
       </c>
-      <c r="D388" s="4">
+      <c r="D388" s="2">
         <v>5</v>
       </c>
       <c r="E388" t="s">
@@ -10325,17 +10327,17 @@
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A389" s="2">
+      <c r="A389" s="4">
         <f t="shared" si="4"/>
         <v>41020208</v>
       </c>
       <c r="B389" t="s">
         <v>147</v>
       </c>
-      <c r="C389" s="4">
+      <c r="C389" s="2">
         <v>410202</v>
       </c>
-      <c r="D389" s="4">
+      <c r="D389" s="2">
         <v>5</v>
       </c>
       <c r="E389" t="s">
@@ -10349,17 +10351,17 @@
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A390" s="2">
+      <c r="A390" s="4">
         <f t="shared" si="4"/>
         <v>41020209</v>
       </c>
       <c r="B390" t="s">
         <v>223</v>
       </c>
-      <c r="C390" s="4">
+      <c r="C390" s="2">
         <v>410202</v>
       </c>
-      <c r="D390" s="4">
+      <c r="D390" s="2">
         <v>5</v>
       </c>
       <c r="E390" t="s">
@@ -10373,17 +10375,17 @@
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391" s="2">
+      <c r="A391" s="4">
         <f t="shared" si="4"/>
         <v>41020210</v>
       </c>
       <c r="B391" t="s">
         <v>224</v>
       </c>
-      <c r="C391" s="4">
+      <c r="C391" s="2">
         <v>410202</v>
       </c>
-      <c r="D391" s="4">
+      <c r="D391" s="2">
         <v>5</v>
       </c>
       <c r="E391" t="s">
@@ -10397,17 +10399,17 @@
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="2">
+      <c r="A392" s="4">
         <f t="shared" si="4"/>
         <v>41020211</v>
       </c>
       <c r="B392" t="s">
         <v>225</v>
       </c>
-      <c r="C392" s="4">
+      <c r="C392" s="2">
         <v>410202</v>
       </c>
-      <c r="D392" s="4">
+      <c r="D392" s="2">
         <v>5</v>
       </c>
       <c r="E392" t="s">
@@ -10421,17 +10423,17 @@
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="2">
+      <c r="A393" s="4">
         <f t="shared" si="4"/>
         <v>41020212</v>
       </c>
       <c r="B393" t="s">
         <v>226</v>
       </c>
-      <c r="C393" s="4">
+      <c r="C393" s="2">
         <v>410202</v>
       </c>
-      <c r="D393" s="4">
+      <c r="D393" s="2">
         <v>5</v>
       </c>
       <c r="E393" t="s">
@@ -10445,17 +10447,17 @@
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394" s="2">
+      <c r="A394" s="4">
         <f t="shared" si="4"/>
         <v>41020213</v>
       </c>
       <c r="B394" t="s">
         <v>227</v>
       </c>
-      <c r="C394" s="4">
+      <c r="C394" s="2">
         <v>410202</v>
       </c>
-      <c r="D394" s="4">
+      <c r="D394" s="2">
         <v>5</v>
       </c>
       <c r="E394" t="s">
@@ -10469,17 +10471,17 @@
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395" s="2">
+      <c r="A395" s="4">
         <f t="shared" si="4"/>
         <v>41020214</v>
       </c>
       <c r="B395" t="s">
         <v>171</v>
       </c>
-      <c r="C395" s="4">
+      <c r="C395" s="2">
         <v>410202</v>
       </c>
-      <c r="D395" s="4">
+      <c r="D395" s="2">
         <v>5</v>
       </c>
       <c r="E395" t="s">
@@ -10493,17 +10495,17 @@
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A396" s="2">
+      <c r="A396" s="4">
         <f t="shared" si="4"/>
         <v>41020215</v>
       </c>
       <c r="B396" t="s">
         <v>228</v>
       </c>
-      <c r="C396" s="4">
+      <c r="C396" s="2">
         <v>410202</v>
       </c>
-      <c r="D396" s="4">
+      <c r="D396" s="2">
         <v>5</v>
       </c>
       <c r="E396" t="s">
@@ -10517,17 +10519,17 @@
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A397" s="2">
+      <c r="A397" s="4">
         <f t="shared" si="4"/>
         <v>41020216</v>
       </c>
       <c r="B397" t="s">
         <v>229</v>
       </c>
-      <c r="C397" s="4">
+      <c r="C397" s="2">
         <v>410202</v>
       </c>
-      <c r="D397" s="4">
+      <c r="D397" s="2">
         <v>5</v>
       </c>
       <c r="E397" t="s">
@@ -10541,17 +10543,17 @@
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A398" s="2">
+      <c r="A398" s="4">
         <f t="shared" si="4"/>
         <v>41020217</v>
       </c>
       <c r="B398" t="s">
         <v>230</v>
       </c>
-      <c r="C398" s="4">
+      <c r="C398" s="2">
         <v>410202</v>
       </c>
-      <c r="D398" s="4">
+      <c r="D398" s="2">
         <v>5</v>
       </c>
       <c r="E398" t="s">
@@ -10565,17 +10567,17 @@
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399" s="2">
+      <c r="A399" s="4">
         <f t="shared" si="4"/>
         <v>41020218</v>
       </c>
       <c r="B399" t="s">
         <v>231</v>
       </c>
-      <c r="C399" s="4">
+      <c r="C399" s="2">
         <v>410202</v>
       </c>
-      <c r="D399" s="4">
+      <c r="D399" s="2">
         <v>5</v>
       </c>
       <c r="E399" t="s">
@@ -10589,17 +10591,17 @@
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="2">
+      <c r="A400" s="4">
         <f t="shared" si="4"/>
         <v>41020219</v>
       </c>
       <c r="B400" t="s">
         <v>232</v>
       </c>
-      <c r="C400" s="4">
+      <c r="C400" s="2">
         <v>410202</v>
       </c>
-      <c r="D400" s="4">
+      <c r="D400" s="2">
         <v>5</v>
       </c>
       <c r="E400" t="s">
@@ -10613,17 +10615,17 @@
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="2">
+      <c r="A401" s="4">
         <f t="shared" si="4"/>
         <v>41020220</v>
       </c>
       <c r="B401" t="s">
         <v>233</v>
       </c>
-      <c r="C401" s="4">
+      <c r="C401" s="2">
         <v>410202</v>
       </c>
-      <c r="D401" s="4">
+      <c r="D401" s="2">
         <v>5</v>
       </c>
       <c r="E401" t="s">
@@ -10637,17 +10639,17 @@
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="2">
+      <c r="A402" s="4">
         <f t="shared" si="4"/>
         <v>41020221</v>
       </c>
       <c r="B402" t="s">
         <v>234</v>
       </c>
-      <c r="C402" s="4">
+      <c r="C402" s="2">
         <v>410202</v>
       </c>
-      <c r="D402" s="4">
+      <c r="D402" s="2">
         <v>5</v>
       </c>
       <c r="E402" t="s">
@@ -10661,17 +10663,17 @@
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403" s="2">
+      <c r="A403" s="4">
         <f t="shared" si="4"/>
         <v>41020222</v>
       </c>
       <c r="B403" t="s">
         <v>235</v>
       </c>
-      <c r="C403" s="4">
+      <c r="C403" s="2">
         <v>410202</v>
       </c>
-      <c r="D403" s="4">
+      <c r="D403" s="2">
         <v>5</v>
       </c>
       <c r="E403" t="s">
@@ -10685,17 +10687,17 @@
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="2">
+      <c r="A404" s="4">
         <f t="shared" si="4"/>
         <v>41020223</v>
       </c>
       <c r="B404" t="s">
         <v>236</v>
       </c>
-      <c r="C404" s="4">
+      <c r="C404" s="2">
         <v>410202</v>
       </c>
-      <c r="D404" s="4">
+      <c r="D404" s="2">
         <v>5</v>
       </c>
       <c r="E404" t="s">
@@ -10709,17 +10711,17 @@
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="2">
+      <c r="A405" s="4">
         <f t="shared" si="4"/>
         <v>41020224</v>
       </c>
       <c r="B405" t="s">
         <v>237</v>
       </c>
-      <c r="C405" s="4">
+      <c r="C405" s="2">
         <v>410202</v>
       </c>
-      <c r="D405" s="4">
+      <c r="D405" s="2">
         <v>5</v>
       </c>
       <c r="E405" t="s">
@@ -10733,17 +10735,17 @@
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="2">
+      <c r="A406" s="4">
         <f t="shared" si="4"/>
         <v>41020225</v>
       </c>
       <c r="B406" t="s">
         <v>238</v>
       </c>
-      <c r="C406" s="4">
+      <c r="C406" s="2">
         <v>410202</v>
       </c>
-      <c r="D406" s="4">
+      <c r="D406" s="2">
         <v>5</v>
       </c>
       <c r="E406" t="s">
@@ -10757,17 +10759,17 @@
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="2">
+      <c r="A407" s="4">
         <f t="shared" si="4"/>
         <v>41020226</v>
       </c>
       <c r="B407" t="s">
         <v>239</v>
       </c>
-      <c r="C407" s="4">
+      <c r="C407" s="2">
         <v>410202</v>
       </c>
-      <c r="D407" s="4">
+      <c r="D407" s="2">
         <v>5</v>
       </c>
       <c r="E407" t="s">
@@ -10781,17 +10783,17 @@
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408" s="2">
+      <c r="A408" s="4">
         <f t="shared" si="4"/>
         <v>41020227</v>
       </c>
       <c r="B408" t="s">
         <v>240</v>
       </c>
-      <c r="C408" s="4">
+      <c r="C408" s="2">
         <v>410202</v>
       </c>
-      <c r="D408" s="4">
+      <c r="D408" s="2">
         <v>5</v>
       </c>
       <c r="E408" t="s">
@@ -10805,17 +10807,17 @@
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="2">
+      <c r="A409" s="4">
         <f t="shared" si="4"/>
         <v>41020228</v>
       </c>
       <c r="B409" t="s">
         <v>241</v>
       </c>
-      <c r="C409" s="4">
+      <c r="C409" s="2">
         <v>410202</v>
       </c>
-      <c r="D409" s="4">
+      <c r="D409" s="2">
         <v>5</v>
       </c>
       <c r="E409" t="s">
@@ -10829,17 +10831,17 @@
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" s="2">
+      <c r="A410" s="4">
         <f t="shared" si="4"/>
         <v>41020229</v>
       </c>
       <c r="B410" t="s">
         <v>242</v>
       </c>
-      <c r="C410" s="4">
+      <c r="C410" s="2">
         <v>410202</v>
       </c>
-      <c r="D410" s="4">
+      <c r="D410" s="2">
         <v>5</v>
       </c>
       <c r="E410" t="s">
@@ -10853,17 +10855,17 @@
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411" s="2">
+      <c r="A411" s="4">
         <f t="shared" si="4"/>
         <v>41020230</v>
       </c>
       <c r="B411" t="s">
         <v>243</v>
       </c>
-      <c r="C411" s="4">
+      <c r="C411" s="2">
         <v>410202</v>
       </c>
-      <c r="D411" s="4">
+      <c r="D411" s="2">
         <v>5</v>
       </c>
       <c r="E411" t="s">
@@ -10877,17 +10879,17 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="2">
+      <c r="A412" s="4">
         <f t="shared" si="4"/>
         <v>41020231</v>
       </c>
       <c r="B412" t="s">
         <v>244</v>
       </c>
-      <c r="C412" s="4">
+      <c r="C412" s="2">
         <v>410202</v>
       </c>
-      <c r="D412" s="4">
+      <c r="D412" s="2">
         <v>5</v>
       </c>
       <c r="E412" t="s">
@@ -10901,17 +10903,17 @@
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="2">
+      <c r="A413" s="4">
         <f t="shared" si="4"/>
         <v>41020232</v>
       </c>
       <c r="B413" t="s">
         <v>245</v>
       </c>
-      <c r="C413" s="4">
+      <c r="C413" s="2">
         <v>410202</v>
       </c>
-      <c r="D413" s="4">
+      <c r="D413" s="2">
         <v>5</v>
       </c>
       <c r="E413" t="s">
@@ -10925,17 +10927,17 @@
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="2">
+      <c r="A414" s="4">
         <f t="shared" si="4"/>
         <v>41020233</v>
       </c>
       <c r="B414" t="s">
         <v>246</v>
       </c>
-      <c r="C414" s="4">
+      <c r="C414" s="2">
         <v>410202</v>
       </c>
-      <c r="D414" s="4">
+      <c r="D414" s="2">
         <v>5</v>
       </c>
       <c r="E414" t="s">
@@ -10949,17 +10951,17 @@
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="2">
+      <c r="A415" s="4">
         <f t="shared" si="4"/>
         <v>41020234</v>
       </c>
       <c r="B415" t="s">
         <v>247</v>
       </c>
-      <c r="C415" s="4">
+      <c r="C415" s="2">
         <v>410202</v>
       </c>
-      <c r="D415" s="4">
+      <c r="D415" s="2">
         <v>5</v>
       </c>
       <c r="E415" t="s">
@@ -10973,17 +10975,17 @@
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="2">
+      <c r="A416" s="4">
         <f t="shared" si="4"/>
         <v>41020235</v>
       </c>
       <c r="B416" t="s">
         <v>248</v>
       </c>
-      <c r="C416" s="4">
+      <c r="C416" s="2">
         <v>410202</v>
       </c>
-      <c r="D416" s="4">
+      <c r="D416" s="2">
         <v>5</v>
       </c>
       <c r="E416" t="s">
@@ -10997,17 +10999,17 @@
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="2">
+      <c r="A417" s="4">
         <f t="shared" si="4"/>
         <v>41020236</v>
       </c>
       <c r="B417" t="s">
         <v>57</v>
       </c>
-      <c r="C417" s="4">
+      <c r="C417" s="2">
         <v>410202</v>
       </c>
-      <c r="D417" s="4">
+      <c r="D417" s="2">
         <v>5</v>
       </c>
       <c r="E417" t="s">
@@ -11021,17 +11023,17 @@
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="2">
+      <c r="A418" s="4">
         <f t="shared" si="4"/>
         <v>41020237</v>
       </c>
       <c r="B418" t="s">
         <v>249</v>
       </c>
-      <c r="C418" s="4">
+      <c r="C418" s="2">
         <v>410202</v>
       </c>
-      <c r="D418" s="4">
+      <c r="D418" s="2">
         <v>5</v>
       </c>
       <c r="E418" t="s">
@@ -11045,17 +11047,17 @@
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="2">
+      <c r="A419" s="4">
         <f t="shared" si="4"/>
         <v>41020238</v>
       </c>
       <c r="B419" t="s">
         <v>250</v>
       </c>
-      <c r="C419" s="4">
+      <c r="C419" s="2">
         <v>410202</v>
       </c>
-      <c r="D419" s="4">
+      <c r="D419" s="2">
         <v>5</v>
       </c>
       <c r="E419" t="s">
@@ -11069,17 +11071,17 @@
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="2">
+      <c r="A420" s="4">
         <f t="shared" si="4"/>
         <v>41020239</v>
       </c>
       <c r="B420" t="s">
         <v>251</v>
       </c>
-      <c r="C420" s="4">
+      <c r="C420" s="2">
         <v>410202</v>
       </c>
-      <c r="D420" s="4">
+      <c r="D420" s="2">
         <v>5</v>
       </c>
       <c r="E420" t="s">
@@ -11093,17 +11095,17 @@
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="2">
+      <c r="A421" s="4">
         <f t="shared" si="4"/>
         <v>41020240</v>
       </c>
       <c r="B421" t="s">
         <v>252</v>
       </c>
-      <c r="C421" s="4">
+      <c r="C421" s="2">
         <v>410202</v>
       </c>
-      <c r="D421" s="4">
+      <c r="D421" s="2">
         <v>5</v>
       </c>
       <c r="E421" t="s">
@@ -11117,17 +11119,17 @@
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="2">
+      <c r="A422" s="4">
         <f t="shared" si="4"/>
         <v>41020241</v>
       </c>
       <c r="B422" t="s">
         <v>253</v>
       </c>
-      <c r="C422" s="4">
+      <c r="C422" s="2">
         <v>410202</v>
       </c>
-      <c r="D422" s="4">
+      <c r="D422" s="2">
         <v>5</v>
       </c>
       <c r="E422" t="s">
@@ -11141,17 +11143,17 @@
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="2">
+      <c r="A423" s="4">
         <f t="shared" si="4"/>
         <v>41020242</v>
       </c>
       <c r="B423" t="s">
         <v>254</v>
       </c>
-      <c r="C423" s="4">
+      <c r="C423" s="2">
         <v>410202</v>
       </c>
-      <c r="D423" s="4">
+      <c r="D423" s="2">
         <v>5</v>
       </c>
       <c r="E423" t="s">
@@ -11165,17 +11167,17 @@
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424" s="2">
+      <c r="A424" s="4">
         <f t="shared" si="4"/>
         <v>41020243</v>
       </c>
       <c r="B424" t="s">
         <v>255</v>
       </c>
-      <c r="C424" s="4">
+      <c r="C424" s="2">
         <v>410202</v>
       </c>
-      <c r="D424" s="4">
+      <c r="D424" s="2">
         <v>5</v>
       </c>
       <c r="E424" t="s">
@@ -11189,17 +11191,17 @@
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="2">
+      <c r="A425" s="4">
         <f t="shared" si="4"/>
         <v>41020244</v>
       </c>
       <c r="B425" t="s">
         <v>256</v>
       </c>
-      <c r="C425" s="4">
+      <c r="C425" s="2">
         <v>410202</v>
       </c>
-      <c r="D425" s="4">
+      <c r="D425" s="2">
         <v>5</v>
       </c>
       <c r="E425" t="s">
@@ -11213,17 +11215,17 @@
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="2">
+      <c r="A426" s="4">
         <f t="shared" si="4"/>
         <v>41020245</v>
       </c>
       <c r="B426" t="s">
         <v>257</v>
       </c>
-      <c r="C426" s="4">
+      <c r="C426" s="2">
         <v>410202</v>
       </c>
-      <c r="D426" s="4">
+      <c r="D426" s="2">
         <v>5</v>
       </c>
       <c r="E426" t="s">
@@ -11237,17 +11239,17 @@
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="2">
+      <c r="A427" s="4">
         <f t="shared" si="4"/>
         <v>41020246</v>
       </c>
       <c r="B427" t="s">
         <v>258</v>
       </c>
-      <c r="C427" s="4">
+      <c r="C427" s="2">
         <v>410202</v>
       </c>
-      <c r="D427" s="4">
+      <c r="D427" s="2">
         <v>5</v>
       </c>
       <c r="E427" t="s">
@@ -11261,16 +11263,16 @@
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="2">
+      <c r="A428" s="4">
         <v>410203</v>
       </c>
       <c r="B428" t="s">
         <v>263</v>
       </c>
-      <c r="C428" s="4">
+      <c r="C428" s="2">
         <v>4102</v>
       </c>
-      <c r="D428" s="4">
+      <c r="D428" s="2">
         <v>4</v>
       </c>
       <c r="E428" t="s">
@@ -11284,16 +11286,16 @@
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A429" s="2">
+      <c r="A429" s="4">
         <v>41020301</v>
       </c>
       <c r="B429" t="s">
         <v>264</v>
       </c>
-      <c r="C429" s="4">
+      <c r="C429" s="2">
         <v>410203</v>
       </c>
-      <c r="D429" s="4">
+      <c r="D429" s="2">
         <v>5</v>
       </c>
       <c r="E429" t="s">
@@ -11307,16 +11309,16 @@
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A430" s="2">
+      <c r="A430" s="4">
         <v>41020302</v>
       </c>
       <c r="B430" t="s">
         <v>143</v>
       </c>
-      <c r="C430" s="4">
+      <c r="C430" s="2">
         <v>410203</v>
       </c>
-      <c r="D430" s="4">
+      <c r="D430" s="2">
         <v>5</v>
       </c>
       <c r="E430" t="s">
@@ -11330,16 +11332,16 @@
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A431" s="2">
+      <c r="A431" s="4">
         <v>410204</v>
       </c>
       <c r="B431" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="4">
+      <c r="C431" s="2">
         <v>4102</v>
       </c>
-      <c r="D431" s="4">
+      <c r="D431" s="2">
         <v>4</v>
       </c>
       <c r="E431" t="s">
@@ -11353,16 +11355,16 @@
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A432" s="1">
+      <c r="A432" s="5">
         <v>42</v>
       </c>
-      <c r="B432" s="3" t="s">
+      <c r="B432" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C432" s="4">
-        <v>4</v>
-      </c>
-      <c r="D432" s="4">
+      <c r="C432" s="2">
+        <v>4</v>
+      </c>
+      <c r="D432" s="2">
         <v>2</v>
       </c>
       <c r="E432" t="s">
@@ -11376,16 +11378,16 @@
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A433" s="2">
+      <c r="A433" s="4">
         <v>4201</v>
       </c>
       <c r="B433" t="s">
         <v>258</v>
       </c>
-      <c r="C433" s="4">
+      <c r="C433" s="2">
         <v>42</v>
       </c>
-      <c r="D433" s="4">
+      <c r="D433" s="2">
         <v>3</v>
       </c>
       <c r="E433" t="s">
@@ -11399,16 +11401,16 @@
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434" s="2">
+      <c r="A434" s="4">
         <v>420101</v>
       </c>
       <c r="B434" t="s">
         <v>267</v>
       </c>
-      <c r="C434" s="4">
+      <c r="C434" s="2">
         <v>4201</v>
       </c>
-      <c r="D434" s="4">
+      <c r="D434" s="2">
         <v>4</v>
       </c>
       <c r="E434" t="s">
@@ -11422,16 +11424,16 @@
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="2">
+      <c r="A435" s="4">
         <v>42010101</v>
       </c>
       <c r="B435" t="s">
         <v>268</v>
       </c>
-      <c r="C435" s="4">
+      <c r="C435" s="2">
         <v>420101</v>
       </c>
-      <c r="D435" s="4">
+      <c r="D435" s="2">
         <v>5</v>
       </c>
       <c r="E435" t="s">
@@ -11445,16 +11447,16 @@
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="2">
+      <c r="A436" s="4">
         <v>42010102</v>
       </c>
       <c r="B436" t="s">
         <v>269</v>
       </c>
-      <c r="C436" s="4">
+      <c r="C436" s="2">
         <v>420101</v>
       </c>
-      <c r="D436" s="4">
+      <c r="D436" s="2">
         <v>5</v>
       </c>
       <c r="E436" t="s">
@@ -11468,16 +11470,16 @@
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" s="2">
+      <c r="A437" s="4">
         <v>420102</v>
       </c>
       <c r="B437" t="s">
         <v>270</v>
       </c>
-      <c r="C437" s="4">
+      <c r="C437" s="2">
         <v>4201</v>
       </c>
-      <c r="D437" s="4">
+      <c r="D437" s="2">
         <v>4</v>
       </c>
       <c r="E437" t="s">
@@ -11491,16 +11493,16 @@
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A438" s="2">
+      <c r="A438" s="4">
         <v>420103</v>
       </c>
       <c r="B438" t="s">
         <v>271</v>
       </c>
-      <c r="C438" s="4">
+      <c r="C438" s="2">
         <v>4201</v>
       </c>
-      <c r="D438" s="4">
+      <c r="D438" s="2">
         <v>4</v>
       </c>
       <c r="E438" t="s">
@@ -11514,13 +11516,13 @@
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A439" s="1">
-        <v>5</v>
-      </c>
-      <c r="B439" s="3" t="s">
+      <c r="A439" s="5">
+        <v>5</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D439" s="4">
+      <c r="D439" s="2">
         <v>1</v>
       </c>
       <c r="E439" t="s">
@@ -11534,16 +11536,16 @@
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A440" s="1">
+      <c r="A440" s="5">
         <v>51</v>
       </c>
-      <c r="B440" s="3" t="s">
+      <c r="B440" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C440" s="4">
-        <v>5</v>
-      </c>
-      <c r="D440" s="4">
+      <c r="C440" s="2">
+        <v>5</v>
+      </c>
+      <c r="D440" s="2">
         <v>2</v>
       </c>
       <c r="E440" t="s">
@@ -11557,16 +11559,16 @@
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="2">
+      <c r="A441" s="4">
         <v>5101</v>
       </c>
       <c r="B441" t="s">
         <v>274</v>
       </c>
-      <c r="C441" s="4">
+      <c r="C441" s="2">
         <v>51</v>
       </c>
-      <c r="D441" s="4">
+      <c r="D441" s="2">
         <v>3</v>
       </c>
       <c r="E441" t="s">
@@ -11580,16 +11582,16 @@
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="2">
+      <c r="A442" s="4">
         <v>5102</v>
       </c>
       <c r="B442" t="s">
         <v>275</v>
       </c>
-      <c r="C442" s="4">
+      <c r="C442" s="2">
         <v>51</v>
       </c>
-      <c r="D442" s="4">
+      <c r="D442" s="2">
         <v>3</v>
       </c>
       <c r="E442" t="s">
@@ -11603,16 +11605,16 @@
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443" s="1">
+      <c r="A443" s="5">
         <v>52</v>
       </c>
-      <c r="B443" s="3" t="s">
+      <c r="B443" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C443" s="4">
-        <v>5</v>
-      </c>
-      <c r="D443" s="4">
+      <c r="C443" s="2">
+        <v>5</v>
+      </c>
+      <c r="D443" s="2">
         <v>2</v>
       </c>
       <c r="E443" t="s">
@@ -11626,16 +11628,16 @@
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A444" s="2">
+      <c r="A444" s="4">
         <v>5201</v>
       </c>
       <c r="B444" t="s">
         <v>277</v>
       </c>
-      <c r="C444" s="4">
+      <c r="C444" s="2">
         <v>52</v>
       </c>
-      <c r="D444" s="4">
+      <c r="D444" s="2">
         <v>3</v>
       </c>
       <c r="E444" t="s">
@@ -11649,16 +11651,16 @@
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A445" s="2">
+      <c r="A445" s="4">
         <v>520101</v>
       </c>
       <c r="B445" t="s">
         <v>278</v>
       </c>
-      <c r="C445" s="4">
+      <c r="C445" s="2">
         <v>5201</v>
       </c>
-      <c r="D445" s="4">
+      <c r="D445" s="2">
         <v>4</v>
       </c>
       <c r="E445" t="s">
@@ -11672,16 +11674,16 @@
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A446" s="2">
+      <c r="A446" s="4">
         <v>52010101</v>
       </c>
       <c r="B446" t="s">
         <v>279</v>
       </c>
-      <c r="C446" s="4">
+      <c r="C446" s="2">
         <v>520101</v>
       </c>
-      <c r="D446" s="4">
+      <c r="D446" s="2">
         <v>5</v>
       </c>
       <c r="E446" t="s">
@@ -11695,16 +11697,16 @@
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A447" s="2">
+      <c r="A447" s="4">
         <v>52010102</v>
       </c>
       <c r="B447" t="s">
         <v>280</v>
       </c>
-      <c r="C447" s="4">
+      <c r="C447" s="2">
         <v>520101</v>
       </c>
-      <c r="D447" s="4">
+      <c r="D447" s="2">
         <v>5</v>
       </c>
       <c r="E447" t="s">
@@ -11718,16 +11720,16 @@
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A448" s="2">
+      <c r="A448" s="4">
         <v>520102</v>
       </c>
       <c r="B448" t="s">
         <v>281</v>
       </c>
-      <c r="C448" s="4">
+      <c r="C448" s="2">
         <v>5201</v>
       </c>
-      <c r="D448" s="4">
+      <c r="D448" s="2">
         <v>4</v>
       </c>
       <c r="E448" t="s">
@@ -11741,16 +11743,16 @@
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A449" s="2">
+      <c r="A449" s="4">
         <v>520109</v>
       </c>
       <c r="B449" t="s">
         <v>282</v>
       </c>
-      <c r="C449" s="4">
+      <c r="C449" s="2">
         <v>5201</v>
       </c>
-      <c r="D449" s="4">
+      <c r="D449" s="2">
         <v>4</v>
       </c>
       <c r="E449" t="s">
@@ -11764,16 +11766,16 @@
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A450" s="2">
+      <c r="A450" s="4">
         <v>52010901</v>
       </c>
       <c r="B450" t="s">
         <v>283</v>
       </c>
-      <c r="C450" s="4">
+      <c r="C450" s="2">
         <v>520109</v>
       </c>
-      <c r="D450" s="4">
+      <c r="D450" s="2">
         <v>5</v>
       </c>
       <c r="E450" t="s">
@@ -11787,16 +11789,16 @@
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A451" s="2">
+      <c r="A451" s="4">
         <v>52010902</v>
       </c>
       <c r="B451" t="s">
         <v>284</v>
       </c>
-      <c r="C451" s="4">
+      <c r="C451" s="2">
         <v>520109</v>
       </c>
-      <c r="D451" s="4">
+      <c r="D451" s="2">
         <v>5</v>
       </c>
       <c r="E451" t="s">
@@ -11810,10 +11812,10 @@
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" s="1">
+      <c r="A452" s="5">
         <v>6</v>
       </c>
-      <c r="B452" s="3" t="s">
+      <c r="B452" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D452">
@@ -11830,16 +11832,16 @@
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A453" s="1">
+      <c r="A453" s="5">
         <v>61</v>
       </c>
-      <c r="B453" s="3" t="s">
+      <c r="B453" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C453" s="4">
+      <c r="C453" s="2">
         <v>6</v>
       </c>
-      <c r="D453" s="4">
+      <c r="D453" s="2">
         <v>2</v>
       </c>
       <c r="E453" t="s">
@@ -11853,16 +11855,16 @@
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A454" s="2">
+      <c r="A454" s="4">
         <v>6101</v>
       </c>
       <c r="B454" t="s">
         <v>287</v>
       </c>
-      <c r="C454" s="4">
+      <c r="C454" s="2">
         <v>61</v>
       </c>
-      <c r="D454" s="4">
+      <c r="D454" s="2">
         <v>3</v>
       </c>
       <c r="E454" t="s">
@@ -11876,16 +11878,16 @@
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A455" s="2">
+      <c r="A455" s="4">
         <v>610101</v>
       </c>
       <c r="B455" t="s">
         <v>287</v>
       </c>
-      <c r="C455" s="4">
+      <c r="C455" s="2">
         <v>6101</v>
       </c>
-      <c r="D455" s="4">
+      <c r="D455" s="2">
         <v>4</v>
       </c>
       <c r="E455" t="s">
